--- a/Excel Terminado.xlsx
+++ b/Excel Terminado.xlsx
@@ -330,7 +330,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="D9:AA36"/>
+  <dimension ref="D9:AA32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -346,33 +346,32 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Panamá Pacífico, clave para la reactivación económica del país</t>
+          <t>Inteligencia artificial mejora el nivel de seguridad de las actividades comerciales</t>
         </is>
       </c>
       <c r="F9" s="1" t="n">
-        <v>44076</v>
+        <v>44116</v>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>Web</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>1 página</t>
+          <t>1 post</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Panamá Pacífico, clave para la reactivación económica del país</t>
+          <t>Inteligencia artificial mejora el nivel de seguridad de las actividades comerciales</t>
         </is>
       </c>
       <c r="K9" t="n">
         <v>1</v>
       </c>
-      <c r="L9">
-        <f>IF(N9=3, 750, IF(N9=1, 1000, ""))</f>
-        <v/>
+      <c r="L9" t="n">
+        <v>500</v>
       </c>
       <c r="M9">
         <f>L9*4</f>
@@ -388,7 +387,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>http://www.panama24horas.com.pa/panama/panama-pacifico-clave-para-la-reactivacion-economica-del-pais/</t>
+          <t>https://www.instagram.com/p/CGQouMGn-FB/?igshid=1femxospxoxhy</t>
         </is>
       </c>
     </row>
@@ -400,32 +399,33 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Panamá Pacífico, clave para la reactivación económica del país</t>
+          <t>Inteligencia artificial mejora el nivel de seguridad de las actividades comerciales</t>
         </is>
       </c>
       <c r="F10" s="1" t="n">
-        <v>44076</v>
+        <v>44117</v>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>Twitter</t>
+          <t>Web</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>1 post</t>
+          <t>1 página</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Panamá Pacífico, clave para la reactivación económica del país</t>
+          <t>Inteligencia artificial mejora el nivel de seguridad de las actividades comerciales</t>
         </is>
       </c>
       <c r="K10" t="n">
         <v>2</v>
       </c>
-      <c r="L10" t="n">
-        <v>500</v>
+      <c r="L10">
+        <f>IF(N10=3, 750, IF(N10=1, 1000, ""))</f>
+        <v/>
       </c>
       <c r="M10">
         <f>L10*4</f>
@@ -441,7 +441,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>https://twitter.com/Panama24horas/status/1301252247108624384?s=20</t>
+          <t>https://riducaonline.com/2020/10/13/la-inteligencia-artificial-mejora-el-nivel-de-seguridad-de-las-actividades-comerciales/</t>
         </is>
       </c>
     </row>
@@ -453,11 +453,11 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Panamá Pacífico, clave para la reactivación económica del país</t>
+          <t>Inteligencia artificial mejora el nivel de seguridad de las actividades comerciales</t>
         </is>
       </c>
       <c r="F11" s="1" t="n">
-        <v>44077</v>
+        <v>44133</v>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
@@ -471,7 +471,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Zona Panamá Pacífico «clave para la reactivación económica del país»</t>
+          <t>Inteligencia artificial mejora el nivel de seguridad de las actividades comerciales</t>
         </is>
       </c>
       <c r="K11" t="n">
@@ -495,7 +495,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>https://verpanama.com/zona-panama-pacifico-2020-clave-de-reactivacion/</t>
+          <t>https://somosimpactopositivo.com/impacto-social/inteligencia-artificial/</t>
         </is>
       </c>
     </row>
@@ -507,11 +507,11 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Panamá Pacífico, clave para la reactivación económica del país</t>
+          <t>Inteligencia artificial mejora el nivel de seguridad de las actividades comerciales</t>
         </is>
       </c>
       <c r="F12" s="1" t="n">
-        <v>44078</v>
+        <v>44125</v>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
@@ -525,7 +525,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>La Zona Del Pacífico Es Clave Para La Reactivación Económica Del País</t>
+          <t>Hoy en Encuentro E&amp;N Por qué invertir en seguridad biométrica para impulsar el comercio</t>
         </is>
       </c>
       <c r="K12" t="n">
@@ -549,7 +549,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>https://dpanama.com.pa/index.php/2020/09/04/la-zona-del-pacifico-es-clave-para-la-reactivacion-economica-del-pais/</t>
+          <t>https://www.estrategiaynegocios.net/tecnologia/1417011-330/encuentro-en-por-qu%C3%A9-invertir-en-seguridad-biom%C3%A9trica-para-impulsar-el-comercio</t>
         </is>
       </c>
     </row>
@@ -561,33 +561,32 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Panamá Pacífico, clave para la reactivación económica del país</t>
+          <t>Inteligencia artificial mejora el nivel de seguridad de las actividades comerciales</t>
         </is>
       </c>
       <c r="F13" s="1" t="n">
-        <v>44081</v>
+        <v>44120</v>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>Web</t>
+          <t>Twitter</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>1 página</t>
+          <t>1 post</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Panamá Pacífico reinicia operaciones bajo estrictos protocolos de bioseguridad</t>
+          <t>Inteligencia artificial mejora el nivel de seguridad de las actividades comerciales</t>
         </is>
       </c>
       <c r="K13" t="n">
         <v>5</v>
       </c>
-      <c r="L13">
-        <f>IF(N13=3, 750, IF(N13=1, 1000, ""))</f>
-        <v/>
+      <c r="L13" t="n">
+        <v>500</v>
       </c>
       <c r="M13">
         <f>L13*4</f>
@@ -603,7 +602,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>http://www.radiomiapanama.com/noticias/noticias-nacionales/27654-panama-pacifico-reinicia-operaciones-bajo-estrictos-protocolos-de-bioseguridad.html</t>
+          <t>https://twitter.com/escenariosv/status/1317126121473847297?s=20</t>
         </is>
       </c>
     </row>
@@ -615,11 +614,11 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Panamá Pacífico, clave para la reactivación económica del país</t>
+          <t>Inteligencia artificial mejora el nivel de seguridad de las actividades comerciales</t>
         </is>
       </c>
       <c r="F14" s="1" t="n">
-        <v>44081</v>
+        <v>44134</v>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
@@ -633,7 +632,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Panamá Pacífico reinicia operaciones bajo estrictos protocolos de bioseguridad</t>
+          <t>Inteligencia artificial mejora el nivel de seguridad de las actividades comerciales</t>
         </is>
       </c>
       <c r="K14" t="n">
@@ -656,7 +655,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>https://twitter.com/radiomiapanama/status/1303135582948855809?s=20</t>
+          <t>https://twitter.com/Revista_EyN/status/1322289764817608705?s=20</t>
         </is>
       </c>
     </row>
@@ -668,33 +667,32 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Panamá Pacífico, clave para la reactivación económica del país</t>
+          <t>Inteligencia artificial mejora el nivel de seguridad de las actividades comerciales</t>
         </is>
       </c>
       <c r="F15" s="1" t="n">
-        <v>44081</v>
+        <v>44134</v>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>Web</t>
+          <t>Twitter</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>1 página</t>
+          <t>1 post</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Panamá Pacífico reinicia operaciones bajo estrictos protocolos de bioseguridad</t>
+          <t>Inteligencia artificial mejora el nivel de seguridad de las actividades comerciales</t>
         </is>
       </c>
       <c r="K15" t="n">
         <v>7</v>
       </c>
-      <c r="L15">
-        <f>IF(N15=3, 750, IF(N15=1, 1000, ""))</f>
-        <v/>
+      <c r="L15" t="n">
+        <v>500</v>
       </c>
       <c r="M15">
         <f>L15*4</f>
@@ -710,7 +708,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>https://ensegundos.com.pa/2020/09/07/panama-pacifico-reinicia-operaciones-bajo-estrictos-protocolos-de-bioseguridad/</t>
+          <t>https://twitter.com/Revista_EyN/status/1322288871401525252?s=20</t>
         </is>
       </c>
     </row>
@@ -722,11 +720,11 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Panamá Pacífico, clave para la reactivación económica del país</t>
+          <t>Inteligencia artificial mejora el nivel de seguridad de las actividades comerciales</t>
         </is>
       </c>
       <c r="F16" s="1" t="n">
-        <v>44081</v>
+        <v>44134</v>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
@@ -740,7 +738,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Panamá Pacífico reinicia operaciones bajo estrictos protocolos de bioseguridad</t>
+          <t>Inteligencia artificial mejora el nivel de seguridad de las actividades comerciales</t>
         </is>
       </c>
       <c r="K16" t="n">
@@ -763,7 +761,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>https://twitter.com/ensegundos_pa/status/1302995762742210562?s=20</t>
+          <t>https://twitter.com/Revista_EyN/status/1322287805700153345?s=20</t>
         </is>
       </c>
     </row>
@@ -775,33 +773,32 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Panamá Pacífico, clave para la reactivación económica del país</t>
+          <t>Inteligencia artificial mejora el nivel de seguridad de las actividades comerciales</t>
         </is>
       </c>
       <c r="F17" s="1" t="n">
-        <v>44084</v>
+        <v>44134</v>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>Web</t>
+          <t>Twitter</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>1 página</t>
+          <t>1 post</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Panamá Pacífico, clave para la reactivación económica de Panamá</t>
+          <t>Inteligencia artificial mejora el nivel de seguridad de las actividades comerciales</t>
         </is>
       </c>
       <c r="K17" t="n">
         <v>9</v>
       </c>
-      <c r="L17">
-        <f>IF(N17=3, 750, IF(N17=1, 1000, ""))</f>
-        <v/>
+      <c r="L17" t="n">
+        <v>500</v>
       </c>
       <c r="M17">
         <f>L17*4</f>
@@ -817,45 +814,44 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>https://www.revistainversionesynegocios.com/2020/09/10/panama-pacifico-clave-para-la-reactivacion-economica-de-panama/</t>
+          <t>https://twitter.com/Revista_EyN/status/1322233109199392769?s=20</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="D18" t="inlineStr">
         <is>
-          <t>Nota de Prensa 2 (Agosto)</t>
+          <t>Nota de Prensa 1</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>TRAIL, una nueva oportunidad para educarse con estándares internacionales en Panamá Pacífico</t>
+          <t>Inteligencia artificial mejora el nivel de seguridad de las actividades comerciales</t>
         </is>
       </c>
       <c r="F18" s="1" t="n">
-        <v>44077</v>
+        <v>44134</v>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>Web</t>
+          <t>Twitter</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>1 página</t>
+          <t>1 post</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>TRAIL, una nueva oportunidad para educarse con estándares internacionales en Panamá Pacífico</t>
+          <t>Inteligencia artificial mejora el nivel de seguridad de las actividades comerciales</t>
         </is>
       </c>
       <c r="K18" t="n">
         <v>10</v>
       </c>
-      <c r="L18">
-        <f>IF(N18=3, 750, IF(N18=1, 1000, ""))</f>
-        <v/>
+      <c r="L18" t="n">
+        <v>500</v>
       </c>
       <c r="M18">
         <f>L18*4</f>
@@ -871,35 +867,45 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>http://prnoticiaspanama.com/trail-una-nueva-oportunidad-para-educarse-con-estandares-internacionales-en-panama-pacifico/</t>
+          <t>https://twitter.com/Revista_EyN/status/1322287311762108417?s=20</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="D19" t="inlineStr">
         <is>
-          <t>Mención de Marca y Vocero</t>
+          <t>Nota de Prensa 1</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Panamá Pacífico Juramentó su nueva junta directiva   https://www.telemetro.com/nacionales/2020/09/06/nueva-directiva-asociacion-empresas-panama/3205350.html</t>
+          <t>Inteligencia artificial mejora el nivel de seguridad de las actividades comerciales</t>
         </is>
       </c>
       <c r="F19" s="1" t="n">
-        <v>44080</v>
-      </c>
-      <c r="G19" s="2" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
+        <v>44134</v>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>Twitter</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>1 post</t>
+        </is>
+      </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Nueva directiva de la Asociación de Empresas de Panamá Pacífico toma posesión</t>
+          <t>Inteligencia artificial mejora el nivel de seguridad de las actividades comerciales</t>
         </is>
       </c>
       <c r="K19" t="n">
         <v>11</v>
       </c>
-      <c r="L19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>500</v>
+      </c>
       <c r="M19">
         <f>L19*4</f>
         <v/>
@@ -914,35 +920,45 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>No Metro Libre</t>
+          <t>https://twitter.com/Revista_EyN/status/1322286505566605313?s=20</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="D20" t="inlineStr">
         <is>
-          <t>Mención de Marca y Vocero</t>
+          <t>Nota de Prensa 1</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Panamá Pacífico Juramentó su nueva junta directiva   https://www.telemetro.com/nacionales/2020/09/06/nueva-directiva-asociacion-empresas-panama/3205350.html</t>
+          <t>Inteligencia artificial mejora el nivel de seguridad de las actividades comerciales</t>
         </is>
       </c>
       <c r="F20" s="1" t="n">
-        <v>44081</v>
-      </c>
-      <c r="G20" s="2" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
+        <v>44134</v>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>Twitter</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>1 post</t>
+        </is>
+      </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Panamá Pacífico Juramentó su nueva junta directiva</t>
+          <t>Inteligencia artificial mejora el nivel de seguridad de las actividades comerciales</t>
         </is>
       </c>
       <c r="K20" t="n">
         <v>12</v>
       </c>
-      <c r="L20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>500</v>
+      </c>
       <c r="M20">
         <f>L20*4</f>
         <v/>
@@ -957,45 +973,44 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>No Metro Libre</t>
+          <t>https://twitter.com/Revista_EyN/status/1322284348918370306?s=20</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="D21" t="inlineStr">
         <is>
-          <t>Mención de Marca y Vocero</t>
+          <t>Nota de Prensa 1</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Kemmy Almengor, Panamá Pacífico. Nos sentimos muy optimistas. Durante la emergencia algunas empresas no pararon sus operaciones, ya que forman parte del engranaje logístico que mantuvo funcionando al país.</t>
+          <t>Inteligencia artificial mejora el nivel de seguridad de las actividades comerciales</t>
         </is>
       </c>
       <c r="F21" s="1" t="n">
-        <v>44081</v>
+        <v>44134</v>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>Web</t>
+          <t>Twitter</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>1 página</t>
+          <t>1 post</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Kemmy Almengor, Panamá Pacífico. Nos sentimos muy optimistas. Durante la emergencia algunas empresas no pararon sus operaciones, ya que forman parte del engranaje logístico que mantuvo funcionando al país.</t>
+          <t>Inteligencia artificial mejora el nivel de seguridad de las actividades comerciales</t>
         </is>
       </c>
       <c r="K21" t="n">
         <v>13</v>
       </c>
-      <c r="L21">
-        <f>IF(N21=3, 750, IF(N21=1, 1000, ""))</f>
-        <v/>
+      <c r="L21" t="n">
+        <v>500</v>
       </c>
       <c r="M21">
         <f>L21*4</f>
@@ -1011,45 +1026,44 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>https://riducaonline.com/2020/09/22/vivir-en-espacios-abiertos-es-la-alternativa-que-prefieren-los-usuarios-de-plataformas-digitales/</t>
+          <t>https://twitter.com/Revista_EyN/status/1322283203885998081?s=20</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="D22" t="inlineStr">
         <is>
-          <t>Nota de Prensa 3</t>
+          <t>Nota de Prensa 1</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Vivir en espacios abiertos, es la alternativa que prefieren los usuarios de plataformas digitales luego de la pandemia</t>
+          <t>Inteligencia artificial mejora el nivel de seguridad de las actividades comerciales</t>
         </is>
       </c>
       <c r="F22" s="1" t="n">
-        <v>44096</v>
+        <v>44134</v>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>Web</t>
+          <t>Twitter</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>1 página</t>
+          <t>1 post</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Vivir en espacios abiertos, es la alternativa que prefieren los usuarios de plataformas digitales</t>
+          <t>Inteligencia artificial mejora el nivel de seguridad de las actividades comerciales</t>
         </is>
       </c>
       <c r="K22" t="n">
         <v>14</v>
       </c>
-      <c r="L22">
-        <f>IF(N22=3, 750, IF(N22=1, 1000, ""))</f>
-        <v/>
+      <c r="L22" t="n">
+        <v>500</v>
       </c>
       <c r="M22">
         <f>L22*4</f>
@@ -1065,45 +1079,35 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>https://www.elespectadordepanama.com/vivir-en-espacios-abiertos-la-alternativa-que-prefieren-los-usuarios-de-plataformas-digitales-luego-de-la-pandemia/</t>
+          <t>https://twitter.com/Revista_EyN/status/1322288058688032769?s=20</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="D23" t="inlineStr">
         <is>
-          <t>Nota de Prensa 3</t>
+          <t>Entrevista 1</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Vivir en espacios abiertos, es la alternativa que prefieren los usuarios de plataformas digitales luego de la pandemia</t>
+          <t>Entrevista al Ing. Enrique Luna, sobre la inteligencia artificial</t>
         </is>
       </c>
       <c r="F23" s="1" t="n">
-        <v>44097</v>
-      </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>Twitter</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>1 post</t>
-        </is>
-      </c>
+        <v>44124</v>
+      </c>
+      <c r="G23" s="2" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Vivir en espacios abiertos, es la alternativa que prefieren los usuarios de plataformas digitales luego de la pandemia</t>
+          <t>Entrevista al Ing. Enrique Luna, sobre la inteligencia artificial</t>
         </is>
       </c>
       <c r="K23" t="n">
         <v>15</v>
       </c>
-      <c r="L23" t="n">
-        <v>500</v>
-      </c>
+      <c r="L23" t="inlineStr"/>
       <c r="M23">
         <f>L23*4</f>
         <v/>
@@ -1118,35 +1122,46 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>https://www.telemetro.com/entrevistas/2020/09/04/gerentes-de-panama-pacifico-expresan-optimismo-ante-reapertura-el-lunes/3198871.html?utm_content=buffer6c58b&amp;utm_medium=social&amp;utm_source=twitter.com&amp;utm_campaign=app+buffer+/</t>
+          <t>No Nextv</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="D24" t="inlineStr">
         <is>
-          <t>Entrevista 1</t>
+          <t>Entrevista 2</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Entrevista a Hernán Riveros y Kenia Almengor, gerentes del Área Económica Especial Panamá Pacífico, expresan optimismo ante reapertura el lunes.</t>
+          <t>Entrevista al Ing. Enrique Luna, sobre la inteligencia artificial</t>
         </is>
       </c>
       <c r="F24" s="1" t="n">
-        <v>44169</v>
-      </c>
-      <c r="G24" s="2" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
+        <v>44124</v>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>Web</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>1 página</t>
+        </is>
+      </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Entrevista a Hernán Riveros y Kenia Almengor, gerentes del Área Económica Especial Panamá Pacífico, expresan optimismo ante reapertura el lunes.</t>
+          <t>Entrevista al Ing. Enrique Luna, sobre la inteligencia artificial</t>
         </is>
       </c>
       <c r="K24" t="n">
         <v>16</v>
       </c>
-      <c r="L24" t="inlineStr"/>
+      <c r="L24">
+        <f>IF(N24=3, 750, IF(N24=1, 1000, ""))</f>
+        <v/>
+      </c>
       <c r="M24">
         <f>L24*4</f>
         <v/>
@@ -1161,44 +1176,45 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>No Telemetro</t>
+          <t>https://www.youtube.com/watch?v=9uCtTNO9D_o&amp;feature=youtu.be</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="D25" t="inlineStr">
         <is>
-          <t>Entrevista 1</t>
+          <t>Entrevista 3</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Entrevista a Hernán Riveros y Kenia Almengor, gerentes del Área Económica Especial Panamá Pacífico, expresan optimismo ante reapertura el lunes.</t>
+          <t>Entrevista al Ing. Enrique Luna, sobre la inteligencia artificial</t>
         </is>
       </c>
       <c r="F25" s="1" t="n">
-        <v>44078</v>
+        <v>44124</v>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>Twitter</t>
+          <t>Web</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>1 post</t>
+          <t>1 página</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Entrevista a Hernán Riveros y Kenia Almengor, gerentes del Área Económica Especial Panamá Pacífico, expresan optimismo ante reapertura el lunes.</t>
+          <t>Entrevista al Ing. Enrique Luna, sobre la inteligencia artificial</t>
         </is>
       </c>
       <c r="K25" t="n">
         <v>17</v>
       </c>
-      <c r="L25" t="n">
-        <v>500</v>
+      <c r="L25">
+        <f>IF(N25=3, 750, IF(N25=1, 1000, ""))</f>
+        <v/>
       </c>
       <c r="M25">
         <f>L25*4</f>
@@ -1214,44 +1230,45 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>https://twitter.com/TReporta/status/1301704419218784258?s=20</t>
+          <t>https://pa.domiplay.net/video/entrevista-al-ing-enrique-luna-20-10-20-nex-9ucdo</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="D26" t="inlineStr">
         <is>
-          <t>Entrevista 1</t>
+          <t>Entrevista 4</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Entrevista a Hernán Riveros y Kenia Almengor, gerentes del Área Económica Especial Panamá Pacífico, expresan optimismo ante reapertura el lunes.</t>
+          <t>Entrevista al Ing. Enrique Luna, sobre la inteligencia artificial</t>
         </is>
       </c>
       <c r="F26" s="1" t="n">
-        <v>44077</v>
+        <v>44124</v>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>Twitter</t>
+          <t>Web</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>1 post</t>
+          <t>1 página</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Entrevista a Hernán Riveros y Kenia Almengor, gerentes del Área Económica Especial Panamá Pacífico, expresan optimismo ante reapertura el lunes.</t>
+          <t>Entrevista al Ing. Enrique Luna, sobre la inteligencia artificial</t>
         </is>
       </c>
       <c r="K26" t="n">
         <v>18</v>
       </c>
-      <c r="L26" t="n">
-        <v>500</v>
+      <c r="L26">
+        <f>IF(N26=3, 750, IF(N26=1, 1000, ""))</f>
+        <v/>
       </c>
       <c r="M26">
         <f>L26*4</f>
@@ -1267,44 +1284,45 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>https://twitter.com/TReporta/status/1301894476735148032?s=20</t>
+          <t>https://nexnoticias.ruplayers.com/n6d62Lixg2l4l6M/entrevista-al-ing-enrique-luna-sobre-la-inteligencia-artificial.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="D27" t="inlineStr">
         <is>
-          <t>Entrevista 1</t>
+          <t>Entrevista 5</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Entrevista a Hernán Riveros y Kenia Almengor, gerentes del Área Económica Especial Panamá Pacífico, expresan optimismo ante reapertura el lunes.</t>
+          <t>Entrevista al Ing. Enrique Luna, sobre la inteligencia artificial</t>
         </is>
       </c>
       <c r="F27" s="1" t="n">
-        <v>44078</v>
+        <v>44124</v>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>Twitter</t>
+          <t>Web</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>1 post</t>
+          <t>1 página</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Entrevista a Hernán Riveros y Kenia Almengor, gerentes del Área Económica Especial Panamá Pacífico, expresan optimismo ante reapertura el lunes.</t>
+          <t>Entrevista al Ing. Enrique Luna, sobre la inteligencia artificial</t>
         </is>
       </c>
       <c r="K27" t="n">
         <v>19</v>
       </c>
-      <c r="L27" t="n">
-        <v>500</v>
+      <c r="L27">
+        <f>IF(N27=3, 750, IF(N27=1, 1000, ""))</f>
+        <v/>
       </c>
       <c r="M27">
         <f>L27*4</f>
@@ -1320,46 +1338,35 @@
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>https://twitter.com/ReportoCA/status/1301930781745577987?s=20</t>
+          <t>https://www.dailymotion.com/embed/video/x7wyvme</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="D28" t="inlineStr">
         <is>
-          <t>Entrevista 1</t>
+          <t>Entrevista 6</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Entrevista a Hernán Riveros y Kenia Almengor, gerentes del Área Económica Especial Panamá Pacífico, expresan optimismo ante reapertura el lunes.</t>
+          <t>Entrevista al Ing. Enrique Luna, sobre la inteligencia artificial</t>
         </is>
       </c>
       <c r="F28" s="1" t="n">
-        <v>44078</v>
-      </c>
-      <c r="G28" s="2" t="inlineStr">
-        <is>
-          <t>Web</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>1 página</t>
-        </is>
-      </c>
+        <v>44127</v>
+      </c>
+      <c r="G28" s="2" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Entrevista a Hernán Riveros y Kenia Almengor, gerentes del Área Económica Especial Panamá Pacífico, expresan optimismo ante reapertura el lunes.</t>
+          <t>Entrevista al Ing. Enrique Luna, sobre la inteligencia artificial</t>
         </is>
       </c>
       <c r="K28" t="n">
         <v>20</v>
       </c>
-      <c r="L28">
-        <f>IF(N28=3, 750, IF(N28=1, 1000, ""))</f>
-        <v/>
-      </c>
+      <c r="L28" t="inlineStr"/>
       <c r="M28">
         <f>L28*4</f>
         <v/>
@@ -1374,35 +1381,46 @@
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>https://ecotvpanama.com/programas/eco-news/panama-pacifico-apunta-por-una-robusta-reactivacion-economica_1_65873/#~text=Panam%C3%A1%2014%20de%20septiembre%20del,Panam%C3%A1%20pese%20a%20la%20pandemia.</t>
+          <t>No RADIO PANAMÁ</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="D29" t="inlineStr">
         <is>
-          <t>Entrevista 2</t>
+          <t>Mención de Marca 1</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Entrevista a César Contreras y Enar Jiménez, voceros de PPG, sobre como Panamá Pacifico apunta por una robusta reactivación económica</t>
+          <t>La tecnología que ayuda a monitorear temperaturas corporales anormales</t>
         </is>
       </c>
       <c r="F29" s="1" t="n">
-        <v>44088</v>
-      </c>
-      <c r="G29" s="2" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
+        <v>44106</v>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>Web</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>1 página</t>
+        </is>
+      </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Entrevista a César Contreras y Enar Jiménez, voceros de PPG, sobre como Panamá Pacifico apunta por una robusta reactivación económica</t>
+          <t>La tecnología que ayuda a monitorear temperaturas corporales anormales</t>
         </is>
       </c>
       <c r="K29" t="n">
         <v>21</v>
       </c>
-      <c r="L29" t="inlineStr"/>
+      <c r="L29">
+        <f>IF(N29=3, 750, IF(N29=1, 1000, ""))</f>
+        <v/>
+      </c>
       <c r="M29">
         <f>L29*4</f>
         <v/>
@@ -1417,35 +1435,46 @@
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>No ECOTV</t>
+          <t>https://riducaonline.com/2020/10/02/la-tecnologia-que-ayuda-a-monitorear-temperaturas-corporales-anormales/</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="D30" t="inlineStr">
         <is>
-          <t>Entrevista 2</t>
+          <t>Mención de Marca 2</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Entrevista a César Contreras y Enar Jiménez, voceros de PPG, sobre como Panamá Pacifico apunta por una robusta reactivación económica</t>
+          <t>Conozca cómo la IA cambió la forma de viajar</t>
         </is>
       </c>
       <c r="F30" s="1" t="n">
-        <v>44088</v>
-      </c>
-      <c r="G30" s="2" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
+        <v>44105</v>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>Web</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>1 página</t>
+        </is>
+      </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Entrevista a César Contreras y Enar Jiménez, voceros de PPG, sobre como Panamá Pacifico apunta por una robusta reactivación económica</t>
+          <t>Conozca cómo la IA cambió la forma de viajar</t>
         </is>
       </c>
       <c r="K30" t="n">
         <v>22</v>
       </c>
-      <c r="L30" t="inlineStr"/>
+      <c r="L30">
+        <f>IF(N30=3, 750, IF(N30=1, 1000, ""))</f>
+        <v/>
+      </c>
       <c r="M30">
         <f>L30*4</f>
         <v/>
@@ -1460,45 +1489,44 @@
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>No NEXTV</t>
+          <t>https://elcapitalfinanciero.com/conozca-como-la-ia-cambio-la-forma-de-viajar/</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="D31" t="inlineStr">
         <is>
-          <t>Entrevista 3</t>
+          <t>Mención de Marca 2</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Entrevista a Hernán Riveros, Gerente de Desarrollo estratégico sobre reapertura</t>
+          <t>Conozca cómo la IA cambió la forma de viajar</t>
         </is>
       </c>
       <c r="F31" s="1" t="n">
-        <v>44078</v>
+        <v>44105</v>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>Web</t>
+          <t>Twitter</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>1 página</t>
+          <t>1 post</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Entrevista a Hernán Riveros, Gerente de Desarrollo estratégico sobre reapertura</t>
+          <t>Conozca cómo la IA cambió la forma de viajar</t>
         </is>
       </c>
       <c r="K31" t="n">
         <v>23</v>
       </c>
-      <c r="L31">
-        <f>IF(N31=3, 750, IF(N31=1, 1000, ""))</f>
-        <v/>
+      <c r="L31" t="n">
+        <v>500</v>
       </c>
       <c r="M31">
         <f>L31*4</f>
@@ -1514,35 +1542,46 @@
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=aXvygpKpSwQ</t>
+          <t>https://twitter.com/ElCFPanama/status/1311699596868030465?s=20</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="D32" t="inlineStr">
         <is>
-          <t>Entrevista 3</t>
+          <t>Mención de Marca 3</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Entrevista a Hernán Riveros, Gerente de Desarrollo estratégico sobre reapertura</t>
+          <t>Entre las experiencias de éxito que Comsmarket ha sumado en este 2020 está el trabajo con Panamá Pacífico, Volkswagen, Encuentra24, Dahua Technology, la Asociación de Universidades Particulares de Panamá, UMECIT y Tambor S.A.</t>
         </is>
       </c>
       <c r="F32" s="1" t="n">
-        <v>44078</v>
-      </c>
-      <c r="G32" s="2" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
+        <v>44134</v>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>Web</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>1 página</t>
+        </is>
+      </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Entrevista a Hernán Riveros, Gerente de Desarrollo estratégico sobre reapertura</t>
+          <t>Entre las experiencias de éxito que Comsmarket ha sumado en este 2020 está el trabajo con Panamá Pacífico, Volkswagen, Encuentra24, Dahua Technology, la Asociación de Universidades Particulares de Panamá, UMECIT y Tambor S.A.</t>
         </is>
       </c>
       <c r="K32" t="n">
         <v>24</v>
       </c>
-      <c r="L32" t="inlineStr"/>
+      <c r="L32">
+        <f>IF(N32=3, 750, IF(N32=1, 1000, ""))</f>
+        <v/>
+      </c>
       <c r="M32">
         <f>L32*4</f>
         <v/>
@@ -1557,182 +1596,8 @@
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>No NEXTV</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>Entrevista 4</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>Entrevista a Stephanie Fleming, Administradora de Trail sobre la educación en tiempos de pandemia</t>
-        </is>
-      </c>
-      <c r="F33" s="1" t="n">
-        <v>44091</v>
-      </c>
-      <c r="G33" s="2" t="inlineStr">
-        <is>
-          <t>Web</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>1 página</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>Entrevista a Stephanie Fleming, Administradora de Trail sobre la educación en tiempos de pandemia</t>
-        </is>
-      </c>
-      <c r="K33" t="n">
-        <v>25</v>
-      </c>
-      <c r="L33">
-        <f>IF(N33=3, 750, IF(N33=1, 1000, ""))</f>
-        <v/>
-      </c>
-      <c r="M33">
-        <f>L33*4</f>
-        <v/>
-      </c>
-      <c r="O33">
-        <f>IF(N33=1,1,"")</f>
-        <v/>
-      </c>
-      <c r="Q33">
-        <f>IF(N33=3,1,"")</f>
-        <v/>
-      </c>
-      <c r="AA33" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=33BjaqncjmQ</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>Entrevista 4</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>Entrevista a Stephanie Fleming, Administradora de Trail sobre la educación en tiempos de pandemia</t>
-        </is>
-      </c>
-      <c r="F34" s="1" t="n">
-        <v>44091</v>
-      </c>
-      <c r="G34" s="2" t="inlineStr"/>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>Entrevista a Stephanie Fleming, Administradora de Trail sobre la educación en tiempos de pandemia</t>
-        </is>
-      </c>
-      <c r="K34" t="n">
-        <v>26</v>
-      </c>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34">
-        <f>L34*4</f>
-        <v/>
-      </c>
-      <c r="O34">
-        <f>IF(N34=1,1,"")</f>
-        <v/>
-      </c>
-      <c r="Q34">
-        <f>IF(N34=3,1,"")</f>
-        <v/>
-      </c>
-      <c r="AA34" t="inlineStr">
-        <is>
-          <t>No NEXTV</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>Entrevista 5</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>Entrevista a Kemmy Almengor, Gerente de comunicaciones de Panamá Pacífico sobre reapertura de Panamá Pacífico</t>
-        </is>
-      </c>
-      <c r="F35" s="1" t="n">
-        <v>44091</v>
-      </c>
-      <c r="G35" s="2" t="inlineStr">
-        <is>
-          <t>Web</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>1 página</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>Entrevista a Kemmy Almengor, Gerente de comunicaciones de Panamá Pacífico sobre reapertura de Panamá Pacífico</t>
-        </is>
-      </c>
-      <c r="K35" t="n">
-        <v>27</v>
-      </c>
-      <c r="L35">
-        <f>IF(N35=3, 750, IF(N35=1, 1000, ""))</f>
-        <v/>
-      </c>
-      <c r="M35">
-        <f>L35*4</f>
-        <v/>
-      </c>
-      <c r="O35">
-        <f>IF(N35=1,1,"")</f>
-        <v/>
-      </c>
-      <c r="Q35">
-        <f>IF(N35=3,1,"")</f>
-        <v/>
-      </c>
-      <c r="AA35" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=zzwTGJuxY4M</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>Entrevista 5</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>Entrevista a Kemmy Almengor, Gerente de comunicaciones de Panamá Pacífico sobre reapertura de Panamá Pacífico</t>
-        </is>
-      </c>
-      <c r="F36" s="1" t="n">
-        <v>44091</v>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>Entrevista a Kemmy Almengor, Gerente de comunicaciones de Panamá Pacífico sobre reapertura de Panamá Pacífico</t>
-        </is>
-      </c>
-      <c r="K36" t="n">
-        <v>28</v>
+          <t>https://somosimpactopositivo.com/impactando-en-positivo/comsmarket-agencia/</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -1761,9 +1626,6 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G30" r:id="rId22"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G31" r:id="rId23"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G32" r:id="rId24"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G33" r:id="rId25"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G34" r:id="rId26"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G35" r:id="rId27"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Excel Terminado.xlsx
+++ b/Excel Terminado.xlsx
@@ -330,7 +330,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="D9:AA32"/>
+  <dimension ref="D9:AA37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -341,37 +341,39 @@
     <row r="9">
       <c r="D9" t="inlineStr">
         <is>
-          <t>Nota de Prensa 1</t>
+          <t>Mención de Marca 1</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Inteligencia artificial mejora el nivel de seguridad de las actividades comerciales</t>
+          <t>Entre las experiencias de éxito que Comsmarket ha sumado en este 2020 está el trabajo con Panamá Pacífico, Volkswagen, Encuentra24, Dahua Technology, la Asociación de Universidades Particulares de Panamá, UMECIT y Tambor S.A.</t>
         </is>
       </c>
       <c r="F9" s="1" t="n">
-        <v>44116</v>
+        <v>44105</v>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>Instagram</t>
-        </is>
-      </c>
+          <t>Web</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr">
         <is>
-          <t>1 post</t>
+          <t>1 página</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Inteligencia artificial mejora el nivel de seguridad de las actividades comerciales</t>
+          <t>Entre las experiencias de éxito que Comsmarket ha sumado en este 2020 está el trabajo con Panamá Pacífico, Volkswagen, Encuentra24, Dahua Technology, la Asociación de Universidades Particulares de Panamá, UMECIT y Tambor S.A.</t>
         </is>
       </c>
       <c r="K9" t="n">
         <v>1</v>
       </c>
-      <c r="L9" t="n">
-        <v>500</v>
+      <c r="L9">
+        <f>IF(N9=3, 750, IF(N9=1, 1000, ""))</f>
+        <v/>
       </c>
       <c r="M9">
         <f>L9*4</f>
@@ -387,46 +389,36 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/CGQouMGn-FB/?igshid=1femxospxoxhy</t>
+          <t>https://somosimpactopositivo.com/impactando-en-positivo/comsmarket-agencia/</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="D10" t="inlineStr">
         <is>
-          <t>Nota de Prensa 1</t>
+          <t>Mención de Marca 2</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Inteligencia artificial mejora el nivel de seguridad de las actividades comerciales</t>
+          <t>Panamá debe apostar a servicios digitales</t>
         </is>
       </c>
       <c r="F10" s="1" t="n">
-        <v>44117</v>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>Web</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>1 página</t>
-        </is>
-      </c>
+        <v>44105</v>
+      </c>
+      <c r="G10" s="2" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Inteligencia artificial mejora el nivel de seguridad de las actividades comerciales</t>
+          <t>Panamá debe apostar a servicios digitales</t>
         </is>
       </c>
       <c r="K10" t="n">
         <v>2</v>
       </c>
-      <c r="L10">
-        <f>IF(N10=3, 750, IF(N10=1, 1000, ""))</f>
-        <v/>
-      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10">
         <f>L10*4</f>
         <v/>
@@ -441,29 +433,30 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>https://riducaonline.com/2020/10/13/la-inteligencia-artificial-mejora-el-nivel-de-seguridad-de-las-actividades-comerciales/</t>
+          <t>No PANAMÁ AMÉRICA</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="D11" t="inlineStr">
         <is>
-          <t>Nota de Prensa 1</t>
+          <t>Mención de Marca 2</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Inteligencia artificial mejora el nivel de seguridad de las actividades comerciales</t>
+          <t>Panamá debe apostar a servicios digitales</t>
         </is>
       </c>
       <c r="F11" s="1" t="n">
-        <v>44133</v>
+        <v>44105</v>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
           <t>Web</t>
         </is>
       </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
         <is>
           <t>1 página</t>
@@ -471,7 +464,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Inteligencia artificial mejora el nivel de seguridad de las actividades comerciales</t>
+          <t>Panamá debe apostar a servicios digitales</t>
         </is>
       </c>
       <c r="K11" t="n">
@@ -495,7 +488,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>https://somosimpactopositivo.com/impacto-social/inteligencia-artificial/</t>
+          <t>https://www.pressreader.com/panama/panama-america/20201001/282020444744622</t>
         </is>
       </c>
     </row>
@@ -507,17 +500,18 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Inteligencia artificial mejora el nivel de seguridad de las actividades comerciales</t>
+          <t>Economía, Competitividad y futuro de Panamá / El aporte de todos los sectores es clave para reactivar nuestra economía</t>
         </is>
       </c>
       <c r="F12" s="1" t="n">
-        <v>44125</v>
+        <v>44105</v>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
           <t>Web</t>
         </is>
       </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
         <is>
           <t>1 página</t>
@@ -525,7 +519,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Hoy en Encuentro E&amp;N Por qué invertir en seguridad biométrica para impulsar el comercio</t>
+          <t>Panamá ante el reto de ser una economía desarrollada</t>
         </is>
       </c>
       <c r="K12" t="n">
@@ -549,7 +543,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>https://www.estrategiaynegocios.net/tecnologia/1417011-330/encuentro-en-por-qu%C3%A9-invertir-en-seguridad-biom%C3%A9trica-para-impulsar-el-comercio</t>
+          <t>https://www.prensa.com/impresa/economia/panama-ante-el-reto-de-ser-una-economia-desarrollada/</t>
         </is>
       </c>
     </row>
@@ -561,32 +555,34 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Inteligencia artificial mejora el nivel de seguridad de las actividades comerciales</t>
+          <t>Economía, Competitividad y futuro de Panamá / El aporte de todos los sectores es clave para reactivar nuestra economía</t>
         </is>
       </c>
       <c r="F13" s="1" t="n">
-        <v>44120</v>
+        <v>44105</v>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>Twitter</t>
-        </is>
-      </c>
+          <t>Web</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr">
         <is>
-          <t>1 post</t>
+          <t>1 página</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Inteligencia artificial mejora el nivel de seguridad de las actividades comerciales</t>
+          <t>Economía, Competitividad y futuro de Panamá</t>
         </is>
       </c>
       <c r="K13" t="n">
         <v>5</v>
       </c>
-      <c r="L13" t="n">
-        <v>500</v>
+      <c r="L13">
+        <f>IF(N13=3, 750, IF(N13=1, 1000, ""))</f>
+        <v/>
       </c>
       <c r="M13">
         <f>L13*4</f>
@@ -602,7 +598,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>https://twitter.com/escenariosv/status/1317126121473847297?s=20</t>
+          <t>https://www.panama24horas.com.pa/panama/economia-competitividad-y-futuro-de-panam/</t>
         </is>
       </c>
     </row>
@@ -614,17 +610,18 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Inteligencia artificial mejora el nivel de seguridad de las actividades comerciales</t>
+          <t>Economía, Competitividad y futuro de Panamá / El aporte de todos los sectores es clave para reactivar nuestra economía</t>
         </is>
       </c>
       <c r="F14" s="1" t="n">
-        <v>44134</v>
+        <v>44105</v>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
           <t>Twitter</t>
         </is>
       </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
         <is>
           <t>1 post</t>
@@ -632,7 +629,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Inteligencia artificial mejora el nivel de seguridad de las actividades comerciales</t>
+          <t>Economía, Competitividad y futuro de Panamá</t>
         </is>
       </c>
       <c r="K14" t="n">
@@ -655,7 +652,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>https://twitter.com/Revista_EyN/status/1322289764817608705?s=20</t>
+          <t>https://twitter.com/sabribacal/status/1311626659720765441?s=20</t>
         </is>
       </c>
     </row>
@@ -667,17 +664,18 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Inteligencia artificial mejora el nivel de seguridad de las actividades comerciales</t>
+          <t>Economía, Competitividad y futuro de Panamá / El aporte de todos los sectores es clave para reactivar nuestra economía</t>
         </is>
       </c>
       <c r="F15" s="1" t="n">
-        <v>44134</v>
+        <v>44105</v>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
           <t>Twitter</t>
         </is>
       </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
         <is>
           <t>1 post</t>
@@ -685,7 +683,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Inteligencia artificial mejora el nivel de seguridad de las actividades comerciales</t>
+          <t>Economía, Competitividad y futuro de Panamá</t>
         </is>
       </c>
       <c r="K15" t="n">
@@ -708,7 +706,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>https://twitter.com/Revista_EyN/status/1322288871401525252?s=20</t>
+          <t>https://twitter.com/Panama24horas/status/1311536585993785346?s=20</t>
         </is>
       </c>
     </row>
@@ -720,32 +718,34 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Inteligencia artificial mejora el nivel de seguridad de las actividades comerciales</t>
+          <t>Economía, Competitividad y futuro de Panamá / El aporte de todos los sectores es clave para reactivar nuestra economía</t>
         </is>
       </c>
       <c r="F16" s="1" t="n">
-        <v>44134</v>
+        <v>44118</v>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>Twitter</t>
-        </is>
-      </c>
+          <t>Web</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
-          <t>1 post</t>
+          <t>1 página</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Inteligencia artificial mejora el nivel de seguridad de las actividades comerciales</t>
+          <t>El aporte de todos los sectores es clave para reactivar nuestra economía</t>
         </is>
       </c>
       <c r="K16" t="n">
         <v>8</v>
       </c>
-      <c r="L16" t="n">
-        <v>500</v>
+      <c r="L16">
+        <f>IF(N16=3, 750, IF(N16=1, 1000, ""))</f>
+        <v/>
       </c>
       <c r="M16">
         <f>L16*4</f>
@@ -761,7 +761,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>https://twitter.com/Revista_EyN/status/1322287805700153345?s=20</t>
+          <t>https://panamaaldia.news/el-aporte-de-todos-los-sectores-es-clave-para-reactivar-nuestra-economia/</t>
         </is>
       </c>
     </row>
@@ -773,32 +773,34 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Inteligencia artificial mejora el nivel de seguridad de las actividades comerciales</t>
+          <t>Economía, Competitividad y futuro de Panamá / El aporte de todos los sectores es clave para reactivar nuestra economía</t>
         </is>
       </c>
       <c r="F17" s="1" t="n">
-        <v>44134</v>
+        <v>44118</v>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>Twitter</t>
-        </is>
-      </c>
+          <t>Web</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
-          <t>1 post</t>
+          <t>1 página</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Inteligencia artificial mejora el nivel de seguridad de las actividades comerciales</t>
+          <t>El aporte de todos los sectores es clave para reactivar nuestra economía</t>
         </is>
       </c>
       <c r="K17" t="n">
         <v>9</v>
       </c>
-      <c r="L17" t="n">
-        <v>500</v>
+      <c r="L17">
+        <f>IF(N17=3, 750, IF(N17=1, 1000, ""))</f>
+        <v/>
       </c>
       <c r="M17">
         <f>L17*4</f>
@@ -814,7 +816,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>https://twitter.com/Revista_EyN/status/1322233109199392769?s=20</t>
+          <t>https://verpanama.com/aporte-de-todos-los-sectores-clave-para-reactivacion/</t>
         </is>
       </c>
     </row>
@@ -826,32 +828,34 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Inteligencia artificial mejora el nivel de seguridad de las actividades comerciales</t>
+          <t>Economía, Competitividad y futuro de Panamá / El aporte de todos los sectores es clave para reactivar nuestra economía</t>
         </is>
       </c>
       <c r="F18" s="1" t="n">
-        <v>44134</v>
+        <v>44118</v>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>Twitter</t>
-        </is>
-      </c>
+          <t>Web</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
-          <t>1 post</t>
+          <t>1 página</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Inteligencia artificial mejora el nivel de seguridad de las actividades comerciales</t>
+          <t>El aporte de todos los sectores es clave para reactivar nuestra economía</t>
         </is>
       </c>
       <c r="K18" t="n">
         <v>10</v>
       </c>
-      <c r="L18" t="n">
-        <v>500</v>
+      <c r="L18">
+        <f>IF(N18=3, 750, IF(N18=1, 1000, ""))</f>
+        <v/>
       </c>
       <c r="M18">
         <f>L18*4</f>
@@ -867,7 +871,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>https://twitter.com/Revista_EyN/status/1322287311762108417?s=20</t>
+          <t>https://www.panama24horas.com.pa/panama/el-aporte-de-todos-los-sectores-es-clave-para-reactivar-nuestra-economia/</t>
         </is>
       </c>
     </row>
@@ -879,17 +883,18 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Inteligencia artificial mejora el nivel de seguridad de las actividades comerciales</t>
+          <t>Economía, Competitividad y futuro de Panamá / El aporte de todos los sectores es clave para reactivar nuestra economía</t>
         </is>
       </c>
       <c r="F19" s="1" t="n">
-        <v>44134</v>
+        <v>44118</v>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
           <t>Twitter</t>
         </is>
       </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
           <t>1 post</t>
@@ -897,7 +902,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Inteligencia artificial mejora el nivel de seguridad de las actividades comerciales</t>
+          <t>El aporte de todos los sectores es clave para reactivar nuestra economía</t>
         </is>
       </c>
       <c r="K19" t="n">
@@ -920,44 +925,46 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>https://twitter.com/Revista_EyN/status/1322286505566605313?s=20</t>
+          <t>https://twitter.com/verpanama1/status/1316529160010051584?s=20</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="D20" t="inlineStr">
         <is>
-          <t>Nota de Prensa 1</t>
+          <t>Mención de Marca 3</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Inteligencia artificial mejora el nivel de seguridad de las actividades comerciales</t>
+          <t>En la conferencia virtual de Café con La Prensa, René Quevedo, analista y consultor laboral; y Adriana Angarita, rectora de la Universidad del Istmo y presidenta de la Asociación de Universidades Privadas de Panamá analizaron la realidad de la situación laboral panameña.</t>
         </is>
       </c>
       <c r="F20" s="1" t="n">
-        <v>44134</v>
+        <v>44118</v>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>Twitter</t>
-        </is>
-      </c>
+          <t>Web</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
-          <t>1 post</t>
+          <t>1 página</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Inteligencia artificial mejora el nivel de seguridad de las actividades comerciales</t>
+          <t>En la conferencia virtual de Café con La Prensa, René Quevedo, analista y consultor laboral; y Adriana Angarita, rectora de la Universidad del Istmo y presidenta de la Asociación de Universidades Privadas de Panamá analizaron la realidad de la situación laboral panameña.</t>
         </is>
       </c>
       <c r="K20" t="n">
         <v>12</v>
       </c>
-      <c r="L20" t="n">
-        <v>500</v>
+      <c r="L20">
+        <f>IF(N20=3, 750, IF(N20=1, 1000, ""))</f>
+        <v/>
       </c>
       <c r="M20">
         <f>L20*4</f>
@@ -973,29 +980,30 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>https://twitter.com/Revista_EyN/status/1322284348918370306?s=20</t>
+          <t>https://www.prensa.com/economia/panama-se-enfrenta-a-una-situacion-complicada-en-materia-laboral-producto-de-la-pandemia/</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="D21" t="inlineStr">
         <is>
-          <t>Nota de Prensa 1</t>
+          <t>Mención de Marca 3</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Inteligencia artificial mejora el nivel de seguridad de las actividades comerciales</t>
+          <t>En la conferencia virtual de Café con La Prensa, René Quevedo, analista y consultor laboral; y Adriana Angarita, rectora de la Universidad del Istmo y presidenta de la Asociación de Universidades Privadas de Panamá analizaron la realidad de la situación laboral panameña.</t>
         </is>
       </c>
       <c r="F21" s="1" t="n">
-        <v>44134</v>
+        <v>44118</v>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
           <t>Twitter</t>
         </is>
       </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
           <t>1 post</t>
@@ -1003,7 +1011,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Inteligencia artificial mejora el nivel de seguridad de las actividades comerciales</t>
+          <t>En la conferencia virtual de Café con La Prensa, René Quevedo, analista y consultor laboral; y Adriana Angarita, rectora de la Universidad del Istmo y presidenta de la Asociación de Universidades Privadas de Panamá analizaron la realidad de la situación laboral panameña.</t>
         </is>
       </c>
       <c r="K21" t="n">
@@ -1026,29 +1034,30 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>https://twitter.com/Revista_EyN/status/1322283203885998081?s=20</t>
+          <t>https://twitter.com/prensacom/status/1316391133677789187?s=20</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="D22" t="inlineStr">
         <is>
-          <t>Nota de Prensa 1</t>
+          <t>Mención de Marca 3</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Inteligencia artificial mejora el nivel de seguridad de las actividades comerciales</t>
+          <t>En la conferencia virtual de Café con La Prensa, René Quevedo, analista y consultor laboral; y Adriana Angarita, rectora de la Universidad del Istmo y presidenta de la Asociación de Universidades Privadas de Panamá analizaron la realidad de la situación laboral panameña.</t>
         </is>
       </c>
       <c r="F22" s="1" t="n">
-        <v>44134</v>
+        <v>44118</v>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
           <t>Twitter</t>
         </is>
       </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
           <t>1 post</t>
@@ -1056,7 +1065,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Inteligencia artificial mejora el nivel de seguridad de las actividades comerciales</t>
+          <t>En la conferencia virtual de Café con La Prensa, René Quevedo, analista y consultor laboral; y Adriana Angarita, rectora de la Universidad del Istmo y presidenta de la Asociación de Universidades Privadas de Panamá analizaron la realidad de la situación laboral panameña.</t>
         </is>
       </c>
       <c r="K22" t="n">
@@ -1079,35 +1088,47 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>https://twitter.com/Revista_EyN/status/1322288058688032769?s=20</t>
+          <t>https://twitter.com/prensacom/status/1316387283554258952?s=20</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="D23" t="inlineStr">
         <is>
-          <t>Entrevista 1</t>
+          <t>Mención de Marca 4</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Entrevista al Ing. Enrique Luna, sobre la inteligencia artificial</t>
+          <t>Hay una serie de actividades económicas más perjudicadas que otras por la pandemia. Adriana Angarita, presidenta de la Asociación de Universidades Privadas de Panamá (Auppa), dijo que en términos generales los sectores que pierden relevancia son la construcción, la aviación, el turismo y los servicios financieros.</t>
         </is>
       </c>
       <c r="F23" s="1" t="n">
-        <v>44124</v>
-      </c>
-      <c r="G23" s="2" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
+        <v>44119</v>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>Web</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>1 página</t>
+        </is>
+      </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Entrevista al Ing. Enrique Luna, sobre la inteligencia artificial</t>
+          <t>Hay una serie de actividades económicas más perjudicadas que otras por la pandemia. Adriana Angarita, presidenta de la Asociación de Universidades Privadas de Panamá (Auppa), dijo que en términos generales los sectores que pierden relevancia son la construcción, la aviación, el turismo y los servicios financieros.</t>
         </is>
       </c>
       <c r="K23" t="n">
         <v>15</v>
       </c>
-      <c r="L23" t="inlineStr"/>
+      <c r="L23">
+        <f>IF(N23=3, 750, IF(N23=1, 1000, ""))</f>
+        <v/>
+      </c>
       <c r="M23">
         <f>L23*4</f>
         <v/>
@@ -1122,45 +1143,45 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>No Nextv</t>
+          <t>https://www.prensa.com/impresa/economia/incertidumbre-principal-obstaculo-en-la-recuperacion/</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="D24" t="inlineStr">
         <is>
-          <t>Entrevista 2</t>
+          <t>Mención de Marca 4</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Entrevista al Ing. Enrique Luna, sobre la inteligencia artificial</t>
+          <t>Hay una serie de actividades económicas más perjudicadas que otras por la pandemia. Adriana Angarita, presidenta de la Asociación de Universidades Privadas de Panamá (Auppa), dijo que en términos generales los sectores que pierden relevancia son la construcción, la aviación, el turismo y los servicios financieros.</t>
         </is>
       </c>
       <c r="F24" s="1" t="n">
-        <v>44124</v>
+        <v>44119</v>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>Web</t>
-        </is>
-      </c>
+          <t>Twitter</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
-          <t>1 página</t>
+          <t>1 post</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Entrevista al Ing. Enrique Luna, sobre la inteligencia artificial</t>
+          <t>Hay una serie de actividades económicas más perjudicadas que otras por la pandemia. Adriana Angarita, presidenta de la Asociación de Universidades Privadas de Panamá (Auppa), dijo que en términos generales los sectores que pierden relevancia son la construcción, la aviación, el turismo y los servicios financieros.</t>
         </is>
       </c>
       <c r="K24" t="n">
         <v>16</v>
       </c>
-      <c r="L24">
-        <f>IF(N24=3, 750, IF(N24=1, 1000, ""))</f>
-        <v/>
+      <c r="L24" t="n">
+        <v>500</v>
       </c>
       <c r="M24">
         <f>L24*4</f>
@@ -1176,45 +1197,45 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=9uCtTNO9D_o&amp;feature=youtu.be</t>
+          <t>https://twitter.com/prensacom/status/1316768997329821699?s=20</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="D25" t="inlineStr">
         <is>
-          <t>Entrevista 3</t>
+          <t>Mención de Marca 4</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Entrevista al Ing. Enrique Luna, sobre la inteligencia artificial</t>
+          <t>Hay una serie de actividades económicas más perjudicadas que otras por la pandemia. Adriana Angarita, presidenta de la Asociación de Universidades Privadas de Panamá (Auppa), dijo que en términos generales los sectores que pierden relevancia son la construcción, la aviación, el turismo y los servicios financieros.</t>
         </is>
       </c>
       <c r="F25" s="1" t="n">
-        <v>44124</v>
+        <v>44119</v>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>Web</t>
-        </is>
-      </c>
+          <t>Twitter</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
-          <t>1 página</t>
+          <t>1 post</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Entrevista al Ing. Enrique Luna, sobre la inteligencia artificial</t>
+          <t>Hay una serie de actividades económicas más perjudicadas que otras por la pandemia. Adriana Angarita, presidenta de la Asociación de Universidades Privadas de Panamá (Auppa), dijo que en términos generales los sectores que pierden relevancia son la construcción, la aviación, el turismo y los servicios financieros.</t>
         </is>
       </c>
       <c r="K25" t="n">
         <v>17</v>
       </c>
-      <c r="L25">
-        <f>IF(N25=3, 750, IF(N25=1, 1000, ""))</f>
-        <v/>
+      <c r="L25" t="n">
+        <v>500</v>
       </c>
       <c r="M25">
         <f>L25*4</f>
@@ -1230,29 +1251,30 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>https://pa.domiplay.net/video/entrevista-al-ing-enrique-luna-20-10-20-nex-9ucdo</t>
+          <t>https://twitter.com/prensacom/status/1316768686934495233?s=20</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="D26" t="inlineStr">
         <is>
-          <t>Entrevista 4</t>
+          <t>Nota de Prensa 2</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Entrevista al Ing. Enrique Luna, sobre la inteligencia artificial</t>
+          <t>Futuro de Panamá a través del talento humano una mirada desde el liderazgo juvenil</t>
         </is>
       </c>
       <c r="F26" s="1" t="n">
-        <v>44124</v>
+        <v>44118</v>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
           <t>Web</t>
         </is>
       </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
           <t>1 página</t>
@@ -1260,7 +1282,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Entrevista al Ing. Enrique Luna, sobre la inteligencia artificial</t>
+          <t>Futuro de Panamá a través del talento humano una mirada desde el liderazgo juvenil</t>
         </is>
       </c>
       <c r="K26" t="n">
@@ -1284,29 +1306,30 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>https://nexnoticias.ruplayers.com/n6d62Lixg2l4l6M/entrevista-al-ing-enrique-luna-sobre-la-inteligencia-artificial.html</t>
+          <t>https://panamaaldia.news/futuro-de-panama-a-traves-del-talento-humano-una-mirada-desde-el-liderazgo-juvenil/</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="D27" t="inlineStr">
         <is>
-          <t>Entrevista 5</t>
+          <t>Nota de Prensa 2</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Entrevista al Ing. Enrique Luna, sobre la inteligencia artificial</t>
+          <t>Futuro de Panamá a través del talento humano una mirada desde el liderazgo juvenil</t>
         </is>
       </c>
       <c r="F27" s="1" t="n">
-        <v>44124</v>
+        <v>44191</v>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
           <t>Web</t>
         </is>
       </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
           <t>1 página</t>
@@ -1314,7 +1337,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Entrevista al Ing. Enrique Luna, sobre la inteligencia artificial</t>
+          <t>Futuro de Panamá a través del talento humano una mirada desde el liderazgo juvenil</t>
         </is>
       </c>
       <c r="K27" t="n">
@@ -1338,35 +1361,47 @@
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>https://www.dailymotion.com/embed/video/x7wyvme</t>
+          <t>https://riducaonline.com/2020/10/26/futuro-de-panama-a-traves-del-talento-humano-una-mirada-desde-el-liderazgo-juvenil/</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="D28" t="inlineStr">
         <is>
-          <t>Entrevista 6</t>
+          <t>Nota de Prensa 2</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Entrevista al Ing. Enrique Luna, sobre la inteligencia artificial</t>
+          <t>Futuro de Panamá a través del talento humano una mirada desde el liderazgo juvenil</t>
         </is>
       </c>
       <c r="F28" s="1" t="n">
-        <v>44127</v>
-      </c>
-      <c r="G28" s="2" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
+        <v>44131</v>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>Web</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>1 página</t>
+        </is>
+      </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Entrevista al Ing. Enrique Luna, sobre la inteligencia artificial</t>
+          <t>Futuro de Panamá a través del talento humano una mirada desde el liderazgo juvenil</t>
         </is>
       </c>
       <c r="K28" t="n">
         <v>20</v>
       </c>
-      <c r="L28" t="inlineStr"/>
+      <c r="L28">
+        <f>IF(N28=3, 750, IF(N28=1, 1000, ""))</f>
+        <v/>
+      </c>
       <c r="M28">
         <f>L28*4</f>
         <v/>
@@ -1381,45 +1416,45 @@
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>No RADIO PANAMÁ</t>
+          <t>https://www.metrolibre.com/nacionales/185408-j%C3%B3venes-l%C3%ADderes-compartir%C3%A1n-su-visi%C3%B3n-del-futuro-de-panam%C3%A1.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="D29" t="inlineStr">
         <is>
-          <t>Mención de Marca 1</t>
+          <t>Nota de Prensa 2</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>La tecnología que ayuda a monitorear temperaturas corporales anormales</t>
+          <t>Futuro de Panamá a través del talento humano una mirada desde el liderazgo juvenil</t>
         </is>
       </c>
       <c r="F29" s="1" t="n">
-        <v>44106</v>
+        <v>44131</v>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>Web</t>
-        </is>
-      </c>
+          <t>Twitter</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
         <is>
-          <t>1 página</t>
+          <t>1 post</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>La tecnología que ayuda a monitorear temperaturas corporales anormales</t>
+          <t>Futuro de Panamá a través del talento humano una mirada desde el liderazgo juvenil</t>
         </is>
       </c>
       <c r="K29" t="n">
         <v>21</v>
       </c>
-      <c r="L29">
-        <f>IF(N29=3, 750, IF(N29=1, 1000, ""))</f>
-        <v/>
+      <c r="L29" t="n">
+        <v>500</v>
       </c>
       <c r="M29">
         <f>L29*4</f>
@@ -1435,29 +1470,30 @@
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>https://riducaonline.com/2020/10/02/la-tecnologia-que-ayuda-a-monitorear-temperaturas-corporales-anormales/</t>
+          <t>https://twitter.com/MetroLibrePTY/status/1321191696344907777?s=20</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="D30" t="inlineStr">
         <is>
-          <t>Mención de Marca 2</t>
+          <t>Nota de Prensa 2</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Conozca cómo la IA cambió la forma de viajar</t>
+          <t>Futuro de Panamá a través del talento humano una mirada desde el liderazgo juvenil</t>
         </is>
       </c>
       <c r="F30" s="1" t="n">
-        <v>44105</v>
+        <v>44132</v>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
           <t>Web</t>
         </is>
       </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
         <is>
           <t>1 página</t>
@@ -1465,7 +1501,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Conozca cómo la IA cambió la forma de viajar</t>
+          <t>Futuro de Panamá a través del talento humano una mirada desde el liderazgo juvenil</t>
         </is>
       </c>
       <c r="K30" t="n">
@@ -1489,29 +1525,30 @@
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>https://elcapitalfinanciero.com/conozca-como-la-ia-cambio-la-forma-de-viajar/</t>
+          <t>https://www.panama24horas.com.pa/comunidad/futuro-de-panama-a-traves-del-talento-humano-una-mirada-desde-el-liderazgo-juvenil/</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="D31" t="inlineStr">
         <is>
-          <t>Mención de Marca 2</t>
+          <t>Nota de Prensa 2</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Conozca cómo la IA cambió la forma de viajar</t>
+          <t>Futuro de Panamá a través del talento humano una mirada desde el liderazgo juvenil</t>
         </is>
       </c>
       <c r="F31" s="1" t="n">
-        <v>44105</v>
+        <v>44132</v>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
           <t>Twitter</t>
         </is>
       </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
         <is>
           <t>1 post</t>
@@ -1519,7 +1556,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Conozca cómo la IA cambió la forma de viajar</t>
+          <t>Futuro de Panamá a través del talento humano una mirada desde el liderazgo juvenil</t>
         </is>
       </c>
       <c r="K31" t="n">
@@ -1542,45 +1579,45 @@
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>https://twitter.com/ElCFPanama/status/1311699596868030465?s=20</t>
+          <t>https://twitter.com/Panama24horas/status/1321514330391674880?s=20</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="D32" t="inlineStr">
         <is>
-          <t>Mención de Marca 3</t>
+          <t>Nota de Prensa 2</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Entre las experiencias de éxito que Comsmarket ha sumado en este 2020 está el trabajo con Panamá Pacífico, Volkswagen, Encuentra24, Dahua Technology, la Asociación de Universidades Particulares de Panamá, UMECIT y Tambor S.A.</t>
+          <t>Futuro de Panamá a través del talento humano una mirada desde el liderazgo juvenil</t>
         </is>
       </c>
       <c r="F32" s="1" t="n">
-        <v>44134</v>
+        <v>44132</v>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>Web</t>
-        </is>
-      </c>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
         <is>
-          <t>1 página</t>
+          <t>1 post</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Entre las experiencias de éxito que Comsmarket ha sumado en este 2020 está el trabajo con Panamá Pacífico, Volkswagen, Encuentra24, Dahua Technology, la Asociación de Universidades Particulares de Panamá, UMECIT y Tambor S.A.</t>
+          <t>Futuro de Panamá a través del talento humano una mirada desde el liderazgo juvenil</t>
         </is>
       </c>
       <c r="K32" t="n">
         <v>24</v>
       </c>
-      <c r="L32">
-        <f>IF(N32=3, 750, IF(N32=1, 1000, ""))</f>
-        <v/>
+      <c r="L32" t="n">
+        <v>500</v>
       </c>
       <c r="M32">
         <f>L32*4</f>
@@ -1596,7 +1633,260 @@
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>https://somosimpactopositivo.com/impactando-en-positivo/comsmarket-agencia/</t>
+          <t>https://www.instagram.com/p/CG5ZABMBLht/?igshid=sc2z73zp4xva</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Entrevista 1</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Entrevista a Adriana Angarita sobre el Futuro de Panamá a través del talento humano</t>
+        </is>
+      </c>
+      <c r="F33" s="1" t="n">
+        <v>44126</v>
+      </c>
+      <c r="G33" s="2" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Entrevista a Adriana Angarita sobre el Futuro de Panamá a través del talento humano</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>25</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33">
+        <f>L33*4</f>
+        <v/>
+      </c>
+      <c r="O33">
+        <f>IF(N33=1,1,"")</f>
+        <v/>
+      </c>
+      <c r="Q33">
+        <f>IF(N33=3,1,"")</f>
+        <v/>
+      </c>
+      <c r="AA33" t="inlineStr">
+        <is>
+          <t>No NEXTV 345</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Entrevista 1</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Entrevista a Adriana Angarita sobre el Futuro de Panamá a través del talento humano</t>
+        </is>
+      </c>
+      <c r="F34" s="1" t="n">
+        <v>44126</v>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>Web</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>1 página</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Entrevista a Adriana Angarita sobre el Futuro de Panamá a través del talento humano</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>26</v>
+      </c>
+      <c r="L34">
+        <f>IF(N34=3, 750, IF(N34=1, 1000, ""))</f>
+        <v/>
+      </c>
+      <c r="M34">
+        <f>L34*4</f>
+        <v/>
+      </c>
+      <c r="O34">
+        <f>IF(N34=1,1,"")</f>
+        <v/>
+      </c>
+      <c r="Q34">
+        <f>IF(N34=3,1,"")</f>
+        <v/>
+      </c>
+      <c r="AA34" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=_mPWJjJlK1I</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Entrevista 1</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Entrevista a Adriana Angarita sobre el Futuro de Panamá a través del talento humano</t>
+        </is>
+      </c>
+      <c r="F35" s="1" t="n">
+        <v>44126</v>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>Web</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>1 página</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Entrevista a Adriana Angarita sobre el Futuro de Panamá a través del talento humano</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>27</v>
+      </c>
+      <c r="L35">
+        <f>IF(N35=3, 750, IF(N35=1, 1000, ""))</f>
+        <v/>
+      </c>
+      <c r="M35">
+        <f>L35*4</f>
+        <v/>
+      </c>
+      <c r="O35">
+        <f>IF(N35=1,1,"")</f>
+        <v/>
+      </c>
+      <c r="Q35">
+        <f>IF(N35=3,1,"")</f>
+        <v/>
+      </c>
+      <c r="AA35" t="inlineStr">
+        <is>
+          <t>https://nexnoticias.ruplayers.com/xZ-Hu67Nfpx_aX0/entrevista-a-adriana-angarita-presidente-de-la-asoc-auppa.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Entrevista 1</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Entrevista a Adriana Angarita sobre el Futuro de Panamá a través del talento humano</t>
+        </is>
+      </c>
+      <c r="F36" s="1" t="n">
+        <v>44126</v>
+      </c>
+      <c r="G36" s="2" t="inlineStr">
+        <is>
+          <t>Web</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>1 página</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Entrevista a Adriana Angarita sobre el Futuro de Panamá a través del talento humano</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>28</v>
+      </c>
+      <c r="L36">
+        <f>IF(N36=3, 750, IF(N36=1, 1000, ""))</f>
+        <v/>
+      </c>
+      <c r="M36">
+        <f>L36*4</f>
+        <v/>
+      </c>
+      <c r="O36">
+        <f>IF(N36=1,1,"")</f>
+        <v/>
+      </c>
+      <c r="Q36">
+        <f>IF(N36=3,1,"")</f>
+        <v/>
+      </c>
+      <c r="AA36" t="inlineStr">
+        <is>
+          <t>https://pa.domiplay.net/video/entrevista-a-adriana-angarita-presidente-22-10-20-nex-mpk1i</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Entrevista 2</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Entrevista a Adriana Angarita sobre el Futuro de Panamá a través del talento humano</t>
+        </is>
+      </c>
+      <c r="F37" s="1" t="n">
+        <v>44127</v>
+      </c>
+      <c r="G37" s="2" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Entrevista a Adriana Angarita sobre el Futuro de Panamá a través del talento humano</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>29</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37">
+        <f>L37*4</f>
+        <v/>
+      </c>
+      <c r="O37">
+        <f>IF(N37=1,1,"")</f>
+        <v/>
+      </c>
+      <c r="Q37">
+        <f>IF(N37=3,1,"")</f>
+        <v/>
+      </c>
+      <c r="AA37" t="inlineStr">
+        <is>
+          <t>No Radio Panamá 1200</t>
         </is>
       </c>
     </row>
@@ -1626,6 +1916,11 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G30" r:id="rId22"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G31" r:id="rId23"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G32" r:id="rId24"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G33" r:id="rId25"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G34" r:id="rId26"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G35" r:id="rId27"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G36" r:id="rId28"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G37" r:id="rId29"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Excel Terminado.xlsx
+++ b/Excel Terminado.xlsx
@@ -330,7 +330,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="D9:AA37"/>
+  <dimension ref="D9:AA29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -341,16 +341,16 @@
     <row r="9">
       <c r="D9" t="inlineStr">
         <is>
-          <t>Mención de Marca 1</t>
+          <t>Nota de Prensa 1</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Entre las experiencias de éxito que Comsmarket ha sumado en este 2020 está el trabajo con Panamá Pacífico, Volkswagen, Encuentra24, Dahua Technology, la Asociación de Universidades Particulares de Panamá, UMECIT y Tambor S.A.</t>
+          <t>Modalidad virtual impacta a las principales ferias comerciales de la región</t>
         </is>
       </c>
       <c r="F9" s="1" t="n">
-        <v>44105</v>
+        <v>44110</v>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
@@ -365,7 +365,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Entre las experiencias de éxito que Comsmarket ha sumado en este 2020 está el trabajo con Panamá Pacífico, Volkswagen, Encuentra24, Dahua Technology, la Asociación de Universidades Particulares de Panamá, UMECIT y Tambor S.A.</t>
+          <t>Plataforma virtual, clave para ferias inmobiliarias en tiempos de covid-19</t>
         </is>
       </c>
       <c r="K9" t="n">
@@ -389,36 +389,46 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>https://somosimpactopositivo.com/impactando-en-positivo/comsmarket-agencia/</t>
+          <t>https://www.laestrella.com.pa/economia/201006/plataforma-virtual-clave-ferias-inmobiliarias-tiempos-covid-19</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="D10" t="inlineStr">
         <is>
-          <t>Mención de Marca 2</t>
+          <t>Nota de Prensa 1</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Panamá debe apostar a servicios digitales</t>
+          <t>Modalidad virtual impacta a las principales ferias comerciales de la región</t>
         </is>
       </c>
       <c r="F10" s="1" t="n">
-        <v>44105</v>
-      </c>
-      <c r="G10" s="2" t="inlineStr"/>
+        <v>44110</v>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>Twitter</t>
+        </is>
+      </c>
       <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>1 post</t>
+        </is>
+      </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Panamá debe apostar a servicios digitales</t>
+          <t>Plataforma virtual, clave para ferias inmobiliarias en tiempos de covid-19</t>
         </is>
       </c>
       <c r="K10" t="n">
         <v>2</v>
       </c>
-      <c r="L10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>500</v>
+      </c>
       <c r="M10">
         <f>L10*4</f>
         <v/>
@@ -433,46 +443,45 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>No PANAMÁ AMÉRICA</t>
+          <t>https://twitter.com/ReportoCA/status/1313549638864117760?s=20</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="D11" t="inlineStr">
         <is>
-          <t>Mención de Marca 2</t>
+          <t>Nota de Prensa 1</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Panamá debe apostar a servicios digitales</t>
+          <t>Modalidad virtual impacta a las principales ferias comerciales de la región</t>
         </is>
       </c>
       <c r="F11" s="1" t="n">
-        <v>44105</v>
+        <v>44110</v>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>Web</t>
+          <t>Twitter</t>
         </is>
       </c>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
         <is>
-          <t>1 página</t>
+          <t>1 post</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Panamá debe apostar a servicios digitales</t>
+          <t>Plataforma virtual, clave para ferias inmobiliarias en tiempos de covid-19</t>
         </is>
       </c>
       <c r="K11" t="n">
         <v>3</v>
       </c>
-      <c r="L11">
-        <f>IF(N11=3, 750, IF(N11=1, 1000, ""))</f>
-        <v/>
+      <c r="L11" t="n">
+        <v>500</v>
       </c>
       <c r="M11">
         <f>L11*4</f>
@@ -488,7 +497,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>https://www.pressreader.com/panama/panama-america/20201001/282020444744622</t>
+          <t>https://twitter.com/EstrellaOnline/status/1313554875150721024?s=20</t>
         </is>
       </c>
     </row>
@@ -500,11 +509,11 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Economía, Competitividad y futuro de Panamá / El aporte de todos los sectores es clave para reactivar nuestra economía</t>
+          <t>Modalidad virtual impacta a las principales ferias comerciales de la región</t>
         </is>
       </c>
       <c r="F12" s="1" t="n">
-        <v>44105</v>
+        <v>44111</v>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
@@ -519,7 +528,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Panamá ante el reto de ser una economía desarrollada</t>
+          <t>Modalidad virtual impacta a las principales ferias comerciales de la región</t>
         </is>
       </c>
       <c r="K12" t="n">
@@ -543,7 +552,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>https://www.prensa.com/impresa/economia/panama-ante-el-reto-de-ser-una-economia-desarrollada/</t>
+          <t>https://elcapitalfinanciero.com/modalidad-virtual-impacta-a-las-principales-ferias-comerciales-de-la-region/</t>
         </is>
       </c>
     </row>
@@ -555,11 +564,11 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Economía, Competitividad y futuro de Panamá / El aporte de todos los sectores es clave para reactivar nuestra economía</t>
+          <t>Modalidad virtual impacta a las principales ferias comerciales de la región</t>
         </is>
       </c>
       <c r="F13" s="1" t="n">
-        <v>44105</v>
+        <v>44111</v>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
@@ -574,7 +583,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Economía, Competitividad y futuro de Panamá</t>
+          <t>Modalidad virtual impacta a las principales ferias comerciales de la región</t>
         </is>
       </c>
       <c r="K13" t="n">
@@ -598,7 +607,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>https://www.panama24horas.com.pa/panama/economia-competitividad-y-futuro-de-panam/</t>
+          <t>http://www.findglocal.com/PA/Panama-City/22056981168/El-Espectador-de-Panam%C3%A1</t>
         </is>
       </c>
     </row>
@@ -610,11 +619,11 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Economía, Competitividad y futuro de Panamá / El aporte de todos los sectores es clave para reactivar nuestra economía</t>
+          <t>Modalidad virtual impacta a las principales ferias comerciales de la región</t>
         </is>
       </c>
       <c r="F14" s="1" t="n">
-        <v>44105</v>
+        <v>44111</v>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
@@ -629,7 +638,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Economía, Competitividad y futuro de Panamá</t>
+          <t>Modalidad virtual impacta a las principales ferias comerciales de la región</t>
         </is>
       </c>
       <c r="K14" t="n">
@@ -652,7 +661,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>https://twitter.com/sabribacal/status/1311626659720765441?s=20</t>
+          <t>https://twitter.com/ElCFPanama/status/1313866365854461953?s=20</t>
         </is>
       </c>
     </row>
@@ -664,15 +673,15 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Economía, Competitividad y futuro de Panamá / El aporte de todos los sectores es clave para reactivar nuestra economía</t>
+          <t>Modalidad virtual impacta a las principales ferias comerciales de la región</t>
         </is>
       </c>
       <c r="F15" s="1" t="n">
-        <v>44105</v>
+        <v>44111</v>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>Twitter</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="H15" t="inlineStr"/>
@@ -683,7 +692,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Economía, Competitividad y futuro de Panamá</t>
+          <t>Modalidad virtual impacta a las principales ferias comerciales de la región</t>
         </is>
       </c>
       <c r="K15" t="n">
@@ -706,7 +715,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>https://twitter.com/Panama24horas/status/1311536585993785346?s=20</t>
+          <t>https://www.instagram.com/p/CGECFkHnvmw/?igshid=a9bowmzakvt8</t>
         </is>
       </c>
     </row>
@@ -718,34 +727,33 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Economía, Competitividad y futuro de Panamá / El aporte de todos los sectores es clave para reactivar nuestra economía</t>
+          <t>Modalidad virtual impacta a las principales ferias comerciales de la región</t>
         </is>
       </c>
       <c r="F16" s="1" t="n">
-        <v>44118</v>
+        <v>44111</v>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>Web</t>
+          <t>Twitter</t>
         </is>
       </c>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
-          <t>1 página</t>
+          <t>1 post</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>El aporte de todos los sectores es clave para reactivar nuestra economía</t>
+          <t>Modalidad virtual impacta a las principales ferias comerciales de la región</t>
         </is>
       </c>
       <c r="K16" t="n">
         <v>8</v>
       </c>
-      <c r="L16">
-        <f>IF(N16=3, 750, IF(N16=1, 1000, ""))</f>
-        <v/>
+      <c r="L16" t="n">
+        <v>500</v>
       </c>
       <c r="M16">
         <f>L16*4</f>
@@ -761,7 +769,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>https://panamaaldia.news/el-aporte-de-todos-los-sectores-es-clave-para-reactivar-nuestra-economia/</t>
+          <t>https://twitter.com/EstrellaOnline/status/1313773683941478401?s=20</t>
         </is>
       </c>
     </row>
@@ -773,34 +781,33 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Economía, Competitividad y futuro de Panamá / El aporte de todos los sectores es clave para reactivar nuestra economía</t>
+          <t>Modalidad virtual impacta a las principales ferias comerciales de la región</t>
         </is>
       </c>
       <c r="F17" s="1" t="n">
-        <v>44118</v>
+        <v>44111</v>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>Web</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
-          <t>1 página</t>
+          <t>1 post</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>El aporte de todos los sectores es clave para reactivar nuestra economía</t>
+          <t>Modalidad virtual impacta a las principales ferias comerciales de la región</t>
         </is>
       </c>
       <c r="K17" t="n">
         <v>9</v>
       </c>
-      <c r="L17">
-        <f>IF(N17=3, 750, IF(N17=1, 1000, ""))</f>
-        <v/>
+      <c r="L17" t="n">
+        <v>500</v>
       </c>
       <c r="M17">
         <f>L17*4</f>
@@ -816,23 +823,23 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>https://verpanama.com/aporte-de-todos-los-sectores-clave-para-reactivacion/</t>
+          <t>https://www.facebook.com/LaEstrelladePanama/photos/capac-plataforma-virtual-clave-para-ferias-inmobiliarias-en-tiempos-de-covid-19-/3362490347121567/</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="D18" t="inlineStr">
         <is>
-          <t>Nota de Prensa 1</t>
+          <t>Nota de Prensa 2</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Economía, Competitividad y futuro de Panamá / El aporte de todos los sectores es clave para reactivar nuestra economía</t>
+          <t>Encuentra24 cumple 15 años siendo la plataforma líder en la región</t>
         </is>
       </c>
       <c r="F18" s="1" t="n">
-        <v>44118</v>
+        <v>44117</v>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
@@ -847,7 +854,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>El aporte de todos los sectores es clave para reactivar nuestra economía</t>
+          <t>Encuentra24 cumple 15 años siendo la plataforma líder en la región</t>
         </is>
       </c>
       <c r="K18" t="n">
@@ -871,45 +878,46 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>https://www.panama24horas.com.pa/panama/el-aporte-de-todos-los-sectores-es-clave-para-reactivar-nuestra-economia/</t>
+          <t>https://www.panama24horas.com.pa/centroamerica/encuentra24-cumple-15-anos-siendo-la-plataforma-lider-en-la-region/#~text=existencia%20de%20Encuentra24.-,Este%20mes%2C%20la%20plataforma%20digital%20l%C3%ADder%20en%20la%20regi%C3%B3n%2C%20celebra,nuestra%20regi%C3%B3n%20y%20el%20Caribe.</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="D19" t="inlineStr">
         <is>
-          <t>Nota de Prensa 1</t>
+          <t>Nota de Prensa 2</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Economía, Competitividad y futuro de Panamá / El aporte de todos los sectores es clave para reactivar nuestra economía</t>
+          <t>Encuentra24 cumple 15 años siendo la plataforma líder en la región</t>
         </is>
       </c>
       <c r="F19" s="1" t="n">
-        <v>44118</v>
+        <v>44117</v>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>Twitter</t>
+          <t>Web</t>
         </is>
       </c>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
-          <t>1 post</t>
+          <t>1 página</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>El aporte de todos los sectores es clave para reactivar nuestra economía</t>
+          <t>Encuentra24 cumple 15 años siendo la plataforma líder en la región</t>
         </is>
       </c>
       <c r="K19" t="n">
         <v>11</v>
       </c>
-      <c r="L19" t="n">
-        <v>500</v>
+      <c r="L19">
+        <f>IF(N19=3, 750, IF(N19=1, 1000, ""))</f>
+        <v/>
       </c>
       <c r="M19">
         <f>L19*4</f>
@@ -925,23 +933,23 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>https://twitter.com/verpanama1/status/1316529160010051584?s=20</t>
+          <t>https://panamaaldia.news/encuentra24-cumple-15-anos-siendo-la-plataforma-lider-en-la-region/</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="D20" t="inlineStr">
         <is>
-          <t>Mención de Marca 3</t>
+          <t>Nota de Prensa 2</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>En la conferencia virtual de Café con La Prensa, René Quevedo, analista y consultor laboral; y Adriana Angarita, rectora de la Universidad del Istmo y presidenta de la Asociación de Universidades Privadas de Panamá analizaron la realidad de la situación laboral panameña.</t>
+          <t>Encuentra24 cumple 15 años siendo la plataforma líder en la región</t>
         </is>
       </c>
       <c r="F20" s="1" t="n">
-        <v>44118</v>
+        <v>44119</v>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
@@ -956,7 +964,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>En la conferencia virtual de Café con La Prensa, René Quevedo, analista y consultor laboral; y Adriana Angarita, rectora de la Universidad del Istmo y presidenta de la Asociación de Universidades Privadas de Panamá analizaron la realidad de la situación laboral panameña.</t>
+          <t>Encuentra24 cumple 15 años siendo la plataforma líder en la región</t>
         </is>
       </c>
       <c r="K20" t="n">
@@ -980,45 +988,46 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>https://www.prensa.com/economia/panama-se-enfrenta-a-una-situacion-complicada-en-materia-laboral-producto-de-la-pandemia/</t>
+          <t>http://madridhoy.info/search.php?pagina=19&amp;s=%40%40Panam%C3%A1</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="D21" t="inlineStr">
         <is>
-          <t>Mención de Marca 3</t>
+          <t>Nota de Prensa 2</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>En la conferencia virtual de Café con La Prensa, René Quevedo, analista y consultor laboral; y Adriana Angarita, rectora de la Universidad del Istmo y presidenta de la Asociación de Universidades Privadas de Panamá analizaron la realidad de la situación laboral panameña.</t>
+          <t>Encuentra24 cumple 15 años siendo la plataforma líder en la región</t>
         </is>
       </c>
       <c r="F21" s="1" t="n">
-        <v>44118</v>
+        <v>44131</v>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>Twitter</t>
+          <t>Web</t>
         </is>
       </c>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
-          <t>1 post</t>
+          <t>1 página</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>En la conferencia virtual de Café con La Prensa, René Quevedo, analista y consultor laboral; y Adriana Angarita, rectora de la Universidad del Istmo y presidenta de la Asociación de Universidades Privadas de Panamá analizaron la realidad de la situación laboral panameña.</t>
+          <t>Encuentra24 cumple 15 años siendo la plataforma líder en la región</t>
         </is>
       </c>
       <c r="K21" t="n">
         <v>13</v>
       </c>
-      <c r="L21" t="n">
-        <v>500</v>
+      <c r="L21">
+        <f>IF(N21=3, 750, IF(N21=1, 1000, ""))</f>
+        <v/>
       </c>
       <c r="M21">
         <f>L21*4</f>
@@ -1034,45 +1043,46 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>https://twitter.com/prensacom/status/1316391133677789187?s=20</t>
+          <t>https://somosimpactopositivo.com/impacto-economico/aniversario-encuentra24/</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="D22" t="inlineStr">
         <is>
-          <t>Mención de Marca 3</t>
+          <t>Nota de Prensa 3 (Septiembre)</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>En la conferencia virtual de Café con La Prensa, René Quevedo, analista y consultor laboral; y Adriana Angarita, rectora de la Universidad del Istmo y presidenta de la Asociación de Universidades Privadas de Panamá analizaron la realidad de la situación laboral panameña.</t>
+          <t>Panamá en la mira de compradores internacionales de bienes raíces</t>
         </is>
       </c>
       <c r="F22" s="1" t="n">
-        <v>44118</v>
+        <v>44106</v>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>Twitter</t>
+          <t>Web</t>
         </is>
       </c>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
-          <t>1 post</t>
+          <t>1 página</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>En la conferencia virtual de Café con La Prensa, René Quevedo, analista y consultor laboral; y Adriana Angarita, rectora de la Universidad del Istmo y presidenta de la Asociación de Universidades Privadas de Panamá analizaron la realidad de la situación laboral panameña.</t>
+          <t>Panamá en la mira de compradores internacionales de bienes raíces</t>
         </is>
       </c>
       <c r="K22" t="n">
         <v>14</v>
       </c>
-      <c r="L22" t="n">
-        <v>500</v>
+      <c r="L22">
+        <f>IF(N22=3, 750, IF(N22=1, 1000, ""))</f>
+        <v/>
       </c>
       <c r="M22">
         <f>L22*4</f>
@@ -1088,23 +1098,23 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>https://twitter.com/prensacom/status/1316387283554258952?s=20</t>
+          <t>https://panamaaldia.news/panama-en-la-mira-de-compradores-internacionales-de-bienes-raices-2/</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="D23" t="inlineStr">
         <is>
-          <t>Mención de Marca 4</t>
+          <t>Mención de Marca 1</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Hay una serie de actividades económicas más perjudicadas que otras por la pandemia. Adriana Angarita, presidenta de la Asociación de Universidades Privadas de Panamá (Auppa), dijo que en términos generales los sectores que pierden relevancia son la construcción, la aviación, el turismo y los servicios financieros.</t>
+          <t>También mencionó el consumo del comercio electrónico, a través de sitios como por ejemplo Encuentra24 que siempre ha sido de los sitios más visitados de Panamá, Amazon, AliExpress que viene siendo la versión más comercial de Alibaba.</t>
         </is>
       </c>
       <c r="F23" s="1" t="n">
-        <v>44119</v>
+        <v>44109</v>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
@@ -1119,7 +1129,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Hay una serie de actividades económicas más perjudicadas que otras por la pandemia. Adriana Angarita, presidenta de la Asociación de Universidades Privadas de Panamá (Auppa), dijo que en términos generales los sectores que pierden relevancia son la construcción, la aviación, el turismo y los servicios financieros.</t>
+          <t>También mencionó el consumo del comercio electrónico, a través de sitios como por ejemplo Encuentra24 que siempre ha sido de los sitios más visitados de Panamá, Amazon, AliExpress que viene siendo la versión más comercial de Alibaba.</t>
         </is>
       </c>
       <c r="K23" t="n">
@@ -1143,23 +1153,23 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>https://www.prensa.com/impresa/economia/incertidumbre-principal-obstaculo-en-la-recuperacion/</t>
+          <t>https://www.critica.com.pa/nacional/el-consumo-siempre-vuelve-589324</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="D24" t="inlineStr">
         <is>
-          <t>Mención de Marca 4</t>
+          <t>Mención de Marca 1</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Hay una serie de actividades económicas más perjudicadas que otras por la pandemia. Adriana Angarita, presidenta de la Asociación de Universidades Privadas de Panamá (Auppa), dijo que en términos generales los sectores que pierden relevancia son la construcción, la aviación, el turismo y los servicios financieros.</t>
+          <t>También mencionó el consumo del comercio electrónico, a través de sitios como por ejemplo Encuentra24 que siempre ha sido de los sitios más visitados de Panamá, Amazon, AliExpress que viene siendo la versión más comercial de Alibaba.</t>
         </is>
       </c>
       <c r="F24" s="1" t="n">
-        <v>44119</v>
+        <v>44109</v>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
@@ -1174,7 +1184,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Hay una serie de actividades económicas más perjudicadas que otras por la pandemia. Adriana Angarita, presidenta de la Asociación de Universidades Privadas de Panamá (Auppa), dijo que en términos generales los sectores que pierden relevancia son la construcción, la aviación, el turismo y los servicios financieros.</t>
+          <t>También mencionó el consumo del comercio electrónico, a través de sitios como por ejemplo Encuentra24 que siempre ha sido de los sitios más visitados de Panamá, Amazon, AliExpress que viene siendo la versión más comercial de Alibaba.</t>
         </is>
       </c>
       <c r="K24" t="n">
@@ -1197,45 +1207,46 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>https://twitter.com/prensacom/status/1316768997329821699?s=20</t>
+          <t>https://twitter.com/criticaenlinea/status/1313004115430178817?s=20</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="D25" t="inlineStr">
         <is>
-          <t>Mención de Marca 4</t>
+          <t>Nota de Prensa 4 (Septiembre)</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Hay una serie de actividades económicas más perjudicadas que otras por la pandemia. Adriana Angarita, presidenta de la Asociación de Universidades Privadas de Panamá (Auppa), dijo que en términos generales los sectores que pierden relevancia son la construcción, la aviación, el turismo y los servicios financieros.</t>
+          <t>Vivir en espacios abiertos, es la alternativa que prefieren los usuarios de plataformas digitales luego de la pandemia</t>
         </is>
       </c>
       <c r="F25" s="1" t="n">
-        <v>44119</v>
+        <v>44114</v>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>Twitter</t>
+          <t>Web</t>
         </is>
       </c>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
-          <t>1 post</t>
+          <t>1 página</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Hay una serie de actividades económicas más perjudicadas que otras por la pandemia. Adriana Angarita, presidenta de la Asociación de Universidades Privadas de Panamá (Auppa), dijo que en términos generales los sectores que pierden relevancia son la construcción, la aviación, el turismo y los servicios financieros.</t>
+          <t>Vivir en espacios abiertos, alternativa de usuarios de plataformas digitales</t>
         </is>
       </c>
       <c r="K25" t="n">
         <v>17</v>
       </c>
-      <c r="L25" t="n">
-        <v>500</v>
+      <c r="L25">
+        <f>IF(N25=3, 750, IF(N25=1, 1000, ""))</f>
+        <v/>
       </c>
       <c r="M25">
         <f>L25*4</f>
@@ -1251,47 +1262,36 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>https://twitter.com/prensacom/status/1316768686934495233?s=20</t>
+          <t>https://www.periodicoequilibrium.com/vivir-en-espacios-abiertos-alternativa-de-usuarios-de-plataformas-digitales/</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="D26" t="inlineStr">
         <is>
-          <t>Nota de Prensa 2</t>
+          <t>Entrevista 1</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Futuro de Panamá a través del talento humano una mirada desde el liderazgo juvenil</t>
+          <t>Entrevista a Wendy Jordán sobre Comercio electrónico crece en un 150% por la pandemia</t>
         </is>
       </c>
       <c r="F26" s="1" t="n">
-        <v>44118</v>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>Web</t>
-        </is>
-      </c>
+        <v>44133</v>
+      </c>
+      <c r="G26" s="2" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>1 página</t>
-        </is>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Futuro de Panamá a través del talento humano una mirada desde el liderazgo juvenil</t>
+          <t>Entrevista a Wendy Jordán sobre Comercio electrónico crece en un 150% por la pandemia</t>
         </is>
       </c>
       <c r="K26" t="n">
         <v>18</v>
       </c>
-      <c r="L26">
-        <f>IF(N26=3, 750, IF(N26=1, 1000, ""))</f>
-        <v/>
-      </c>
+      <c r="L26" t="inlineStr"/>
       <c r="M26">
         <f>L26*4</f>
         <v/>
@@ -1306,23 +1306,23 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>https://panamaaldia.news/futuro-de-panama-a-traves-del-talento-humano-una-mirada-desde-el-liderazgo-juvenil/</t>
+          <t>No Metrolibre</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="D27" t="inlineStr">
         <is>
-          <t>Nota de Prensa 2</t>
+          <t>Entrevista 1</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Futuro de Panamá a través del talento humano una mirada desde el liderazgo juvenil</t>
+          <t>Entrevista a Wendy Jordán sobre Comercio electrónico crece en un 150% por la pandemia</t>
         </is>
       </c>
       <c r="F27" s="1" t="n">
-        <v>44191</v>
+        <v>44133</v>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
@@ -1337,7 +1337,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Futuro de Panamá a través del talento humano una mirada desde el liderazgo juvenil</t>
+          <t>Entrevista a Wendy Jordán sobre Comercio electrónico crece en un 150% por la pandemia</t>
         </is>
       </c>
       <c r="K27" t="n">
@@ -1361,46 +1361,45 @@
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>https://riducaonline.com/2020/10/26/futuro-de-panama-a-traves-del-talento-humano-una-mirada-desde-el-liderazgo-juvenil/</t>
+          <t>https://www.metrolibre.com/econom%C3%ADa/185546-comercio-electr%C3%B3nico-crece-en-un-150-por-la-pandemia.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="D28" t="inlineStr">
         <is>
-          <t>Nota de Prensa 2</t>
+          <t>Entrevista 1</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Futuro de Panamá a través del talento humano una mirada desde el liderazgo juvenil</t>
+          <t>Entrevista a Wendy Jordán sobre Comercio electrónico crece en un 150% por la pandemia</t>
         </is>
       </c>
       <c r="F28" s="1" t="n">
-        <v>44131</v>
+        <v>44133</v>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>Web</t>
+          <t>Twitter</t>
         </is>
       </c>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
-          <t>1 página</t>
+          <t>1 post</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Futuro de Panamá a través del talento humano una mirada desde el liderazgo juvenil</t>
+          <t>Entrevista a Wendy Jordán sobre Comercio electrónico crece en un 150% por la pandemia</t>
         </is>
       </c>
       <c r="K28" t="n">
         <v>20</v>
       </c>
-      <c r="L28">
-        <f>IF(N28=3, 750, IF(N28=1, 1000, ""))</f>
-        <v/>
+      <c r="L28" t="n">
+        <v>500</v>
       </c>
       <c r="M28">
         <f>L28*4</f>
@@ -1416,45 +1415,46 @@
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>https://www.metrolibre.com/nacionales/185408-j%C3%B3venes-l%C3%ADderes-compartir%C3%A1n-su-visi%C3%B3n-del-futuro-de-panam%C3%A1.html</t>
+          <t>https://twitter.com/MetroLibrePTY/status/1321754944316207105?s=20</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="D29" t="inlineStr">
         <is>
-          <t>Nota de Prensa 2</t>
+          <t>Mención de Marca 2</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Futuro de Panamá a través del talento humano una mirada desde el liderazgo juvenil</t>
+          <t>Entre las experiencias de éxito que Comsmarket ha sumado en este 2020 está el trabajo con Panamá Pacífico, Volkswagen, Encuentra24, Dahua Technology, la Asociación de Universidades Particulares de Panamá, UMECIT y Tambor S.A.</t>
         </is>
       </c>
       <c r="F29" s="1" t="n">
-        <v>44131</v>
+        <v>44134</v>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>Twitter</t>
+          <t>Web</t>
         </is>
       </c>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
         <is>
-          <t>1 post</t>
+          <t>1 página</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Futuro de Panamá a través del talento humano una mirada desde el liderazgo juvenil</t>
+          <t>Entre las experiencias de éxito que Comsmarket ha sumado en este 2020 está el trabajo con Panamá Pacífico, Volkswagen, Encuentra24, Dahua Technology, la Asociación de Universidades Particulares de Panamá, UMECIT y Tambor S.A.</t>
         </is>
       </c>
       <c r="K29" t="n">
         <v>21</v>
       </c>
-      <c r="L29" t="n">
-        <v>500</v>
+      <c r="L29">
+        <f>IF(N29=3, 750, IF(N29=1, 1000, ""))</f>
+        <v/>
       </c>
       <c r="M29">
         <f>L29*4</f>
@@ -1470,423 +1470,7 @@
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>https://twitter.com/MetroLibrePTY/status/1321191696344907777?s=20</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>Nota de Prensa 2</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>Futuro de Panamá a través del talento humano una mirada desde el liderazgo juvenil</t>
-        </is>
-      </c>
-      <c r="F30" s="1" t="n">
-        <v>44132</v>
-      </c>
-      <c r="G30" s="2" t="inlineStr">
-        <is>
-          <t>Web</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>1 página</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>Futuro de Panamá a través del talento humano una mirada desde el liderazgo juvenil</t>
-        </is>
-      </c>
-      <c r="K30" t="n">
-        <v>22</v>
-      </c>
-      <c r="L30">
-        <f>IF(N30=3, 750, IF(N30=1, 1000, ""))</f>
-        <v/>
-      </c>
-      <c r="M30">
-        <f>L30*4</f>
-        <v/>
-      </c>
-      <c r="O30">
-        <f>IF(N30=1,1,"")</f>
-        <v/>
-      </c>
-      <c r="Q30">
-        <f>IF(N30=3,1,"")</f>
-        <v/>
-      </c>
-      <c r="AA30" t="inlineStr">
-        <is>
-          <t>https://www.panama24horas.com.pa/comunidad/futuro-de-panama-a-traves-del-talento-humano-una-mirada-desde-el-liderazgo-juvenil/</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Nota de Prensa 2</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>Futuro de Panamá a través del talento humano una mirada desde el liderazgo juvenil</t>
-        </is>
-      </c>
-      <c r="F31" s="1" t="n">
-        <v>44132</v>
-      </c>
-      <c r="G31" s="2" t="inlineStr">
-        <is>
-          <t>Twitter</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>1 post</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>Futuro de Panamá a través del talento humano una mirada desde el liderazgo juvenil</t>
-        </is>
-      </c>
-      <c r="K31" t="n">
-        <v>23</v>
-      </c>
-      <c r="L31" t="n">
-        <v>500</v>
-      </c>
-      <c r="M31">
-        <f>L31*4</f>
-        <v/>
-      </c>
-      <c r="O31">
-        <f>IF(N31=1,1,"")</f>
-        <v/>
-      </c>
-      <c r="Q31">
-        <f>IF(N31=3,1,"")</f>
-        <v/>
-      </c>
-      <c r="AA31" t="inlineStr">
-        <is>
-          <t>https://twitter.com/Panama24horas/status/1321514330391674880?s=20</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Nota de Prensa 2</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>Futuro de Panamá a través del talento humano una mirada desde el liderazgo juvenil</t>
-        </is>
-      </c>
-      <c r="F32" s="1" t="n">
-        <v>44132</v>
-      </c>
-      <c r="G32" s="2" t="inlineStr">
-        <is>
-          <t>Instagram</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>1 post</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>Futuro de Panamá a través del talento humano una mirada desde el liderazgo juvenil</t>
-        </is>
-      </c>
-      <c r="K32" t="n">
-        <v>24</v>
-      </c>
-      <c r="L32" t="n">
-        <v>500</v>
-      </c>
-      <c r="M32">
-        <f>L32*4</f>
-        <v/>
-      </c>
-      <c r="O32">
-        <f>IF(N32=1,1,"")</f>
-        <v/>
-      </c>
-      <c r="Q32">
-        <f>IF(N32=3,1,"")</f>
-        <v/>
-      </c>
-      <c r="AA32" t="inlineStr">
-        <is>
-          <t>https://www.instagram.com/p/CG5ZABMBLht/?igshid=sc2z73zp4xva</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>Entrevista 1</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>Entrevista a Adriana Angarita sobre el Futuro de Panamá a través del talento humano</t>
-        </is>
-      </c>
-      <c r="F33" s="1" t="n">
-        <v>44126</v>
-      </c>
-      <c r="G33" s="2" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>Entrevista a Adriana Angarita sobre el Futuro de Panamá a través del talento humano</t>
-        </is>
-      </c>
-      <c r="K33" t="n">
-        <v>25</v>
-      </c>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33">
-        <f>L33*4</f>
-        <v/>
-      </c>
-      <c r="O33">
-        <f>IF(N33=1,1,"")</f>
-        <v/>
-      </c>
-      <c r="Q33">
-        <f>IF(N33=3,1,"")</f>
-        <v/>
-      </c>
-      <c r="AA33" t="inlineStr">
-        <is>
-          <t>No NEXTV 345</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>Entrevista 1</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>Entrevista a Adriana Angarita sobre el Futuro de Panamá a través del talento humano</t>
-        </is>
-      </c>
-      <c r="F34" s="1" t="n">
-        <v>44126</v>
-      </c>
-      <c r="G34" s="2" t="inlineStr">
-        <is>
-          <t>Web</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>1 página</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>Entrevista a Adriana Angarita sobre el Futuro de Panamá a través del talento humano</t>
-        </is>
-      </c>
-      <c r="K34" t="n">
-        <v>26</v>
-      </c>
-      <c r="L34">
-        <f>IF(N34=3, 750, IF(N34=1, 1000, ""))</f>
-        <v/>
-      </c>
-      <c r="M34">
-        <f>L34*4</f>
-        <v/>
-      </c>
-      <c r="O34">
-        <f>IF(N34=1,1,"")</f>
-        <v/>
-      </c>
-      <c r="Q34">
-        <f>IF(N34=3,1,"")</f>
-        <v/>
-      </c>
-      <c r="AA34" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=_mPWJjJlK1I</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>Entrevista 1</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>Entrevista a Adriana Angarita sobre el Futuro de Panamá a través del talento humano</t>
-        </is>
-      </c>
-      <c r="F35" s="1" t="n">
-        <v>44126</v>
-      </c>
-      <c r="G35" s="2" t="inlineStr">
-        <is>
-          <t>Web</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>1 página</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>Entrevista a Adriana Angarita sobre el Futuro de Panamá a través del talento humano</t>
-        </is>
-      </c>
-      <c r="K35" t="n">
-        <v>27</v>
-      </c>
-      <c r="L35">
-        <f>IF(N35=3, 750, IF(N35=1, 1000, ""))</f>
-        <v/>
-      </c>
-      <c r="M35">
-        <f>L35*4</f>
-        <v/>
-      </c>
-      <c r="O35">
-        <f>IF(N35=1,1,"")</f>
-        <v/>
-      </c>
-      <c r="Q35">
-        <f>IF(N35=3,1,"")</f>
-        <v/>
-      </c>
-      <c r="AA35" t="inlineStr">
-        <is>
-          <t>https://nexnoticias.ruplayers.com/xZ-Hu67Nfpx_aX0/entrevista-a-adriana-angarita-presidente-de-la-asoc-auppa.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>Entrevista 1</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>Entrevista a Adriana Angarita sobre el Futuro de Panamá a través del talento humano</t>
-        </is>
-      </c>
-      <c r="F36" s="1" t="n">
-        <v>44126</v>
-      </c>
-      <c r="G36" s="2" t="inlineStr">
-        <is>
-          <t>Web</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>1 página</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>Entrevista a Adriana Angarita sobre el Futuro de Panamá a través del talento humano</t>
-        </is>
-      </c>
-      <c r="K36" t="n">
-        <v>28</v>
-      </c>
-      <c r="L36">
-        <f>IF(N36=3, 750, IF(N36=1, 1000, ""))</f>
-        <v/>
-      </c>
-      <c r="M36">
-        <f>L36*4</f>
-        <v/>
-      </c>
-      <c r="O36">
-        <f>IF(N36=1,1,"")</f>
-        <v/>
-      </c>
-      <c r="Q36">
-        <f>IF(N36=3,1,"")</f>
-        <v/>
-      </c>
-      <c r="AA36" t="inlineStr">
-        <is>
-          <t>https://pa.domiplay.net/video/entrevista-a-adriana-angarita-presidente-22-10-20-nex-mpk1i</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>Entrevista 2</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>Entrevista a Adriana Angarita sobre el Futuro de Panamá a través del talento humano</t>
-        </is>
-      </c>
-      <c r="F37" s="1" t="n">
-        <v>44127</v>
-      </c>
-      <c r="G37" s="2" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>Entrevista a Adriana Angarita sobre el Futuro de Panamá a través del talento humano</t>
-        </is>
-      </c>
-      <c r="K37" t="n">
-        <v>29</v>
-      </c>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37">
-        <f>L37*4</f>
-        <v/>
-      </c>
-      <c r="O37">
-        <f>IF(N37=1,1,"")</f>
-        <v/>
-      </c>
-      <c r="Q37">
-        <f>IF(N37=3,1,"")</f>
-        <v/>
-      </c>
-      <c r="AA37" t="inlineStr">
-        <is>
-          <t>No Radio Panamá 1200</t>
+          <t>https://somosimpactopositivo.com/impactando-en-positivo/comsmarket-agencia/</t>
         </is>
       </c>
     </row>
@@ -1913,14 +1497,6 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G27" r:id="rId19"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G28" r:id="rId20"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G29" r:id="rId21"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G30" r:id="rId22"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G31" r:id="rId23"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G32" r:id="rId24"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G33" r:id="rId25"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G34" r:id="rId26"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G35" r:id="rId27"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G36" r:id="rId28"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G37" r:id="rId29"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Excel Terminado.xlsx
+++ b/Excel Terminado.xlsx
@@ -330,7 +330,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="D9:AA29"/>
+  <dimension ref="F9:AA56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -339,18 +339,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="9">
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Nota de Prensa 1</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Modalidad virtual impacta a las principales ferias comerciales de la región</t>
-        </is>
-      </c>
       <c r="F9" s="1" t="n">
-        <v>44110</v>
+        <v>44117</v>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
@@ -365,7 +355,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Plataforma virtual, clave para ferias inmobiliarias en tiempos de covid-19</t>
+          <t>Expo Feria de la Asociación de Empresas del Área Panamá Pacífico, un encuentro de crecimiento, bienestar y emprendimiento</t>
         </is>
       </c>
       <c r="K9" t="n">
@@ -389,45 +379,36 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>https://www.laestrella.com.pa/economia/201006/plataforma-virtual-clave-ferias-inmobiliarias-tiempos-covid-19</t>
+          <t>https://www.panama24horas.com.pa/empresas/expo-feria-de-la-asociacion-de-empresas-del-area-panama-pacifico-un-encuentro-de-crecimiento-bienestar-y-emprendimiento/</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Nota de Prensa 1</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Modalidad virtual impacta a las principales ferias comerciales de la región</t>
-        </is>
-      </c>
       <c r="F10" s="1" t="n">
-        <v>44110</v>
+        <v>44117</v>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>Twitter</t>
+          <t>Web</t>
         </is>
       </c>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr">
         <is>
-          <t>1 post</t>
+          <t>1 página</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Plataforma virtual, clave para ferias inmobiliarias en tiempos de covid-19</t>
+          <t>Expo Feria de la Asociación de Empresas del Área Panamá Pacífico, un encuentro de crecimiento, bienestar y emprendimiento</t>
         </is>
       </c>
       <c r="K10" t="n">
         <v>2</v>
       </c>
-      <c r="L10" t="n">
-        <v>500</v>
+      <c r="L10">
+        <f>IF(N10=3, 750, IF(N10=1, 1000, ""))</f>
+        <v/>
       </c>
       <c r="M10">
         <f>L10*4</f>
@@ -443,45 +424,36 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>https://twitter.com/ReportoCA/status/1313549638864117760?s=20</t>
+          <t>https://panamaaldia.news/expo-feria-de-la-asociacion-de-empresas-del-area-panama-pacifico-un-encuentro-de-crecimiento-bienestar-y-emprendimiento/</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Nota de Prensa 1</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Modalidad virtual impacta a las principales ferias comerciales de la región</t>
-        </is>
-      </c>
       <c r="F11" s="1" t="n">
-        <v>44110</v>
+        <v>44118</v>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>Twitter</t>
+          <t>Web</t>
         </is>
       </c>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
         <is>
-          <t>1 post</t>
+          <t>1 página</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Plataforma virtual, clave para ferias inmobiliarias en tiempos de covid-19</t>
+          <t>Expo Feria de la Asociación de Empresas del Área Panamá Pacífico, un encuentro de crecimiento, bienestar y emprendimiento</t>
         </is>
       </c>
       <c r="K11" t="n">
         <v>3</v>
       </c>
-      <c r="L11" t="n">
-        <v>500</v>
+      <c r="L11">
+        <f>IF(N11=3, 750, IF(N11=1, 1000, ""))</f>
+        <v/>
       </c>
       <c r="M11">
         <f>L11*4</f>
@@ -497,23 +469,13 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>https://twitter.com/EstrellaOnline/status/1313554875150721024?s=20</t>
+          <t>https://panamaaldia.news/expo-feria-de-la-asociacion-de-empresas-del-area-panama-pacifico-un-encuentro-de-crecimiento-bienestar-y-emprendimiento-2/</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Nota de Prensa 1</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Modalidad virtual impacta a las principales ferias comerciales de la región</t>
-        </is>
-      </c>
       <c r="F12" s="1" t="n">
-        <v>44111</v>
+        <v>44118</v>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
@@ -528,7 +490,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Modalidad virtual impacta a las principales ferias comerciales de la región</t>
+          <t>Expo Feria de la Asociación de Empresas del Área Panamá Pacífico, un encuentro de crecimiento, bienestar y emprendimiento</t>
         </is>
       </c>
       <c r="K12" t="n">
@@ -552,46 +514,35 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>https://elcapitalfinanciero.com/modalidad-virtual-impacta-a-las-principales-ferias-comerciales-de-la-region/</t>
+          <t>https://elcapitalfinanciero.com/empresa-de-panama-pacifico-preparan-una-nueva-version-de-su-feria-comercial/</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Nota de Prensa 1</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Modalidad virtual impacta a las principales ferias comerciales de la región</t>
-        </is>
-      </c>
       <c r="F13" s="1" t="n">
-        <v>44111</v>
+        <v>44118</v>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>Web</t>
+          <t>Twitter</t>
         </is>
       </c>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr">
         <is>
-          <t>1 página</t>
+          <t>1 post</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Modalidad virtual impacta a las principales ferias comerciales de la región</t>
+          <t>Expo Feria de la Asociación de Empresas del Área Panamá Pacífico, un encuentro de crecimiento, bienestar y emprendimiento</t>
         </is>
       </c>
       <c r="K13" t="n">
         <v>5</v>
       </c>
-      <c r="L13">
-        <f>IF(N13=3, 750, IF(N13=1, 1000, ""))</f>
-        <v/>
+      <c r="L13" t="n">
+        <v>500</v>
       </c>
       <c r="M13">
         <f>L13*4</f>
@@ -607,45 +558,36 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>http://www.findglocal.com/PA/Panama-City/22056981168/El-Espectador-de-Panam%C3%A1</t>
+          <t>https://twitter.com/ElCFPanama/status/1316409889393123330?s=20</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Nota de Prensa 1</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Modalidad virtual impacta a las principales ferias comerciales de la región</t>
-        </is>
-      </c>
       <c r="F14" s="1" t="n">
-        <v>44111</v>
+        <v>44118</v>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>Twitter</t>
+          <t>Web</t>
         </is>
       </c>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
         <is>
-          <t>1 post</t>
+          <t>1 página</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Modalidad virtual impacta a las principales ferias comerciales de la región</t>
+          <t>Expo Feria de la Asociación de Empresas del Área Panamá Pacífico, un encuentro de crecimiento, bienestar y emprendimiento</t>
         </is>
       </c>
       <c r="K14" t="n">
         <v>6</v>
       </c>
-      <c r="L14" t="n">
-        <v>500</v>
+      <c r="L14">
+        <f>IF(N14=3, 750, IF(N14=1, 1000, ""))</f>
+        <v/>
       </c>
       <c r="M14">
         <f>L14*4</f>
@@ -661,45 +603,36 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>https://twitter.com/ElCFPanama/status/1313866365854461953?s=20</t>
+          <t>http://prnoticiaspanama.com/expo-feria-de-la-asociacion-de-empresas-del-area-panama-pacifico-un-encuentro-de-crecimiento-bienestar-y-emprendimiento/</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Nota de Prensa 1</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Modalidad virtual impacta a las principales ferias comerciales de la región</t>
-        </is>
-      </c>
       <c r="F15" s="1" t="n">
-        <v>44111</v>
+        <v>44118</v>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Web</t>
         </is>
       </c>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
         <is>
-          <t>1 post</t>
+          <t>1 página</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Modalidad virtual impacta a las principales ferias comerciales de la región</t>
+          <t>Expo Feria de la Asociación de Empresas del Área Panamá Pacífico, un encuentro de crecimiento, bienestar y emprendimiento</t>
         </is>
       </c>
       <c r="K15" t="n">
         <v>7</v>
       </c>
-      <c r="L15" t="n">
-        <v>500</v>
+      <c r="L15">
+        <f>IF(N15=3, 750, IF(N15=1, 1000, ""))</f>
+        <v/>
       </c>
       <c r="M15">
         <f>L15*4</f>
@@ -715,45 +648,36 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/CGECFkHnvmw/?igshid=a9bowmzakvt8</t>
+          <t>https://verpanama.com/expo-feria-2020-area-panama-pacifico/</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Nota de Prensa 1</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Modalidad virtual impacta a las principales ferias comerciales de la región</t>
-        </is>
-      </c>
       <c r="F16" s="1" t="n">
-        <v>44111</v>
+        <v>44118</v>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>Twitter</t>
+          <t>Web</t>
         </is>
       </c>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
-          <t>1 post</t>
+          <t>1 página</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Modalidad virtual impacta a las principales ferias comerciales de la región</t>
+          <t>Expo Feria de la Asociación de Empresas del Área Panamá Pacífico, un encuentro de crecimiento, bienestar y emprendimiento</t>
         </is>
       </c>
       <c r="K16" t="n">
         <v>8</v>
       </c>
-      <c r="L16" t="n">
-        <v>500</v>
+      <c r="L16">
+        <f>IF(N16=3, 750, IF(N16=1, 1000, ""))</f>
+        <v/>
       </c>
       <c r="M16">
         <f>L16*4</f>
@@ -769,45 +693,36 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>https://twitter.com/EstrellaOnline/status/1313773683941478401?s=20</t>
+          <t>https://xpectativapty.com/2020/10/14/expo-feria-de-la-asociacion-de-empresas-del-area-panama-pacifico-un-encuentro-de-crecimiento-bienestar-y-emprendimiento/</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Nota de Prensa 1</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Modalidad virtual impacta a las principales ferias comerciales de la región</t>
-        </is>
-      </c>
       <c r="F17" s="1" t="n">
-        <v>44111</v>
+        <v>44118</v>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Web</t>
         </is>
       </c>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
-          <t>1 post</t>
+          <t>1 página</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Modalidad virtual impacta a las principales ferias comerciales de la región</t>
+          <t>Expo Feria de la Asociación de Empresas del Área Panamá Pacífico, un encuentro de crecimiento, bienestar y emprendimiento</t>
         </is>
       </c>
       <c r="K17" t="n">
         <v>9</v>
       </c>
-      <c r="L17" t="n">
-        <v>500</v>
+      <c r="L17">
+        <f>IF(N17=3, 750, IF(N17=1, 1000, ""))</f>
+        <v/>
       </c>
       <c r="M17">
         <f>L17*4</f>
@@ -823,23 +738,13 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/LaEstrelladePanama/photos/capac-plataforma-virtual-clave-para-ferias-inmobiliarias-en-tiempos-de-covid-19-/3362490347121567/</t>
+          <t>https://www.eventos507.com/expo-feria-2020-de-panama-pacifico/</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Nota de Prensa 2</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Encuentra24 cumple 15 años siendo la plataforma líder en la región</t>
-        </is>
-      </c>
       <c r="F18" s="1" t="n">
-        <v>44117</v>
+        <v>44119</v>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
@@ -854,7 +759,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Encuentra24 cumple 15 años siendo la plataforma líder en la región</t>
+          <t>Expo Feria de la Asociación de Empresas del Área Panamá Pacífico, un encuentro de crecimiento, bienestar y emprendimiento</t>
         </is>
       </c>
       <c r="K18" t="n">
@@ -878,46 +783,35 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>https://www.panama24horas.com.pa/centroamerica/encuentra24-cumple-15-anos-siendo-la-plataforma-lider-en-la-region/#~text=existencia%20de%20Encuentra24.-,Este%20mes%2C%20la%20plataforma%20digital%20l%C3%ADder%20en%20la%20regi%C3%B3n%2C%20celebra,nuestra%20regi%C3%B3n%20y%20el%20Caribe.</t>
+          <t>https://profesionalespanama.net/nacionales/anuncian-feria-de-la-asociacion-de-empresas-del-area-panama-pacifico/</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Nota de Prensa 2</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Encuentra24 cumple 15 años siendo la plataforma líder en la región</t>
-        </is>
-      </c>
       <c r="F19" s="1" t="n">
-        <v>44117</v>
+        <v>44119</v>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>Web</t>
+          <t>Twitter</t>
         </is>
       </c>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
-          <t>1 página</t>
+          <t>1 post</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Encuentra24 cumple 15 años siendo la plataforma líder en la región</t>
+          <t>Expo Feria de la Asociación de Empresas del Área Panamá Pacífico, un encuentro de crecimiento, bienestar y emprendimiento</t>
         </is>
       </c>
       <c r="K19" t="n">
         <v>11</v>
       </c>
-      <c r="L19">
-        <f>IF(N19=3, 750, IF(N19=1, 1000, ""))</f>
-        <v/>
+      <c r="L19" t="n">
+        <v>500</v>
       </c>
       <c r="M19">
         <f>L19*4</f>
@@ -933,21 +827,11 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>https://panamaaldia.news/encuentra24-cumple-15-anos-siendo-la-plataforma-lider-en-la-region/</t>
+          <t>https://twitter.com/NoticieroPanama/status/1316776613120540677?s=20</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Nota de Prensa 2</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Encuentra24 cumple 15 años siendo la plataforma líder en la región</t>
-        </is>
-      </c>
       <c r="F20" s="1" t="n">
         <v>44119</v>
       </c>
@@ -964,7 +848,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Encuentra24 cumple 15 años siendo la plataforma líder en la región</t>
+          <t>Expo Feria de la Asociación de Empresas del Área Panamá Pacífico, un encuentro de crecimiento, bienestar y emprendimiento</t>
         </is>
       </c>
       <c r="K20" t="n">
@@ -988,47 +872,26 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>http://madridhoy.info/search.php?pagina=19&amp;s=%40%40Panam%C3%A1</t>
+          <t>https://www.panamaamerica.com.pa/economia/anuncian-feria-asociacion-empresas-del-area-panama-pacifico-117409</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Nota de Prensa 2</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Encuentra24 cumple 15 años siendo la plataforma líder en la región</t>
-        </is>
-      </c>
       <c r="F21" s="1" t="n">
-        <v>44131</v>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>Web</t>
-        </is>
-      </c>
+        <v>44120</v>
+      </c>
+      <c r="G21" s="2" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>1 página</t>
-        </is>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Encuentra24 cumple 15 años siendo la plataforma líder en la región</t>
+          <t>Expo Feria de la Asociación de Empresas del Área Panamá Pacífico, un encuentro de crecimiento, bienestar y emprendimiento</t>
         </is>
       </c>
       <c r="K21" t="n">
         <v>13</v>
       </c>
-      <c r="L21">
-        <f>IF(N21=3, 750, IF(N21=1, 1000, ""))</f>
-        <v/>
-      </c>
+      <c r="L21" t="inlineStr"/>
       <c r="M21">
         <f>L21*4</f>
         <v/>
@@ -1043,23 +906,13 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>https://somosimpactopositivo.com/impacto-economico/aniversario-encuentra24/</t>
+          <t>No  Panamá América</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Nota de Prensa 3 (Septiembre)</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Panamá en la mira de compradores internacionales de bienes raíces</t>
-        </is>
-      </c>
       <c r="F22" s="1" t="n">
-        <v>44106</v>
+        <v>44120</v>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
@@ -1074,7 +927,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Panamá en la mira de compradores internacionales de bienes raíces</t>
+          <t>Expo Feria de la Asociación de Empresas del Área Panamá Pacífico, un encuentro de crecimiento, bienestar y emprendimiento</t>
         </is>
       </c>
       <c r="K22" t="n">
@@ -1098,23 +951,13 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>https://panamaaldia.news/panama-en-la-mira-de-compradores-internacionales-de-bienes-raices-2/</t>
+          <t>https://grupostt.com/2020/10/16/expo-feria-de-empresas-panama-pacifico-2020/</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Mención de Marca 1</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>También mencionó el consumo del comercio electrónico, a través de sitios como por ejemplo Encuentra24 que siempre ha sido de los sitios más visitados de Panamá, Amazon, AliExpress que viene siendo la versión más comercial de Alibaba.</t>
-        </is>
-      </c>
       <c r="F23" s="1" t="n">
-        <v>44109</v>
+        <v>44120</v>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
@@ -1129,7 +972,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>También mencionó el consumo del comercio electrónico, a través de sitios como por ejemplo Encuentra24 que siempre ha sido de los sitios más visitados de Panamá, Amazon, AliExpress que viene siendo la versión más comercial de Alibaba.</t>
+          <t>Expo Feria de la Asociación de Empresas del Área Panamá Pacífico, un encuentro de crecimiento, bienestar y emprendimiento</t>
         </is>
       </c>
       <c r="K23" t="n">
@@ -1153,45 +996,36 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>https://www.critica.com.pa/nacional/el-consumo-siempre-vuelve-589324</t>
+          <t>https://www.pressreader.com/panama/panama-america/20201016/281745566866116</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Mención de Marca 1</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>También mencionó el consumo del comercio electrónico, a través de sitios como por ejemplo Encuentra24 que siempre ha sido de los sitios más visitados de Panamá, Amazon, AliExpress que viene siendo la versión más comercial de Alibaba.</t>
-        </is>
-      </c>
       <c r="F24" s="1" t="n">
-        <v>44109</v>
+        <v>44123</v>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>Twitter</t>
+          <t>Web</t>
         </is>
       </c>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
-          <t>1 post</t>
+          <t>1 página</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>También mencionó el consumo del comercio electrónico, a través de sitios como por ejemplo Encuentra24 que siempre ha sido de los sitios más visitados de Panamá, Amazon, AliExpress que viene siendo la versión más comercial de Alibaba.</t>
+          <t>Expo Feria de la Asociación de Empresas del Área Panamá Pacífico, un encuentro de crecimiento, bienestar y emprendimiento</t>
         </is>
       </c>
       <c r="K24" t="n">
         <v>16</v>
       </c>
-      <c r="L24" t="n">
-        <v>500</v>
+      <c r="L24">
+        <f>IF(N24=3, 750, IF(N24=1, 1000, ""))</f>
+        <v/>
       </c>
       <c r="M24">
         <f>L24*4</f>
@@ -1207,46 +1041,35 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>https://twitter.com/criticaenlinea/status/1313004115430178817?s=20</t>
+          <t>https://www.viajesboletin.com/categorias/principales/panama/76501-anuncian-feria-de-la-asociacion-de-empresas-del-area-panama-pacifico/</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Nota de Prensa 4 (Septiembre)</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Vivir en espacios abiertos, es la alternativa que prefieren los usuarios de plataformas digitales luego de la pandemia</t>
-        </is>
-      </c>
       <c r="F25" s="1" t="n">
-        <v>44114</v>
+        <v>44124</v>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>Web</t>
+          <t>Twitter</t>
         </is>
       </c>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
-          <t>1 página</t>
+          <t>1 post</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Vivir en espacios abiertos, alternativa de usuarios de plataformas digitales</t>
+          <t>Expo Feria de la Asociación de Empresas del Área Panamá Pacífico, un encuentro de crecimiento, bienestar y emprendimiento</t>
         </is>
       </c>
       <c r="K25" t="n">
         <v>17</v>
       </c>
-      <c r="L25">
-        <f>IF(N25=3, 750, IF(N25=1, 1000, ""))</f>
-        <v/>
+      <c r="L25" t="n">
+        <v>500</v>
       </c>
       <c r="M25">
         <f>L25*4</f>
@@ -1262,36 +1085,36 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>https://www.periodicoequilibrium.com/vivir-en-espacios-abiertos-alternativa-de-usuarios-de-plataformas-digitales/</t>
+          <t>https://twitter.com/BoletinViajes/status/1318537453922258944?s=20</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Entrevista 1</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Entrevista a Wendy Jordán sobre Comercio electrónico crece en un 150% por la pandemia</t>
-        </is>
-      </c>
       <c r="F26" s="1" t="n">
-        <v>44133</v>
-      </c>
-      <c r="G26" s="2" t="inlineStr"/>
+        <v>44124</v>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>Twitter</t>
+        </is>
+      </c>
       <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>1 post</t>
+        </is>
+      </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Entrevista a Wendy Jordán sobre Comercio electrónico crece en un 150% por la pandemia</t>
+          <t>Expo Feria de la Asociación de Empresas del Área Panamá Pacífico, un encuentro de crecimiento, bienestar y emprendimiento</t>
         </is>
       </c>
       <c r="K26" t="n">
         <v>18</v>
       </c>
-      <c r="L26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>500</v>
+      </c>
       <c r="M26">
         <f>L26*4</f>
         <v/>
@@ -1306,23 +1129,13 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>No Metrolibre</t>
+          <t>https://twitter.com/iberoamericav/status/1318552327297564672?s=20</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Entrevista 1</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Entrevista a Wendy Jordán sobre Comercio electrónico crece en un 150% por la pandemia</t>
-        </is>
-      </c>
       <c r="F27" s="1" t="n">
-        <v>44133</v>
+        <v>44124</v>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
@@ -1337,7 +1150,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Entrevista a Wendy Jordán sobre Comercio electrónico crece en un 150% por la pandemia</t>
+          <t>Expo Feria de la Asociación de Empresas del Área Panamá Pacífico, un encuentro de crecimiento, bienestar y emprendimiento</t>
         </is>
       </c>
       <c r="K27" t="n">
@@ -1361,23 +1174,13 @@
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>https://www.metrolibre.com/econom%C3%ADa/185546-comercio-electr%C3%B3nico-crece-en-un-150-por-la-pandemia.html</t>
+          <t>https://www.diaadia.com.pa/el-pais/mitradel-participa-de-la-expo-feria-de-panama-pacifico-2020-371552</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Entrevista 1</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>Entrevista a Wendy Jordán sobre Comercio electrónico crece en un 150% por la pandemia</t>
-        </is>
-      </c>
       <c r="F28" s="1" t="n">
-        <v>44133</v>
+        <v>44124</v>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
@@ -1392,7 +1195,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Entrevista a Wendy Jordán sobre Comercio electrónico crece en un 150% por la pandemia</t>
+          <t>Expo Feria de la Asociación de Empresas del Área Panamá Pacífico, un encuentro de crecimiento, bienestar y emprendimiento</t>
         </is>
       </c>
       <c r="K28" t="n">
@@ -1415,46 +1218,35 @@
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>https://twitter.com/MetroLibrePTY/status/1321754944316207105?s=20</t>
+          <t>https://twitter.com/DiaaDiaPa/status/1318688449038184448?s=20</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Mención de Marca 2</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>Entre las experiencias de éxito que Comsmarket ha sumado en este 2020 está el trabajo con Panamá Pacífico, Volkswagen, Encuentra24, Dahua Technology, la Asociación de Universidades Particulares de Panamá, UMECIT y Tambor S.A.</t>
-        </is>
-      </c>
       <c r="F29" s="1" t="n">
-        <v>44134</v>
+        <v>44125</v>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>Web</t>
+          <t>Twitter</t>
         </is>
       </c>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
         <is>
-          <t>1 página</t>
+          <t>1 post</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Entre las experiencias de éxito que Comsmarket ha sumado en este 2020 está el trabajo con Panamá Pacífico, Volkswagen, Encuentra24, Dahua Technology, la Asociación de Universidades Particulares de Panamá, UMECIT y Tambor S.A.</t>
+          <t>Expo Feria de la Asociación de Empresas del Área Panamá Pacífico, un encuentro de crecimiento, bienestar y emprendimiento</t>
         </is>
       </c>
       <c r="K29" t="n">
         <v>21</v>
       </c>
-      <c r="L29">
-        <f>IF(N29=3, 750, IF(N29=1, 1000, ""))</f>
-        <v/>
+      <c r="L29" t="n">
+        <v>500</v>
       </c>
       <c r="M29">
         <f>L29*4</f>
@@ -1470,7 +1262,1059 @@
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>https://somosimpactopositivo.com/impactando-en-positivo/comsmarket-agencia/</t>
+          <t>https://twitter.com/DiaaDiaPa/status/1318780301364121601?s=20</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="F30" s="1" t="n">
+        <v>44125</v>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>Twitter</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>1 post</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Expo Feria de la Asociación de Empresas del Área Panamá Pacífico, un encuentro de crecimiento, bienestar y emprendimiento</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>22</v>
+      </c>
+      <c r="L30" t="n">
+        <v>500</v>
+      </c>
+      <c r="M30">
+        <f>L30*4</f>
+        <v/>
+      </c>
+      <c r="O30">
+        <f>IF(N30=1,1,"")</f>
+        <v/>
+      </c>
+      <c r="Q30">
+        <f>IF(N30=3,1,"")</f>
+        <v/>
+      </c>
+      <c r="AA30" t="inlineStr">
+        <is>
+          <t>https://twitter.com/DiaaDiaPa/status/1319047059463409664?s=20</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="F31" s="1" t="n">
+        <v>44125</v>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>Twitter</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>1 post</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Expo Feria de la Asociación de Empresas del Área Panamá Pacífico, un encuentro de crecimiento, bienestar y emprendimiento</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>23</v>
+      </c>
+      <c r="L31" t="n">
+        <v>500</v>
+      </c>
+      <c r="M31">
+        <f>L31*4</f>
+        <v/>
+      </c>
+      <c r="O31">
+        <f>IF(N31=1,1,"")</f>
+        <v/>
+      </c>
+      <c r="Q31">
+        <f>IF(N31=3,1,"")</f>
+        <v/>
+      </c>
+      <c r="AA31" t="inlineStr">
+        <is>
+          <t>https://twitter.com/DiaaDiaPa/status/1319092357459931136?s=20</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="F32" s="1" t="n">
+        <v>44125</v>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>Web</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>1 página</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Expo Feria de la Asociación de Empresas del Área Panamá Pacífico, un encuentro de crecimiento, bienestar y emprendimiento</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>24</v>
+      </c>
+      <c r="L32">
+        <f>IF(N32=3, 750, IF(N32=1, 1000, ""))</f>
+        <v/>
+      </c>
+      <c r="M32">
+        <f>L32*4</f>
+        <v/>
+      </c>
+      <c r="O32">
+        <f>IF(N32=1,1,"")</f>
+        <v/>
+      </c>
+      <c r="Q32">
+        <f>IF(N32=3,1,"")</f>
+        <v/>
+      </c>
+      <c r="AA32" t="inlineStr">
+        <is>
+          <t>https://www.panama24horas.com.pa/panama/mitradel-participa-de-la-expo-feria-de-adedapp-2020/</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="F33" s="1" t="n">
+        <v>44126</v>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>Twitter</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>1 post</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Expo Feria de la Asociación de Empresas del Área Panamá Pacífico, un encuentro de crecimiento, bienestar y emprendimiento</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>25</v>
+      </c>
+      <c r="L33" t="n">
+        <v>500</v>
+      </c>
+      <c r="M33">
+        <f>L33*4</f>
+        <v/>
+      </c>
+      <c r="O33">
+        <f>IF(N33=1,1,"")</f>
+        <v/>
+      </c>
+      <c r="Q33">
+        <f>IF(N33=3,1,"")</f>
+        <v/>
+      </c>
+      <c r="AA33" t="inlineStr">
+        <is>
+          <t>https://twitter.com/DiaaDiaPa/status/1319454745279582209?s=20</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="F34" s="1" t="n">
+        <v>44114</v>
+      </c>
+      <c r="G34" s="2" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Entrevista a Juan Mckay sobre Expo Feria de la Asociación de Empresas del Área Panamá Pacífico</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>26</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34">
+        <f>L34*4</f>
+        <v/>
+      </c>
+      <c r="O34">
+        <f>IF(N34=1,1,"")</f>
+        <v/>
+      </c>
+      <c r="Q34">
+        <f>IF(N34=3,1,"")</f>
+        <v/>
+      </c>
+      <c r="AA34" t="inlineStr">
+        <is>
+          <t>No Radio Panamá 265 segundos</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="F35" s="1" t="n">
+        <v>44114</v>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>Web</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>1 página</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Inaugura Expo Feria de ADEDAP, se centrará en Turismo, Tecnología, Educación, Emprendimientos y Vacantes</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>27</v>
+      </c>
+      <c r="L35">
+        <f>IF(N35=3, 750, IF(N35=1, 1000, ""))</f>
+        <v/>
+      </c>
+      <c r="M35">
+        <f>L35*4</f>
+        <v/>
+      </c>
+      <c r="O35">
+        <f>IF(N35=1,1,"")</f>
+        <v/>
+      </c>
+      <c r="Q35">
+        <f>IF(N35=3,1,"")</f>
+        <v/>
+      </c>
+      <c r="AA35" t="inlineStr">
+        <is>
+          <t>https://www.radiopanama.com.pa/noticias/actualidad/inaugura-expo-feria-de-adedap-se-centrara-en-turismo-tecnologia-educacion-emprendimientos-y-vacantes/20201020/nota/4079168.aspx</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="F36" s="1" t="n">
+        <v>44124</v>
+      </c>
+      <c r="G36" s="2" t="inlineStr">
+        <is>
+          <t>Twitter</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>1 post</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Inaugura Expo Feria de ADEDAP, se centrará en Turismo, Tecnología, Educación, Emprendimientos y Vacantes</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>28</v>
+      </c>
+      <c r="L36" t="n">
+        <v>500</v>
+      </c>
+      <c r="M36">
+        <f>L36*4</f>
+        <v/>
+      </c>
+      <c r="O36">
+        <f>IF(N36=1,1,"")</f>
+        <v/>
+      </c>
+      <c r="Q36">
+        <f>IF(N36=3,1,"")</f>
+        <v/>
+      </c>
+      <c r="AA36" t="inlineStr">
+        <is>
+          <t>https://twitter.com/radiopanama/status/1318771493799538688?s=20</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="F37" s="1" t="n">
+        <v>44124</v>
+      </c>
+      <c r="G37" s="2" t="inlineStr">
+        <is>
+          <t>Twitter</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>1 post</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Inaugura Expo Feria de ADEDAP, se centrará en Turismo, Tecnología, Educación, Emprendimientos y Vacantes</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>29</v>
+      </c>
+      <c r="L37" t="n">
+        <v>500</v>
+      </c>
+      <c r="M37">
+        <f>L37*4</f>
+        <v/>
+      </c>
+      <c r="O37">
+        <f>IF(N37=1,1,"")</f>
+        <v/>
+      </c>
+      <c r="Q37">
+        <f>IF(N37=3,1,"")</f>
+        <v/>
+      </c>
+      <c r="AA37" t="inlineStr">
+        <is>
+          <t>https://twitter.com/radiopanama/status/1318617982252118016?s=20</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="F38" s="1" t="n">
+        <v>44121</v>
+      </c>
+      <c r="G38" s="2" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Entrevista a Juan Mckay sobre Expo Feria de la Asociación de Empresas del Área Panamá Pacífico</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>30</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38">
+        <f>L38*4</f>
+        <v/>
+      </c>
+      <c r="O38">
+        <f>IF(N38=1,1,"")</f>
+        <v/>
+      </c>
+      <c r="Q38">
+        <f>IF(N38=3,1,"")</f>
+        <v/>
+      </c>
+      <c r="AA38" t="inlineStr">
+        <is>
+          <t>No Radio Panamá 228 minutos</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="F39" s="1" t="n">
+        <v>44121</v>
+      </c>
+      <c r="G39" s="2" t="inlineStr">
+        <is>
+          <t>Web</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>1 página</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>ExpoFeria 2020 se realizará de manera virtual</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>31</v>
+      </c>
+      <c r="L39">
+        <f>IF(N39=3, 750, IF(N39=1, 1000, ""))</f>
+        <v/>
+      </c>
+      <c r="M39">
+        <f>L39*4</f>
+        <v/>
+      </c>
+      <c r="O39">
+        <f>IF(N39=1,1,"")</f>
+        <v/>
+      </c>
+      <c r="Q39">
+        <f>IF(N39=3,1,"")</f>
+        <v/>
+      </c>
+      <c r="AA39" t="inlineStr">
+        <is>
+          <t>https://www.radiopanama.com.pa/noticias/actualidad/expoferia-2020-se-realizara-de-manera-virtual/20201017/nota/4078494.aspx</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="F40" s="1" t="n">
+        <v>44121</v>
+      </c>
+      <c r="G40" s="2" t="inlineStr">
+        <is>
+          <t>Twitter</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>1 post</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>ExpoFeria 2020 se realizará de manera virtual</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>32</v>
+      </c>
+      <c r="L40" t="n">
+        <v>500</v>
+      </c>
+      <c r="M40">
+        <f>L40*4</f>
+        <v/>
+      </c>
+      <c r="O40">
+        <f>IF(N40=1,1,"")</f>
+        <v/>
+      </c>
+      <c r="Q40">
+        <f>IF(N40=3,1,"")</f>
+        <v/>
+      </c>
+      <c r="AA40" t="inlineStr">
+        <is>
+          <t>https://twitter.com/radiopanama/status/1317564509284859905?s=20</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="F41" s="1" t="n">
+        <v>44119</v>
+      </c>
+      <c r="G41" s="2" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Entrevista a Jaime Carrizo, presidente de ADEDAPP, sobre Expo Feria de la Asociación de Empresas del Área Panamá Pacífico</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>33</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41">
+        <f>L41*4</f>
+        <v/>
+      </c>
+      <c r="O41">
+        <f>IF(N41=1,1,"")</f>
+        <v/>
+      </c>
+      <c r="Q41">
+        <f>IF(N41=3,1,"")</f>
+        <v/>
+      </c>
+      <c r="AA41" t="inlineStr">
+        <is>
+          <t>No Telemetro 128 segundos</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="F42" s="1" t="n">
+        <v>44119</v>
+      </c>
+      <c r="G42" s="2" t="inlineStr">
+        <is>
+          <t>Web</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>1 página</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Entrevista a Jaime Carrizo, presidente de ADEDAPP, sobre Expo Feria de la Asociación de Empresas del Área Panamá Pacífico</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>34</v>
+      </c>
+      <c r="L42">
+        <f>IF(N42=3, 750, IF(N42=1, 1000, ""))</f>
+        <v/>
+      </c>
+      <c r="M42">
+        <f>L42*4</f>
+        <v/>
+      </c>
+      <c r="O42">
+        <f>IF(N42=1,1,"")</f>
+        <v/>
+      </c>
+      <c r="Q42">
+        <f>IF(N42=3,1,"")</f>
+        <v/>
+      </c>
+      <c r="AA42" t="inlineStr">
+        <is>
+          <t>https://www.telemetro.com/nacionales/2020/10/15/expo-feria-asociacion-empresas-panama/3348756.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="F43" s="1" t="n">
+        <v>44119</v>
+      </c>
+      <c r="G43" s="2" t="inlineStr">
+        <is>
+          <t>Twitter</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>1 post</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Entrevista a Jaime Carrizo, presidente de ADEDAPP, sobre Expo Feria de la Asociación de Empresas del Área Panamá Pacífico</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>35</v>
+      </c>
+      <c r="L43" t="n">
+        <v>500</v>
+      </c>
+      <c r="M43">
+        <f>L43*4</f>
+        <v/>
+      </c>
+      <c r="O43">
+        <f>IF(N43=1,1,"")</f>
+        <v/>
+      </c>
+      <c r="Q43">
+        <f>IF(N43=3,1,"")</f>
+        <v/>
+      </c>
+      <c r="AA43" t="inlineStr">
+        <is>
+          <t>https://twitter.com/TReporta/status/1316760755795091458?s=20</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="F44" s="1" t="n">
+        <v>44120</v>
+      </c>
+      <c r="G44" s="2" t="inlineStr">
+        <is>
+          <t>Twitter</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>1 post</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Entrevista a Jaime Carrizo, presidente de ADEDAPP, sobre Expo Feria de la Asociación de Empresas del Área Panamá Pacífico</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>36</v>
+      </c>
+      <c r="L44" t="n">
+        <v>500</v>
+      </c>
+      <c r="M44">
+        <f>L44*4</f>
+        <v/>
+      </c>
+      <c r="O44">
+        <f>IF(N44=1,1,"")</f>
+        <v/>
+      </c>
+      <c r="Q44">
+        <f>IF(N44=3,1,"")</f>
+        <v/>
+      </c>
+      <c r="AA44" t="inlineStr">
+        <is>
+          <t>https://twitter.com/TReporta/status/1317004963495673856?s=20</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="F45" s="1" t="n">
+        <v>44123</v>
+      </c>
+      <c r="G45" s="2" t="inlineStr">
+        <is>
+          <t>Twitter</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>1 post</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Entrevista a Jaime Carrizo, presidente de ADEDAPP, sobre Expo Feria de la Asociación de Empresas del Área Panamá Pacífico</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>37</v>
+      </c>
+      <c r="L45" t="n">
+        <v>500</v>
+      </c>
+      <c r="M45">
+        <f>L45*4</f>
+        <v/>
+      </c>
+      <c r="O45">
+        <f>IF(N45=1,1,"")</f>
+        <v/>
+      </c>
+      <c r="Q45">
+        <f>IF(N45=3,1,"")</f>
+        <v/>
+      </c>
+      <c r="AA45" t="inlineStr">
+        <is>
+          <t>https://twitter.com/TravelPanamaNew/status/1318280935570329611?s=20</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="F46" s="1" t="n">
+        <v>44123</v>
+      </c>
+      <c r="G46" s="2" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Entrevista a Jaime Carrizo, presidente de ADEDAPP, sobre Expo Feria de la Asociación de Empresas del Área Panamá Pacífico</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>38</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46">
+        <f>L46*4</f>
+        <v/>
+      </c>
+      <c r="O46">
+        <f>IF(N46=1,1,"")</f>
+        <v/>
+      </c>
+      <c r="Q46">
+        <f>IF(N46=3,1,"")</f>
+        <v/>
+      </c>
+      <c r="AA46" t="inlineStr">
+        <is>
+          <t>No NEXTV 245 segundos</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="F47" s="1" t="n">
+        <v>44123</v>
+      </c>
+      <c r="G47" s="2" t="inlineStr">
+        <is>
+          <t>Web</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>1 página</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Entrevista a Jaime Carrizo, presidente de ADEDAPP, sobre Expo Feria de la Asociación de Empresas del Área Panamá Pacífico</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>39</v>
+      </c>
+      <c r="L47">
+        <f>IF(N47=3, 750, IF(N47=1, 1000, ""))</f>
+        <v/>
+      </c>
+      <c r="M47">
+        <f>L47*4</f>
+        <v/>
+      </c>
+      <c r="O47">
+        <f>IF(N47=1,1,"")</f>
+        <v/>
+      </c>
+      <c r="Q47">
+        <f>IF(N47=3,1,"")</f>
+        <v/>
+      </c>
+      <c r="AA47" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=mNC2lC4ALFY</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="F48" s="1" t="n">
+        <v>44123</v>
+      </c>
+      <c r="G48" s="2" t="inlineStr">
+        <is>
+          <t>Web</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>1 página</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Entrevista a Jaime Carrizo, presidente de ADEDAPP, sobre Expo Feria de la Asociación de Empresas del Área Panamá Pacífico</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>40</v>
+      </c>
+      <c r="L48">
+        <f>IF(N48=3, 750, IF(N48=1, 1000, ""))</f>
+        <v/>
+      </c>
+      <c r="M48">
+        <f>L48*4</f>
+        <v/>
+      </c>
+      <c r="O48">
+        <f>IF(N48=1,1,"")</f>
+        <v/>
+      </c>
+      <c r="Q48">
+        <f>IF(N48=3,1,"")</f>
+        <v/>
+      </c>
+      <c r="AA48" t="inlineStr">
+        <is>
+          <t>https://nexnoticias.ruplayers.com/04B6ltCmaHGAfo0/entrevista-a-jaime-carrizo-presidente-de-la-asoc-adedapp.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="F49" s="1" t="n">
+        <v>44123</v>
+      </c>
+      <c r="G49" s="2" t="inlineStr">
+        <is>
+          <t>Web</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>1 página</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Entrevista a Jaime Carrizo, presidente de ADEDAPP, sobre Expo Feria de la Asociación de Empresas del Área Panamá Pacífico</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>41</v>
+      </c>
+      <c r="L49">
+        <f>IF(N49=3, 750, IF(N49=1, 1000, ""))</f>
+        <v/>
+      </c>
+      <c r="M49">
+        <f>L49*4</f>
+        <v/>
+      </c>
+      <c r="O49">
+        <f>IF(N49=1,1,"")</f>
+        <v/>
+      </c>
+      <c r="Q49">
+        <f>IF(N49=3,1,"")</f>
+        <v/>
+      </c>
+      <c r="AA49" t="inlineStr">
+        <is>
+          <t>https://pa.domiplay.net/video/entrevista-a-jaime-carrizo-presidente-19-10-20-nex-mnclfy</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="F50" s="1" t="n">
+        <v>44123</v>
+      </c>
+      <c r="G50" s="2" t="inlineStr">
+        <is>
+          <t>Web</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>1 página</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Entrevista a Jaime Carrizo, presidente de ADEDAPP, sobre Expo Feria de la Asociación de Empresas del Área Panamá Pacífico</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>42</v>
+      </c>
+      <c r="L50">
+        <f>IF(N50=3, 750, IF(N50=1, 1000, ""))</f>
+        <v/>
+      </c>
+      <c r="M50">
+        <f>L50*4</f>
+        <v/>
+      </c>
+      <c r="O50">
+        <f>IF(N50=1,1,"")</f>
+        <v/>
+      </c>
+      <c r="Q50">
+        <f>IF(N50=3,1,"")</f>
+        <v/>
+      </c>
+      <c r="AA50" t="inlineStr">
+        <is>
+          <t>https://www.dailymotion.com/video/x7wxvej</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="F51" s="1" t="n">
+        <v>44123</v>
+      </c>
+      <c r="G51" s="2" t="inlineStr"/>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Entrevista a Juan Mckay sobre Expo Feria de la Asociación de Empresas del Área Panamá Pacífico</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>43</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51">
+        <f>L51*4</f>
+        <v/>
+      </c>
+      <c r="O51">
+        <f>IF(N51=1,1,"")</f>
+        <v/>
+      </c>
+      <c r="Q51">
+        <f>IF(N51=3,1,"")</f>
+        <v/>
+      </c>
+      <c r="AA51" t="inlineStr">
+        <is>
+          <t>No TVN 65 segundos</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="F52" s="1" t="n">
+        <v>44123</v>
+      </c>
+      <c r="G52" s="2" t="inlineStr">
+        <is>
+          <t>Twitter</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>1 post</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Entrevista a Juan Mckay sobre Expo Feria de la Asociación de Empresas del Área Panamá Pacífico</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>44</v>
+      </c>
+      <c r="L52" t="n">
+        <v>500</v>
+      </c>
+      <c r="M52">
+        <f>L52*4</f>
+        <v/>
+      </c>
+      <c r="O52">
+        <f>IF(N52=1,1,"")</f>
+        <v/>
+      </c>
+      <c r="Q52">
+        <f>IF(N52=3,1,"")</f>
+        <v/>
+      </c>
+      <c r="AA52" t="inlineStr">
+        <is>
+          <t>https://twitter.com/tvnnoticias/status/1318343401952215040?s=19</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="F53" s="1" t="n">
+        <v>44123</v>
+      </c>
+      <c r="G53" s="2" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Entrevista a Jaime Carrizo, presidente de ADEDAPP, sobre Expo Feria de la Asociación de Empresas del Área Panamá Pacífico</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>45</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53">
+        <f>L53*4</f>
+        <v/>
+      </c>
+      <c r="O53">
+        <f>IF(N53=1,1,"")</f>
+        <v/>
+      </c>
+      <c r="Q53">
+        <f>IF(N53=3,1,"")</f>
+        <v/>
+      </c>
+      <c r="AA53" t="inlineStr">
+        <is>
+          <t>No ECOTV 60 segundos</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="F54" s="1" t="n">
+        <v>44126</v>
+      </c>
+      <c r="G54" s="2" t="inlineStr"/>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Entrevista a Jaime Carrizo, presidente de ADEDAPP, sobre Expo Feria de la Asociación de Empresas del Área Panamá Pacífico</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>46</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54">
+        <f>L54*4</f>
+        <v/>
+      </c>
+      <c r="O54">
+        <f>IF(N54=1,1,"")</f>
+        <v/>
+      </c>
+      <c r="Q54">
+        <f>IF(N54=3,1,"")</f>
+        <v/>
+      </c>
+      <c r="AA54" t="inlineStr">
+        <is>
+          <t>No La Exitosa 900 segundos</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Entrevista a Kemmy Almengor sobre Expo Feria de la Asociación de Empresas del Área Panamá Pacífico</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Entrevista a Kemmy Almengor sobre Expo Feria de la Asociación de Empresas del Área Panamá Pacífico</t>
         </is>
       </c>
     </row>
@@ -1497,6 +2341,31 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G27" r:id="rId19"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G28" r:id="rId20"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G29" r:id="rId21"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G30" r:id="rId22"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G31" r:id="rId23"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G32" r:id="rId24"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G33" r:id="rId25"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G34" r:id="rId26"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G35" r:id="rId27"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G36" r:id="rId28"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G37" r:id="rId29"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G38" r:id="rId30"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G39" r:id="rId31"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G40" r:id="rId32"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G41" r:id="rId33"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G42" r:id="rId34"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G43" r:id="rId35"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G44" r:id="rId36"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G45" r:id="rId37"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G46" r:id="rId38"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G47" r:id="rId39"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G48" r:id="rId40"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G49" r:id="rId41"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G50" r:id="rId42"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G51" r:id="rId43"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G52" r:id="rId44"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G53" r:id="rId45"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G54" r:id="rId46"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Excel Terminado.xlsx
+++ b/Excel Terminado.xlsx
@@ -330,7 +330,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="F9:AA56"/>
+  <dimension ref="D9:AA33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -339,8 +339,18 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="9">
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Mención de Marca 1</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Mención de Fundación Primer Mundo</t>
+        </is>
+      </c>
       <c r="F9" s="1" t="n">
-        <v>44117</v>
+        <v>44105</v>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
@@ -355,7 +365,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Expo Feria de la Asociación de Empresas del Área Panamá Pacífico, un encuentro de crecimiento, bienestar y emprendimiento</t>
+          <t>Fundación Panamá Primer Mundo pide a la CNRE fortalecer la institucionalidad democrática</t>
         </is>
       </c>
       <c r="K9" t="n">
@@ -379,36 +389,45 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>https://www.panama24horas.com.pa/empresas/expo-feria-de-la-asociacion-de-empresas-del-area-panama-pacifico-un-encuentro-de-crecimiento-bienestar-y-emprendimiento/</t>
+          <t>https://ensegundos.com.pa/2020/10/01/fundacion-panama-primer-mundo-pide-a-la-cnre-fortalecer-la-institucionalidad-democratica/</t>
         </is>
       </c>
     </row>
     <row r="10">
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Mención de Marca 1</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Mención de Fundación Primer Mundo</t>
+        </is>
+      </c>
       <c r="F10" s="1" t="n">
-        <v>44117</v>
+        <v>44105</v>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>Web</t>
+          <t>Twitter</t>
         </is>
       </c>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr">
         <is>
-          <t>1 página</t>
+          <t>1 post</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Expo Feria de la Asociación de Empresas del Área Panamá Pacífico, un encuentro de crecimiento, bienestar y emprendimiento</t>
+          <t>Fundación Panamá Primer Mundo pide a la CNRE fortalecer la institucionalidad democrática</t>
         </is>
       </c>
       <c r="K10" t="n">
         <v>2</v>
       </c>
-      <c r="L10">
-        <f>IF(N10=3, 750, IF(N10=1, 1000, ""))</f>
-        <v/>
+      <c r="L10" t="n">
+        <v>500</v>
       </c>
       <c r="M10">
         <f>L10*4</f>
@@ -424,13 +443,23 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>https://panamaaldia.news/expo-feria-de-la-asociacion-de-empresas-del-area-panama-pacifico-un-encuentro-de-crecimiento-bienestar-y-emprendimiento/</t>
+          <t>https://twitter.com/ensegundos_pa/status/1311761153933090818?s=20</t>
         </is>
       </c>
     </row>
     <row r="11">
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Mención de Marca 1</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Mención de Fundación Primer Mundo</t>
+        </is>
+      </c>
       <c r="F11" s="1" t="n">
-        <v>44118</v>
+        <v>44105</v>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
@@ -445,7 +474,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Expo Feria de la Asociación de Empresas del Área Panamá Pacífico, un encuentro de crecimiento, bienestar y emprendimiento</t>
+          <t>Fundación Panamá Primer Mundo sugiere que las campañas electorales sean financiadas por el estado</t>
         </is>
       </c>
       <c r="K11" t="n">
@@ -469,36 +498,45 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>https://panamaaldia.news/expo-feria-de-la-asociacion-de-empresas-del-area-panama-pacifico-un-encuentro-de-crecimiento-bienestar-y-emprendimiento-2/</t>
+          <t>https://destinopanama.com.pa/2020/10/01/fundacion-panama-primer-mundo-sugiere-que-las-campanas-electorales-sean-financiadas-por-el-estado/</t>
         </is>
       </c>
     </row>
     <row r="12">
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Mención de Marca 1</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Mención de Fundación Primer Mundo</t>
+        </is>
+      </c>
       <c r="F12" s="1" t="n">
-        <v>44118</v>
+        <v>44105</v>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>Web</t>
+          <t>Twitter</t>
         </is>
       </c>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
         <is>
-          <t>1 página</t>
+          <t>1 post</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Expo Feria de la Asociación de Empresas del Área Panamá Pacífico, un encuentro de crecimiento, bienestar y emprendimiento</t>
+          <t>Fundación Panamá Primer Mundo sugiere que las campañas electorales sean financiadas por el estado</t>
         </is>
       </c>
       <c r="K12" t="n">
         <v>4</v>
       </c>
-      <c r="L12">
-        <f>IF(N12=3, 750, IF(N12=1, 1000, ""))</f>
-        <v/>
+      <c r="L12" t="n">
+        <v>500</v>
       </c>
       <c r="M12">
         <f>L12*4</f>
@@ -514,13 +552,23 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>https://elcapitalfinanciero.com/empresa-de-panama-pacifico-preparan-una-nueva-version-de-su-feria-comercial/</t>
+          <t>https://twitter.com/Destinopanam/status/1311811387782565888?s=20</t>
         </is>
       </c>
     </row>
     <row r="13">
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Mención de Marca 1</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Mención de Fundación Primer Mundo</t>
+        </is>
+      </c>
       <c r="F13" s="1" t="n">
-        <v>44118</v>
+        <v>44105</v>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
@@ -535,7 +583,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Expo Feria de la Asociación de Empresas del Área Panamá Pacífico, un encuentro de crecimiento, bienestar y emprendimiento</t>
+          <t>Fundación Panamá Primer Mundo sugiere que las campañas electorales sean financiadas por el estado</t>
         </is>
       </c>
       <c r="K13" t="n">
@@ -558,13 +606,23 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>https://twitter.com/ElCFPanama/status/1316409889393123330?s=20</t>
+          <t>https://twitter.com/Destinopanam/status/1311811464441798657?s=20</t>
         </is>
       </c>
     </row>
     <row r="14">
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Nota de Prensa 1</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Enviar invitación y material sobre el foro “¿Cómo lograr la excelencia educativa? La experiencia alemana”</t>
+        </is>
+      </c>
       <c r="F14" s="1" t="n">
-        <v>44118</v>
+        <v>44126</v>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
@@ -579,7 +637,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Expo Feria de la Asociación de Empresas del Área Panamá Pacífico, un encuentro de crecimiento, bienestar y emprendimiento</t>
+          <t>Foro “¿Cómo lograr la excelencia educativa? La experiencia alemana”</t>
         </is>
       </c>
       <c r="K14" t="n">
@@ -603,13 +661,23 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>http://prnoticiaspanama.com/expo-feria-de-la-asociacion-de-empresas-del-area-panama-pacifico-un-encuentro-de-crecimiento-bienestar-y-emprendimiento/</t>
+          <t>http://www.entiempopanama.com/eventos/76-foro-como-lograr-la-excelencia-educativa.html</t>
         </is>
       </c>
     </row>
     <row r="15">
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Nota de Prensa 1</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Enviar invitación y material sobre el foro “¿Cómo lograr la excelencia educativa? La experiencia alemana”</t>
+        </is>
+      </c>
       <c r="F15" s="1" t="n">
-        <v>44118</v>
+        <v>44128</v>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
@@ -624,7 +692,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Expo Feria de la Asociación de Empresas del Área Panamá Pacífico, un encuentro de crecimiento, bienestar y emprendimiento</t>
+          <t>Foro “¿Cómo lograr la excelencia educativa? La experiencia alemana”</t>
         </is>
       </c>
       <c r="K15" t="n">
@@ -648,13 +716,23 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>https://verpanama.com/expo-feria-2020-area-panama-pacifico/</t>
+          <t>https://panamahoy.net/?p=11945</t>
         </is>
       </c>
     </row>
     <row r="16">
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Nota de Prensa 1</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Enviar invitación y material sobre el foro “¿Cómo lograr la excelencia educativa? La experiencia alemana”</t>
+        </is>
+      </c>
       <c r="F16" s="1" t="n">
-        <v>44118</v>
+        <v>44127</v>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
@@ -669,7 +747,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Expo Feria de la Asociación de Empresas del Área Panamá Pacífico, un encuentro de crecimiento, bienestar y emprendimiento</t>
+          <t>Panamá necesita una educación reflexiva y crítica</t>
         </is>
       </c>
       <c r="K16" t="n">
@@ -693,13 +771,23 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>https://xpectativapty.com/2020/10/14/expo-feria-de-la-asociacion-de-empresas-del-area-panama-pacifico-un-encuentro-de-crecimiento-bienestar-y-emprendimiento/</t>
+          <t>https://www.laverdadpanama.com.pa/panama-necesita-una-educacion-reflexiva-y-critica/</t>
         </is>
       </c>
     </row>
     <row r="17">
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Nota de Prensa 1</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Enviar invitación y material sobre el foro “¿Cómo lograr la excelencia educativa? La experiencia alemana”</t>
+        </is>
+      </c>
       <c r="F17" s="1" t="n">
-        <v>44118</v>
+        <v>44127</v>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
@@ -714,7 +802,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Expo Feria de la Asociación de Empresas del Área Panamá Pacífico, un encuentro de crecimiento, bienestar y emprendimiento</t>
+          <t>Panamá necesita una educación reflexiva y crítica</t>
         </is>
       </c>
       <c r="K17" t="n">
@@ -738,36 +826,45 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>https://www.eventos507.com/expo-feria-2020-de-panama-pacifico/</t>
+          <t>https://ensegundos.com.pa/2020/10/23/panama-necesita-una-educacion-reflexiva-y-critica/</t>
         </is>
       </c>
     </row>
     <row r="18">
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Nota de Prensa 1</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Enviar invitación y material sobre el foro “¿Cómo lograr la excelencia educativa? La experiencia alemana”</t>
+        </is>
+      </c>
       <c r="F18" s="1" t="n">
-        <v>44119</v>
+        <v>44127</v>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>Web</t>
+          <t>Twitter</t>
         </is>
       </c>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
-          <t>1 página</t>
+          <t>1 post</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Expo Feria de la Asociación de Empresas del Área Panamá Pacífico, un encuentro de crecimiento, bienestar y emprendimiento</t>
+          <t>Panamá necesita una educación reflexiva y crítica</t>
         </is>
       </c>
       <c r="K18" t="n">
         <v>10</v>
       </c>
-      <c r="L18">
-        <f>IF(N18=3, 750, IF(N18=1, 1000, ""))</f>
-        <v/>
+      <c r="L18" t="n">
+        <v>500</v>
       </c>
       <c r="M18">
         <f>L18*4</f>
@@ -783,35 +880,46 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>https://profesionalespanama.net/nacionales/anuncian-feria-de-la-asociacion-de-empresas-del-area-panama-pacifico/</t>
+          <t>https://twitter.com/ensegundos_pa/status/1319747834812502018?s=20</t>
         </is>
       </c>
     </row>
     <row r="19">
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Mención de Marca 2</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Mención de Fundación Serenamente</t>
+        </is>
+      </c>
       <c r="F19" s="1" t="n">
-        <v>44119</v>
+        <v>44111</v>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>Twitter</t>
+          <t>Web</t>
         </is>
       </c>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
-          <t>1 post</t>
+          <t>1 página</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Expo Feria de la Asociación de Empresas del Área Panamá Pacífico, un encuentro de crecimiento, bienestar y emprendimiento</t>
+          <t>Conoce la labor de la Fundación Serenamente</t>
         </is>
       </c>
       <c r="K19" t="n">
         <v>11</v>
       </c>
-      <c r="L19" t="n">
-        <v>500</v>
+      <c r="L19">
+        <f>IF(N19=3, 750, IF(N19=1, 1000, ""))</f>
+        <v/>
       </c>
       <c r="M19">
         <f>L19*4</f>
@@ -827,37 +935,36 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>https://twitter.com/NoticieroPanama/status/1316776613120540677?s=20</t>
+          <t>https://somosimpactopositivo.com/gente-que-inspira/fundacion-serenamente/</t>
         </is>
       </c>
     </row>
     <row r="20">
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Mención de Marca 2</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Mención de Fundación Serenamente</t>
+        </is>
+      </c>
       <c r="F20" s="1" t="n">
-        <v>44119</v>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>Web</t>
-        </is>
-      </c>
+        <v>44126</v>
+      </c>
+      <c r="G20" s="2" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>1 página</t>
-        </is>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Expo Feria de la Asociación de Empresas del Área Panamá Pacífico, un encuentro de crecimiento, bienestar y emprendimiento</t>
+          <t>Conoce la labor de la Fundación Serenamente</t>
         </is>
       </c>
       <c r="K20" t="n">
         <v>12</v>
       </c>
-      <c r="L20">
-        <f>IF(N20=3, 750, IF(N20=1, 1000, ""))</f>
-        <v/>
-      </c>
+      <c r="L20" t="inlineStr"/>
       <c r="M20">
         <f>L20*4</f>
         <v/>
@@ -872,26 +979,47 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>https://www.panamaamerica.com.pa/economia/anuncian-feria-asociacion-empresas-del-area-panama-pacifico-117409</t>
+          <t>No La estrella</t>
         </is>
       </c>
     </row>
     <row r="21">
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Mención de Marca 2</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Mención de Fundación Serenamente</t>
+        </is>
+      </c>
       <c r="F21" s="1" t="n">
-        <v>44120</v>
-      </c>
-      <c r="G21" s="2" t="inlineStr"/>
+        <v>44126</v>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>Web</t>
+        </is>
+      </c>
       <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>1 página</t>
+        </is>
+      </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Expo Feria de la Asociación de Empresas del Área Panamá Pacífico, un encuentro de crecimiento, bienestar y emprendimiento</t>
+          <t>Conoce la labor de la Fundación Serenamente</t>
         </is>
       </c>
       <c r="K21" t="n">
         <v>13</v>
       </c>
-      <c r="L21" t="inlineStr"/>
+      <c r="L21">
+        <f>IF(N21=3, 750, IF(N21=1, 1000, ""))</f>
+        <v/>
+      </c>
       <c r="M21">
         <f>L21*4</f>
         <v/>
@@ -906,13 +1034,23 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>No  Panamá América</t>
+          <t>https://www.laestrella.com.pa/opinion/la-llorona/201022/llorona-22-octubre-2020</t>
         </is>
       </c>
     </row>
     <row r="22">
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Mención de Marca 2</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Mención de Fundación Serenamente</t>
+        </is>
+      </c>
       <c r="F22" s="1" t="n">
-        <v>44120</v>
+        <v>44126</v>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
@@ -927,7 +1065,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Expo Feria de la Asociación de Empresas del Área Panamá Pacífico, un encuentro de crecimiento, bienestar y emprendimiento</t>
+          <t>Conoce la labor de la Fundación Serenamente</t>
         </is>
       </c>
       <c r="K22" t="n">
@@ -951,13 +1089,23 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>https://grupostt.com/2020/10/16/expo-feria-de-empresas-panama-pacifico-2020/</t>
+          <t>https://calidoscopio.life/2020/10/22/excelencia-educativa-utopia-del-primer-mundo/</t>
         </is>
       </c>
     </row>
     <row r="23">
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Mención de Marca 2</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Mención de Fundación Serenamente</t>
+        </is>
+      </c>
       <c r="F23" s="1" t="n">
-        <v>44120</v>
+        <v>44129</v>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
@@ -972,7 +1120,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Expo Feria de la Asociación de Empresas del Área Panamá Pacífico, un encuentro de crecimiento, bienestar y emprendimiento</t>
+          <t>Conoce la labor de la Fundación Serenamente</t>
         </is>
       </c>
       <c r="K23" t="n">
@@ -996,36 +1144,45 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>https://www.pressreader.com/panama/panama-america/20201016/281745566866116</t>
+          <t>https://www.laestrella.com.pa/deportes/cocteldeportivo/201024/buen-gobierno-finalizara-ano-2020-ley-mejorar-deporte</t>
         </is>
       </c>
     </row>
     <row r="24">
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Mención de Marca 2</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Mención de Fundación Serenamente</t>
+        </is>
+      </c>
       <c r="F24" s="1" t="n">
-        <v>44123</v>
+        <v>44129</v>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>Web</t>
+          <t>Twitter</t>
         </is>
       </c>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
-          <t>1 página</t>
+          <t>1 post</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Expo Feria de la Asociación de Empresas del Área Panamá Pacífico, un encuentro de crecimiento, bienestar y emprendimiento</t>
+          <t>Conoce la labor de la Fundación Serenamente</t>
         </is>
       </c>
       <c r="K24" t="n">
         <v>16</v>
       </c>
-      <c r="L24">
-        <f>IF(N24=3, 750, IF(N24=1, 1000, ""))</f>
-        <v/>
+      <c r="L24" t="n">
+        <v>500</v>
       </c>
       <c r="M24">
         <f>L24*4</f>
@@ -1041,35 +1198,46 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>https://www.viajesboletin.com/categorias/principales/panama/76501-anuncian-feria-de-la-asociacion-de-empresas-del-area-panama-pacifico/</t>
+          <t>https://twitter.com/ReportoCA/status/1320232489093386240?s=20</t>
         </is>
       </c>
     </row>
     <row r="25">
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Mención de Marca 2</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Mención de Fundación Serenamente</t>
+        </is>
+      </c>
       <c r="F25" s="1" t="n">
-        <v>44124</v>
+        <v>44127</v>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>Twitter</t>
+          <t>Web</t>
         </is>
       </c>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
-          <t>1 post</t>
+          <t>1 página</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Expo Feria de la Asociación de Empresas del Área Panamá Pacífico, un encuentro de crecimiento, bienestar y emprendimiento</t>
+          <t>Conoce la labor de la Fundación Serenamente</t>
         </is>
       </c>
       <c r="K25" t="n">
         <v>17</v>
       </c>
-      <c r="L25" t="n">
-        <v>500</v>
+      <c r="L25">
+        <f>IF(N25=3, 750, IF(N25=1, 1000, ""))</f>
+        <v/>
       </c>
       <c r="M25">
         <f>L25*4</f>
@@ -1085,13 +1253,23 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>https://twitter.com/BoletinViajes/status/1318537453922258944?s=20</t>
+          <t>https://www.laestrella.com.pa/nacional/201023/panama-cambiar-ensenanza-memoristica-barril-dar-salto-cualitativo</t>
         </is>
       </c>
     </row>
     <row r="26">
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Mención de Marca 2</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Mención de Fundación Serenamente</t>
+        </is>
+      </c>
       <c r="F26" s="1" t="n">
-        <v>44124</v>
+        <v>44128</v>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
@@ -1106,7 +1284,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Expo Feria de la Asociación de Empresas del Área Panamá Pacífico, un encuentro de crecimiento, bienestar y emprendimiento</t>
+          <t>Conoce la labor de la Fundación Serenamente</t>
         </is>
       </c>
       <c r="K26" t="n">
@@ -1129,37 +1307,36 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>https://twitter.com/iberoamericav/status/1318552327297564672?s=20</t>
+          <t>https://twitter.com/EstrellaOnline/status/1319903968013750272?s=20</t>
         </is>
       </c>
     </row>
     <row r="27">
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Entrevista 1</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Entrevista a Jorge Gamboa sobre Fundación Primer Mundo</t>
+        </is>
+      </c>
       <c r="F27" s="1" t="n">
-        <v>44124</v>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>Web</t>
-        </is>
-      </c>
+        <v>44105</v>
+      </c>
+      <c r="G27" s="2" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>1 página</t>
-        </is>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Expo Feria de la Asociación de Empresas del Área Panamá Pacífico, un encuentro de crecimiento, bienestar y emprendimiento</t>
+          <t>Entrevista a Jorge Gamboa sobre Fundación Primer Mundo</t>
         </is>
       </c>
       <c r="K27" t="n">
         <v>19</v>
       </c>
-      <c r="L27">
-        <f>IF(N27=3, 750, IF(N27=1, 1000, ""))</f>
-        <v/>
-      </c>
+      <c r="L27" t="inlineStr"/>
       <c r="M27">
         <f>L27*4</f>
         <v/>
@@ -1174,35 +1351,46 @@
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>https://www.diaadia.com.pa/el-pais/mitradel-participa-de-la-expo-feria-de-panama-pacifico-2020-371552</t>
+          <t>No NEXTV 510</t>
         </is>
       </c>
     </row>
     <row r="28">
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Entrevista 1</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Entrevista a Jorge Gamboa sobre Fundación Primer Mundo</t>
+        </is>
+      </c>
       <c r="F28" s="1" t="n">
-        <v>44124</v>
+        <v>44105</v>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>Twitter</t>
+          <t>Web</t>
         </is>
       </c>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
-          <t>1 post</t>
+          <t>1 página</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Expo Feria de la Asociación de Empresas del Área Panamá Pacífico, un encuentro de crecimiento, bienestar y emprendimiento</t>
+          <t>Entrevista a Jorge Gamboa sobre Fundación Primer Mundo</t>
         </is>
       </c>
       <c r="K28" t="n">
         <v>20</v>
       </c>
-      <c r="L28" t="n">
-        <v>500</v>
+      <c r="L28">
+        <f>IF(N28=3, 750, IF(N28=1, 1000, ""))</f>
+        <v/>
       </c>
       <c r="M28">
         <f>L28*4</f>
@@ -1218,35 +1406,46 @@
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>https://twitter.com/DiaaDiaPa/status/1318688449038184448?s=20</t>
+          <t>https://www.youtube.com/watch?v=GYrHiTtk3cU</t>
         </is>
       </c>
     </row>
     <row r="29">
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Entrevista 1</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Entrevista a Jorge Gamboa sobre Fundación Primer Mundo</t>
+        </is>
+      </c>
       <c r="F29" s="1" t="n">
-        <v>44125</v>
+        <v>44105</v>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>Twitter</t>
+          <t>Web</t>
         </is>
       </c>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
         <is>
-          <t>1 post</t>
+          <t>1 página</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Expo Feria de la Asociación de Empresas del Área Panamá Pacífico, un encuentro de crecimiento, bienestar y emprendimiento</t>
+          <t>Entrevista a Jorge Gamboa sobre Fundación Primer Mundo</t>
         </is>
       </c>
       <c r="K29" t="n">
         <v>21</v>
       </c>
-      <c r="L29" t="n">
-        <v>500</v>
+      <c r="L29">
+        <f>IF(N29=3, 750, IF(N29=1, 1000, ""))</f>
+        <v/>
       </c>
       <c r="M29">
         <f>L29*4</f>
@@ -1262,35 +1461,46 @@
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>https://twitter.com/DiaaDiaPa/status/1318780301364121601?s=20</t>
+          <t>https://www.dailymotion.com/video/x7wzmap</t>
         </is>
       </c>
     </row>
     <row r="30">
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Entrevista 1</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Entrevista a Jorge Gamboa sobre Fundación Primer Mundo</t>
+        </is>
+      </c>
       <c r="F30" s="1" t="n">
-        <v>44125</v>
+        <v>44105</v>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>Twitter</t>
+          <t>Web</t>
         </is>
       </c>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
         <is>
-          <t>1 post</t>
+          <t>1 página</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Expo Feria de la Asociación de Empresas del Área Panamá Pacífico, un encuentro de crecimiento, bienestar y emprendimiento</t>
+          <t>Entrevista a Jorge Gamboa sobre Fundación Primer Mundo</t>
         </is>
       </c>
       <c r="K30" t="n">
         <v>22</v>
       </c>
-      <c r="L30" t="n">
-        <v>500</v>
+      <c r="L30">
+        <f>IF(N30=3, 750, IF(N30=1, 1000, ""))</f>
+        <v/>
       </c>
       <c r="M30">
         <f>L30*4</f>
@@ -1306,36 +1516,36 @@
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>https://twitter.com/DiaaDiaPa/status/1319047059463409664?s=20</t>
+          <t>https://pa.domiplay.net/video/entrevista-al-dr-jorge-gamboa-21-10-20-nex-gyr3cu</t>
         </is>
       </c>
     </row>
     <row r="31">
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Entrevista 2</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Entrevista a Jorge Gamboa sobre Fundación Primer Mundo</t>
+        </is>
+      </c>
       <c r="F31" s="1" t="n">
-        <v>44125</v>
-      </c>
-      <c r="G31" s="2" t="inlineStr">
-        <is>
-          <t>Twitter</t>
-        </is>
-      </c>
+        <v>44105</v>
+      </c>
+      <c r="G31" s="2" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>1 post</t>
-        </is>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Expo Feria de la Asociación de Empresas del Área Panamá Pacífico, un encuentro de crecimiento, bienestar y emprendimiento</t>
+          <t>Entrevista a Jorge Gamboa sobre Fundación Primer Mundo</t>
         </is>
       </c>
       <c r="K31" t="n">
         <v>23</v>
       </c>
-      <c r="L31" t="n">
-        <v>500</v>
-      </c>
+      <c r="L31" t="inlineStr"/>
       <c r="M31">
         <f>L31*4</f>
         <v/>
@@ -1350,37 +1560,36 @@
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>https://twitter.com/DiaaDiaPa/status/1319092357459931136?s=20</t>
+          <t>No fetv 140</t>
         </is>
       </c>
     </row>
     <row r="32">
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Entrevista 3</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Entrevista a Jorge Gamboa sobre Fundación Primer Mundo</t>
+        </is>
+      </c>
       <c r="F32" s="1" t="n">
-        <v>44125</v>
-      </c>
-      <c r="G32" s="2" t="inlineStr">
-        <is>
-          <t>Web</t>
-        </is>
-      </c>
+        <v>44105</v>
+      </c>
+      <c r="G32" s="2" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>1 página</t>
-        </is>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Expo Feria de la Asociación de Empresas del Área Panamá Pacífico, un encuentro de crecimiento, bienestar y emprendimiento</t>
+          <t>Entrevista a Jorge Gamboa sobre Fundación Primer Mundo</t>
         </is>
       </c>
       <c r="K32" t="n">
         <v>24</v>
       </c>
-      <c r="L32">
-        <f>IF(N32=3, 750, IF(N32=1, 1000, ""))</f>
-        <v/>
-      </c>
+      <c r="L32" t="inlineStr"/>
       <c r="M32">
         <f>L32*4</f>
         <v/>
@@ -1395,36 +1604,36 @@
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>https://www.panama24horas.com.pa/panama/mitradel-participa-de-la-expo-feria-de-adedapp-2020/</t>
+          <t>No kw continente 140</t>
         </is>
       </c>
     </row>
     <row r="33">
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Entrevista 4</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Entrevista a Jorge Gamboa sobre Fundación Primer Mundo</t>
+        </is>
+      </c>
       <c r="F33" s="1" t="n">
-        <v>44126</v>
-      </c>
-      <c r="G33" s="2" t="inlineStr">
-        <is>
-          <t>Twitter</t>
-        </is>
-      </c>
+        <v>44134</v>
+      </c>
+      <c r="G33" s="2" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>1 post</t>
-        </is>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Expo Feria de la Asociación de Empresas del Área Panamá Pacífico, un encuentro de crecimiento, bienestar y emprendimiento</t>
+          <t>Entrevista a Jorge Gamboa sobre Fundación Primer Mundo</t>
         </is>
       </c>
       <c r="K33" t="n">
         <v>25</v>
       </c>
-      <c r="L33" t="n">
-        <v>500</v>
-      </c>
+      <c r="L33" t="inlineStr"/>
       <c r="M33">
         <f>L33*4</f>
         <v/>
@@ -1439,882 +1648,7 @@
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>https://twitter.com/DiaaDiaPa/status/1319454745279582209?s=20</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="F34" s="1" t="n">
-        <v>44114</v>
-      </c>
-      <c r="G34" s="2" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>Entrevista a Juan Mckay sobre Expo Feria de la Asociación de Empresas del Área Panamá Pacífico</t>
-        </is>
-      </c>
-      <c r="K34" t="n">
-        <v>26</v>
-      </c>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34">
-        <f>L34*4</f>
-        <v/>
-      </c>
-      <c r="O34">
-        <f>IF(N34=1,1,"")</f>
-        <v/>
-      </c>
-      <c r="Q34">
-        <f>IF(N34=3,1,"")</f>
-        <v/>
-      </c>
-      <c r="AA34" t="inlineStr">
-        <is>
-          <t>No Radio Panamá 265 segundos</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="F35" s="1" t="n">
-        <v>44114</v>
-      </c>
-      <c r="G35" s="2" t="inlineStr">
-        <is>
-          <t>Web</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>1 página</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>Inaugura Expo Feria de ADEDAP, se centrará en Turismo, Tecnología, Educación, Emprendimientos y Vacantes</t>
-        </is>
-      </c>
-      <c r="K35" t="n">
-        <v>27</v>
-      </c>
-      <c r="L35">
-        <f>IF(N35=3, 750, IF(N35=1, 1000, ""))</f>
-        <v/>
-      </c>
-      <c r="M35">
-        <f>L35*4</f>
-        <v/>
-      </c>
-      <c r="O35">
-        <f>IF(N35=1,1,"")</f>
-        <v/>
-      </c>
-      <c r="Q35">
-        <f>IF(N35=3,1,"")</f>
-        <v/>
-      </c>
-      <c r="AA35" t="inlineStr">
-        <is>
-          <t>https://www.radiopanama.com.pa/noticias/actualidad/inaugura-expo-feria-de-adedap-se-centrara-en-turismo-tecnologia-educacion-emprendimientos-y-vacantes/20201020/nota/4079168.aspx</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="F36" s="1" t="n">
-        <v>44124</v>
-      </c>
-      <c r="G36" s="2" t="inlineStr">
-        <is>
-          <t>Twitter</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>1 post</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>Inaugura Expo Feria de ADEDAP, se centrará en Turismo, Tecnología, Educación, Emprendimientos y Vacantes</t>
-        </is>
-      </c>
-      <c r="K36" t="n">
-        <v>28</v>
-      </c>
-      <c r="L36" t="n">
-        <v>500</v>
-      </c>
-      <c r="M36">
-        <f>L36*4</f>
-        <v/>
-      </c>
-      <c r="O36">
-        <f>IF(N36=1,1,"")</f>
-        <v/>
-      </c>
-      <c r="Q36">
-        <f>IF(N36=3,1,"")</f>
-        <v/>
-      </c>
-      <c r="AA36" t="inlineStr">
-        <is>
-          <t>https://twitter.com/radiopanama/status/1318771493799538688?s=20</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="F37" s="1" t="n">
-        <v>44124</v>
-      </c>
-      <c r="G37" s="2" t="inlineStr">
-        <is>
-          <t>Twitter</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>1 post</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>Inaugura Expo Feria de ADEDAP, se centrará en Turismo, Tecnología, Educación, Emprendimientos y Vacantes</t>
-        </is>
-      </c>
-      <c r="K37" t="n">
-        <v>29</v>
-      </c>
-      <c r="L37" t="n">
-        <v>500</v>
-      </c>
-      <c r="M37">
-        <f>L37*4</f>
-        <v/>
-      </c>
-      <c r="O37">
-        <f>IF(N37=1,1,"")</f>
-        <v/>
-      </c>
-      <c r="Q37">
-        <f>IF(N37=3,1,"")</f>
-        <v/>
-      </c>
-      <c r="AA37" t="inlineStr">
-        <is>
-          <t>https://twitter.com/radiopanama/status/1318617982252118016?s=20</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="F38" s="1" t="n">
-        <v>44121</v>
-      </c>
-      <c r="G38" s="2" t="inlineStr"/>
-      <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>Entrevista a Juan Mckay sobre Expo Feria de la Asociación de Empresas del Área Panamá Pacífico</t>
-        </is>
-      </c>
-      <c r="K38" t="n">
-        <v>30</v>
-      </c>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38">
-        <f>L38*4</f>
-        <v/>
-      </c>
-      <c r="O38">
-        <f>IF(N38=1,1,"")</f>
-        <v/>
-      </c>
-      <c r="Q38">
-        <f>IF(N38=3,1,"")</f>
-        <v/>
-      </c>
-      <c r="AA38" t="inlineStr">
-        <is>
-          <t>No Radio Panamá 228 minutos</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="F39" s="1" t="n">
-        <v>44121</v>
-      </c>
-      <c r="G39" s="2" t="inlineStr">
-        <is>
-          <t>Web</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>1 página</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>ExpoFeria 2020 se realizará de manera virtual</t>
-        </is>
-      </c>
-      <c r="K39" t="n">
-        <v>31</v>
-      </c>
-      <c r="L39">
-        <f>IF(N39=3, 750, IF(N39=1, 1000, ""))</f>
-        <v/>
-      </c>
-      <c r="M39">
-        <f>L39*4</f>
-        <v/>
-      </c>
-      <c r="O39">
-        <f>IF(N39=1,1,"")</f>
-        <v/>
-      </c>
-      <c r="Q39">
-        <f>IF(N39=3,1,"")</f>
-        <v/>
-      </c>
-      <c r="AA39" t="inlineStr">
-        <is>
-          <t>https://www.radiopanama.com.pa/noticias/actualidad/expoferia-2020-se-realizara-de-manera-virtual/20201017/nota/4078494.aspx</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="F40" s="1" t="n">
-        <v>44121</v>
-      </c>
-      <c r="G40" s="2" t="inlineStr">
-        <is>
-          <t>Twitter</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>1 post</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>ExpoFeria 2020 se realizará de manera virtual</t>
-        </is>
-      </c>
-      <c r="K40" t="n">
-        <v>32</v>
-      </c>
-      <c r="L40" t="n">
-        <v>500</v>
-      </c>
-      <c r="M40">
-        <f>L40*4</f>
-        <v/>
-      </c>
-      <c r="O40">
-        <f>IF(N40=1,1,"")</f>
-        <v/>
-      </c>
-      <c r="Q40">
-        <f>IF(N40=3,1,"")</f>
-        <v/>
-      </c>
-      <c r="AA40" t="inlineStr">
-        <is>
-          <t>https://twitter.com/radiopanama/status/1317564509284859905?s=20</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="F41" s="1" t="n">
-        <v>44119</v>
-      </c>
-      <c r="G41" s="2" t="inlineStr"/>
-      <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>Entrevista a Jaime Carrizo, presidente de ADEDAPP, sobre Expo Feria de la Asociación de Empresas del Área Panamá Pacífico</t>
-        </is>
-      </c>
-      <c r="K41" t="n">
-        <v>33</v>
-      </c>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41">
-        <f>L41*4</f>
-        <v/>
-      </c>
-      <c r="O41">
-        <f>IF(N41=1,1,"")</f>
-        <v/>
-      </c>
-      <c r="Q41">
-        <f>IF(N41=3,1,"")</f>
-        <v/>
-      </c>
-      <c r="AA41" t="inlineStr">
-        <is>
-          <t>No Telemetro 128 segundos</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="F42" s="1" t="n">
-        <v>44119</v>
-      </c>
-      <c r="G42" s="2" t="inlineStr">
-        <is>
-          <t>Web</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>1 página</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>Entrevista a Jaime Carrizo, presidente de ADEDAPP, sobre Expo Feria de la Asociación de Empresas del Área Panamá Pacífico</t>
-        </is>
-      </c>
-      <c r="K42" t="n">
-        <v>34</v>
-      </c>
-      <c r="L42">
-        <f>IF(N42=3, 750, IF(N42=1, 1000, ""))</f>
-        <v/>
-      </c>
-      <c r="M42">
-        <f>L42*4</f>
-        <v/>
-      </c>
-      <c r="O42">
-        <f>IF(N42=1,1,"")</f>
-        <v/>
-      </c>
-      <c r="Q42">
-        <f>IF(N42=3,1,"")</f>
-        <v/>
-      </c>
-      <c r="AA42" t="inlineStr">
-        <is>
-          <t>https://www.telemetro.com/nacionales/2020/10/15/expo-feria-asociacion-empresas-panama/3348756.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="F43" s="1" t="n">
-        <v>44119</v>
-      </c>
-      <c r="G43" s="2" t="inlineStr">
-        <is>
-          <t>Twitter</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr"/>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>1 post</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>Entrevista a Jaime Carrizo, presidente de ADEDAPP, sobre Expo Feria de la Asociación de Empresas del Área Panamá Pacífico</t>
-        </is>
-      </c>
-      <c r="K43" t="n">
-        <v>35</v>
-      </c>
-      <c r="L43" t="n">
-        <v>500</v>
-      </c>
-      <c r="M43">
-        <f>L43*4</f>
-        <v/>
-      </c>
-      <c r="O43">
-        <f>IF(N43=1,1,"")</f>
-        <v/>
-      </c>
-      <c r="Q43">
-        <f>IF(N43=3,1,"")</f>
-        <v/>
-      </c>
-      <c r="AA43" t="inlineStr">
-        <is>
-          <t>https://twitter.com/TReporta/status/1316760755795091458?s=20</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="F44" s="1" t="n">
-        <v>44120</v>
-      </c>
-      <c r="G44" s="2" t="inlineStr">
-        <is>
-          <t>Twitter</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr"/>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>1 post</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>Entrevista a Jaime Carrizo, presidente de ADEDAPP, sobre Expo Feria de la Asociación de Empresas del Área Panamá Pacífico</t>
-        </is>
-      </c>
-      <c r="K44" t="n">
-        <v>36</v>
-      </c>
-      <c r="L44" t="n">
-        <v>500</v>
-      </c>
-      <c r="M44">
-        <f>L44*4</f>
-        <v/>
-      </c>
-      <c r="O44">
-        <f>IF(N44=1,1,"")</f>
-        <v/>
-      </c>
-      <c r="Q44">
-        <f>IF(N44=3,1,"")</f>
-        <v/>
-      </c>
-      <c r="AA44" t="inlineStr">
-        <is>
-          <t>https://twitter.com/TReporta/status/1317004963495673856?s=20</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="F45" s="1" t="n">
-        <v>44123</v>
-      </c>
-      <c r="G45" s="2" t="inlineStr">
-        <is>
-          <t>Twitter</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr"/>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>1 post</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>Entrevista a Jaime Carrizo, presidente de ADEDAPP, sobre Expo Feria de la Asociación de Empresas del Área Panamá Pacífico</t>
-        </is>
-      </c>
-      <c r="K45" t="n">
-        <v>37</v>
-      </c>
-      <c r="L45" t="n">
-        <v>500</v>
-      </c>
-      <c r="M45">
-        <f>L45*4</f>
-        <v/>
-      </c>
-      <c r="O45">
-        <f>IF(N45=1,1,"")</f>
-        <v/>
-      </c>
-      <c r="Q45">
-        <f>IF(N45=3,1,"")</f>
-        <v/>
-      </c>
-      <c r="AA45" t="inlineStr">
-        <is>
-          <t>https://twitter.com/TravelPanamaNew/status/1318280935570329611?s=20</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="F46" s="1" t="n">
-        <v>44123</v>
-      </c>
-      <c r="G46" s="2" t="inlineStr"/>
-      <c r="H46" t="inlineStr"/>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>Entrevista a Jaime Carrizo, presidente de ADEDAPP, sobre Expo Feria de la Asociación de Empresas del Área Panamá Pacífico</t>
-        </is>
-      </c>
-      <c r="K46" t="n">
-        <v>38</v>
-      </c>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46">
-        <f>L46*4</f>
-        <v/>
-      </c>
-      <c r="O46">
-        <f>IF(N46=1,1,"")</f>
-        <v/>
-      </c>
-      <c r="Q46">
-        <f>IF(N46=3,1,"")</f>
-        <v/>
-      </c>
-      <c r="AA46" t="inlineStr">
-        <is>
-          <t>No NEXTV 245 segundos</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="F47" s="1" t="n">
-        <v>44123</v>
-      </c>
-      <c r="G47" s="2" t="inlineStr">
-        <is>
-          <t>Web</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr"/>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>1 página</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>Entrevista a Jaime Carrizo, presidente de ADEDAPP, sobre Expo Feria de la Asociación de Empresas del Área Panamá Pacífico</t>
-        </is>
-      </c>
-      <c r="K47" t="n">
-        <v>39</v>
-      </c>
-      <c r="L47">
-        <f>IF(N47=3, 750, IF(N47=1, 1000, ""))</f>
-        <v/>
-      </c>
-      <c r="M47">
-        <f>L47*4</f>
-        <v/>
-      </c>
-      <c r="O47">
-        <f>IF(N47=1,1,"")</f>
-        <v/>
-      </c>
-      <c r="Q47">
-        <f>IF(N47=3,1,"")</f>
-        <v/>
-      </c>
-      <c r="AA47" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=mNC2lC4ALFY</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="F48" s="1" t="n">
-        <v>44123</v>
-      </c>
-      <c r="G48" s="2" t="inlineStr">
-        <is>
-          <t>Web</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr"/>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>1 página</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>Entrevista a Jaime Carrizo, presidente de ADEDAPP, sobre Expo Feria de la Asociación de Empresas del Área Panamá Pacífico</t>
-        </is>
-      </c>
-      <c r="K48" t="n">
-        <v>40</v>
-      </c>
-      <c r="L48">
-        <f>IF(N48=3, 750, IF(N48=1, 1000, ""))</f>
-        <v/>
-      </c>
-      <c r="M48">
-        <f>L48*4</f>
-        <v/>
-      </c>
-      <c r="O48">
-        <f>IF(N48=1,1,"")</f>
-        <v/>
-      </c>
-      <c r="Q48">
-        <f>IF(N48=3,1,"")</f>
-        <v/>
-      </c>
-      <c r="AA48" t="inlineStr">
-        <is>
-          <t>https://nexnoticias.ruplayers.com/04B6ltCmaHGAfo0/entrevista-a-jaime-carrizo-presidente-de-la-asoc-adedapp.html</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="F49" s="1" t="n">
-        <v>44123</v>
-      </c>
-      <c r="G49" s="2" t="inlineStr">
-        <is>
-          <t>Web</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr"/>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>1 página</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>Entrevista a Jaime Carrizo, presidente de ADEDAPP, sobre Expo Feria de la Asociación de Empresas del Área Panamá Pacífico</t>
-        </is>
-      </c>
-      <c r="K49" t="n">
-        <v>41</v>
-      </c>
-      <c r="L49">
-        <f>IF(N49=3, 750, IF(N49=1, 1000, ""))</f>
-        <v/>
-      </c>
-      <c r="M49">
-        <f>L49*4</f>
-        <v/>
-      </c>
-      <c r="O49">
-        <f>IF(N49=1,1,"")</f>
-        <v/>
-      </c>
-      <c r="Q49">
-        <f>IF(N49=3,1,"")</f>
-        <v/>
-      </c>
-      <c r="AA49" t="inlineStr">
-        <is>
-          <t>https://pa.domiplay.net/video/entrevista-a-jaime-carrizo-presidente-19-10-20-nex-mnclfy</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="F50" s="1" t="n">
-        <v>44123</v>
-      </c>
-      <c r="G50" s="2" t="inlineStr">
-        <is>
-          <t>Web</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>1 página</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>Entrevista a Jaime Carrizo, presidente de ADEDAPP, sobre Expo Feria de la Asociación de Empresas del Área Panamá Pacífico</t>
-        </is>
-      </c>
-      <c r="K50" t="n">
-        <v>42</v>
-      </c>
-      <c r="L50">
-        <f>IF(N50=3, 750, IF(N50=1, 1000, ""))</f>
-        <v/>
-      </c>
-      <c r="M50">
-        <f>L50*4</f>
-        <v/>
-      </c>
-      <c r="O50">
-        <f>IF(N50=1,1,"")</f>
-        <v/>
-      </c>
-      <c r="Q50">
-        <f>IF(N50=3,1,"")</f>
-        <v/>
-      </c>
-      <c r="AA50" t="inlineStr">
-        <is>
-          <t>https://www.dailymotion.com/video/x7wxvej</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="F51" s="1" t="n">
-        <v>44123</v>
-      </c>
-      <c r="G51" s="2" t="inlineStr"/>
-      <c r="H51" t="inlineStr"/>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>Entrevista a Juan Mckay sobre Expo Feria de la Asociación de Empresas del Área Panamá Pacífico</t>
-        </is>
-      </c>
-      <c r="K51" t="n">
-        <v>43</v>
-      </c>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51">
-        <f>L51*4</f>
-        <v/>
-      </c>
-      <c r="O51">
-        <f>IF(N51=1,1,"")</f>
-        <v/>
-      </c>
-      <c r="Q51">
-        <f>IF(N51=3,1,"")</f>
-        <v/>
-      </c>
-      <c r="AA51" t="inlineStr">
-        <is>
-          <t>No TVN 65 segundos</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="F52" s="1" t="n">
-        <v>44123</v>
-      </c>
-      <c r="G52" s="2" t="inlineStr">
-        <is>
-          <t>Twitter</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr"/>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>1 post</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>Entrevista a Juan Mckay sobre Expo Feria de la Asociación de Empresas del Área Panamá Pacífico</t>
-        </is>
-      </c>
-      <c r="K52" t="n">
-        <v>44</v>
-      </c>
-      <c r="L52" t="n">
-        <v>500</v>
-      </c>
-      <c r="M52">
-        <f>L52*4</f>
-        <v/>
-      </c>
-      <c r="O52">
-        <f>IF(N52=1,1,"")</f>
-        <v/>
-      </c>
-      <c r="Q52">
-        <f>IF(N52=3,1,"")</f>
-        <v/>
-      </c>
-      <c r="AA52" t="inlineStr">
-        <is>
-          <t>https://twitter.com/tvnnoticias/status/1318343401952215040?s=19</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="F53" s="1" t="n">
-        <v>44123</v>
-      </c>
-      <c r="G53" s="2" t="inlineStr"/>
-      <c r="H53" t="inlineStr"/>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>Entrevista a Jaime Carrizo, presidente de ADEDAPP, sobre Expo Feria de la Asociación de Empresas del Área Panamá Pacífico</t>
-        </is>
-      </c>
-      <c r="K53" t="n">
-        <v>45</v>
-      </c>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53">
-        <f>L53*4</f>
-        <v/>
-      </c>
-      <c r="O53">
-        <f>IF(N53=1,1,"")</f>
-        <v/>
-      </c>
-      <c r="Q53">
-        <f>IF(N53=3,1,"")</f>
-        <v/>
-      </c>
-      <c r="AA53" t="inlineStr">
-        <is>
-          <t>No ECOTV 60 segundos</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="F54" s="1" t="n">
-        <v>44126</v>
-      </c>
-      <c r="G54" s="2" t="inlineStr"/>
-      <c r="H54" t="inlineStr"/>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>Entrevista a Jaime Carrizo, presidente de ADEDAPP, sobre Expo Feria de la Asociación de Empresas del Área Panamá Pacífico</t>
-        </is>
-      </c>
-      <c r="K54" t="n">
-        <v>46</v>
-      </c>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54">
-        <f>L54*4</f>
-        <v/>
-      </c>
-      <c r="O54">
-        <f>IF(N54=1,1,"")</f>
-        <v/>
-      </c>
-      <c r="Q54">
-        <f>IF(N54=3,1,"")</f>
-        <v/>
-      </c>
-      <c r="AA54" t="inlineStr">
-        <is>
-          <t>No La Exitosa 900 segundos</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>Entrevista a Kemmy Almengor sobre Expo Feria de la Asociación de Empresas del Área Panamá Pacífico</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>Entrevista a Kemmy Almengor sobre Expo Feria de la Asociación de Empresas del Área Panamá Pacífico</t>
+          <t>No Radio Panamá - programa la ventana 1200</t>
         </is>
       </c>
     </row>
@@ -2345,27 +1679,6 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G31" r:id="rId23"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G32" r:id="rId24"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G33" r:id="rId25"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G34" r:id="rId26"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G35" r:id="rId27"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G36" r:id="rId28"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G37" r:id="rId29"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G38" r:id="rId30"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G39" r:id="rId31"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G40" r:id="rId32"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G41" r:id="rId33"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G42" r:id="rId34"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G43" r:id="rId35"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G44" r:id="rId36"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G45" r:id="rId37"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G46" r:id="rId38"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G47" r:id="rId39"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G48" r:id="rId40"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G49" r:id="rId41"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G50" r:id="rId42"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G51" r:id="rId43"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G52" r:id="rId44"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G53" r:id="rId45"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G54" r:id="rId46"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Excel Terminado.xlsx
+++ b/Excel Terminado.xlsx
@@ -330,7 +330,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="D9:AA33"/>
+  <dimension ref="D9:AA34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -341,16 +341,16 @@
     <row r="9">
       <c r="D9" t="inlineStr">
         <is>
-          <t>Mención de Marca 1</t>
+          <t>Nota de prensa 1 (mes anterior)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Mención de Fundación Primer Mundo</t>
+          <t>Calles más seguras en Panamá gracias a una alianza entre Tambor, S.A. y Encuentra24</t>
         </is>
       </c>
       <c r="F9" s="1" t="n">
-        <v>44105</v>
+        <v>44168</v>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
@@ -365,7 +365,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Fundación Panamá Primer Mundo pide a la CNRE fortalecer la institucionalidad democrática</t>
+          <t>Gracias a una alianza entre Tambor, S.A. y Encuentra24 Panamá tendrá calles más seguras</t>
         </is>
       </c>
       <c r="K9" t="n">
@@ -383,52 +383,46 @@
         <f>IF(N9=1,1,"")</f>
         <v/>
       </c>
+      <c r="P9">
+        <f>IF(N9=2,1,"")</f>
+        <v/>
+      </c>
       <c r="Q9">
         <f>IF(N9=3,1,"")</f>
         <v/>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>https://ensegundos.com.pa/2020/10/01/fundacion-panama-primer-mundo-pide-a-la-cnre-fortalecer-la-institucionalidad-democratica/</t>
+          <t>https://somosimpactopositivo.com/impactando-en-positivo/alianza-tambor/</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="D10" t="inlineStr">
         <is>
-          <t>Mención de Marca 1</t>
+          <t>Entrevista 1</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Mención de Fundación Primer Mundo</t>
+          <t>Entrevista a Wendy Jordan sobre los Consejos de seguridad para realizar transacciones en las plataformas digitales</t>
         </is>
       </c>
       <c r="F10" s="1" t="n">
-        <v>44105</v>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>Twitter</t>
-        </is>
-      </c>
+        <v>44169</v>
+      </c>
+      <c r="G10" s="2" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>1 post</t>
-        </is>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Fundación Panamá Primer Mundo pide a la CNRE fortalecer la institucionalidad democrática</t>
+          <t>Entrevista a Wendy Jordan sobre los Consejos de seguridad para realizar transacciones en las plataformas digitales</t>
         </is>
       </c>
       <c r="K10" t="n">
         <v>2</v>
       </c>
-      <c r="L10" t="n">
-        <v>500</v>
-      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10">
         <f>L10*4</f>
         <v/>
@@ -437,29 +431,33 @@
         <f>IF(N10=1,1,"")</f>
         <v/>
       </c>
+      <c r="P10">
+        <f>IF(N10=2,1,"")</f>
+        <v/>
+      </c>
       <c r="Q10">
         <f>IF(N10=3,1,"")</f>
         <v/>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>https://twitter.com/ensegundos_pa/status/1311761153933090818?s=20</t>
+          <t>No NEXTV 261 segundos</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="D11" t="inlineStr">
         <is>
-          <t>Mención de Marca 1</t>
+          <t>Entrevista 1</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Mención de Fundación Primer Mundo</t>
+          <t>Entrevista a Wendy Jordan sobre los Consejos de seguridad para realizar transacciones en las plataformas digitales</t>
         </is>
       </c>
       <c r="F11" s="1" t="n">
-        <v>44105</v>
+        <v>44169</v>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
@@ -474,7 +472,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Fundación Panamá Primer Mundo sugiere que las campañas electorales sean financiadas por el estado</t>
+          <t>Entrevista a Wendy Jordan sobre los Consejos de seguridad para realizar transacciones en las plataformas digitales</t>
         </is>
       </c>
       <c r="K11" t="n">
@@ -492,51 +490,56 @@
         <f>IF(N11=1,1,"")</f>
         <v/>
       </c>
+      <c r="P11">
+        <f>IF(N11=2,1,"")</f>
+        <v/>
+      </c>
       <c r="Q11">
         <f>IF(N11=3,1,"")</f>
         <v/>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>https://destinopanama.com.pa/2020/10/01/fundacion-panama-primer-mundo-sugiere-que-las-campanas-electorales-sean-financiadas-por-el-estado/</t>
+          <t>https://www.youtube.com/watch?v=ueoQMX8Up6A</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="D12" t="inlineStr">
         <is>
-          <t>Mención de Marca 1</t>
+          <t>Entrevista 1</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Mención de Fundación Primer Mundo</t>
+          <t>Entrevista a Wendy Jordan sobre los Consejos de seguridad para realizar transacciones en las plataformas digitales</t>
         </is>
       </c>
       <c r="F12" s="1" t="n">
-        <v>44105</v>
+        <v>44169</v>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>Twitter</t>
+          <t>Web</t>
         </is>
       </c>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
         <is>
-          <t>1 post</t>
+          <t>1 página</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Fundación Panamá Primer Mundo sugiere que las campañas electorales sean financiadas por el estado</t>
+          <t>Entrevista a Wendy Jordan sobre los Consejos de seguridad para realizar transacciones en las plataformas digitales</t>
         </is>
       </c>
       <c r="K12" t="n">
         <v>4</v>
       </c>
-      <c r="L12" t="n">
-        <v>500</v>
+      <c r="L12">
+        <f>IF(N12=3, 750, IF(N12=1, 1000, ""))</f>
+        <v/>
       </c>
       <c r="M12">
         <f>L12*4</f>
@@ -546,51 +549,56 @@
         <f>IF(N12=1,1,"")</f>
         <v/>
       </c>
+      <c r="P12">
+        <f>IF(N12=2,1,"")</f>
+        <v/>
+      </c>
       <c r="Q12">
         <f>IF(N12=3,1,"")</f>
         <v/>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>https://twitter.com/Destinopanam/status/1311811387782565888?s=20</t>
+          <t>https://www.dailymotion.com/video/x7xxnvn</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="D13" t="inlineStr">
         <is>
-          <t>Mención de Marca 1</t>
+          <t>Entrevista 1</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Mención de Fundación Primer Mundo</t>
+          <t>Entrevista a Wendy Jordan sobre los Consejos de seguridad para realizar transacciones en las plataformas digitales</t>
         </is>
       </c>
       <c r="F13" s="1" t="n">
-        <v>44105</v>
+        <v>44169</v>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>Twitter</t>
+          <t>Web</t>
         </is>
       </c>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr">
         <is>
-          <t>1 post</t>
+          <t>1 página</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Fundación Panamá Primer Mundo sugiere que las campañas electorales sean financiadas por el estado</t>
+          <t>Entrevista a Wendy Jordan sobre los Consejos de seguridad para realizar transacciones en las plataformas digitales</t>
         </is>
       </c>
       <c r="K13" t="n">
         <v>5</v>
       </c>
-      <c r="L13" t="n">
-        <v>500</v>
+      <c r="L13">
+        <f>IF(N13=3, 750, IF(N13=1, 1000, ""))</f>
+        <v/>
       </c>
       <c r="M13">
         <f>L13*4</f>
@@ -600,29 +608,33 @@
         <f>IF(N13=1,1,"")</f>
         <v/>
       </c>
+      <c r="P13">
+        <f>IF(N13=2,1,"")</f>
+        <v/>
+      </c>
       <c r="Q13">
         <f>IF(N13=3,1,"")</f>
         <v/>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>https://twitter.com/Destinopanam/status/1311811464441798657?s=20</t>
+          <t>https://pa.domiplay.net/video/entrevista-a-wendy-jordan-experta-04-12-20-nex-ueop6a</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="D14" t="inlineStr">
         <is>
-          <t>Nota de Prensa 1</t>
+          <t>Entrevista 1</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Enviar invitación y material sobre el foro “¿Cómo lograr la excelencia educativa? La experiencia alemana”</t>
+          <t>Entrevista a Wendy Jordan sobre los Consejos de seguridad para realizar transacciones en las plataformas digitales</t>
         </is>
       </c>
       <c r="F14" s="1" t="n">
-        <v>44126</v>
+        <v>44169</v>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
@@ -637,7 +649,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Foro “¿Cómo lograr la excelencia educativa? La experiencia alemana”</t>
+          <t>Entrevista a Wendy Jordan sobre los Consejos de seguridad para realizar transacciones en las plataformas digitales</t>
         </is>
       </c>
       <c r="K14" t="n">
@@ -655,52 +667,55 @@
         <f>IF(N14=1,1,"")</f>
         <v/>
       </c>
+      <c r="P14">
+        <f>IF(N14=2,1,"")</f>
+        <v/>
+      </c>
       <c r="Q14">
         <f>IF(N14=3,1,"")</f>
         <v/>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>http://www.entiempopanama.com/eventos/76-foro-como-lograr-la-excelencia-educativa.html</t>
+          <t>https://www.destunes.fr/entrevista-a-wendy-jordan-experta-en-e-commerce_dc1f3b76f.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="D15" t="inlineStr">
         <is>
-          <t>Nota de Prensa 1</t>
+          <t>Entrevista 1</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Enviar invitación y material sobre el foro “¿Cómo lograr la excelencia educativa? La experiencia alemana”</t>
+          <t>Entrevista a Wendy Jordan sobre los Consejos de seguridad para realizar transacciones en las plataformas digitales</t>
         </is>
       </c>
       <c r="F15" s="1" t="n">
-        <v>44128</v>
+        <v>44170</v>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>Web</t>
+          <t>Twitter</t>
         </is>
       </c>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
         <is>
-          <t>1 página</t>
+          <t>1 post</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Foro “¿Cómo lograr la excelencia educativa? La experiencia alemana”</t>
+          <t>Entrevista a Wendy Jordan sobre los Consejos de seguridad para realizar transacciones en las plataformas digitales</t>
         </is>
       </c>
       <c r="K15" t="n">
         <v>7</v>
       </c>
-      <c r="L15">
-        <f>IF(N15=3, 750, IF(N15=1, 1000, ""))</f>
-        <v/>
+      <c r="L15" t="n">
+        <v>500</v>
       </c>
       <c r="M15">
         <f>L15*4</f>
@@ -710,53 +725,46 @@
         <f>IF(N15=1,1,"")</f>
         <v/>
       </c>
+      <c r="P15">
+        <f>IF(N15=2,1,"")</f>
+        <v/>
+      </c>
       <c r="Q15">
         <f>IF(N15=3,1,"")</f>
         <v/>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>https://panamahoy.net/?p=11945</t>
+          <t>https://twitter.com/nexnoticias/status/1335222792657244161?s=20</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="D16" t="inlineStr">
         <is>
-          <t>Nota de Prensa 1</t>
+          <t>Entrevista 2</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Enviar invitación y material sobre el foro “¿Cómo lograr la excelencia educativa? La experiencia alemana”</t>
+          <t>La Evolución de los negocios tradicionales a una plataforma digital con Alberto Grajales</t>
         </is>
       </c>
       <c r="F16" s="1" t="n">
-        <v>44127</v>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>Web</t>
-        </is>
-      </c>
+        <v>44172</v>
+      </c>
+      <c r="G16" s="2" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>1 página</t>
-        </is>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Panamá necesita una educación reflexiva y crítica</t>
+          <t>La Evolución de los negocios tradicionales a una plataforma digital con Alberto Grajales</t>
         </is>
       </c>
       <c r="K16" t="n">
         <v>8</v>
       </c>
-      <c r="L16">
-        <f>IF(N16=3, 750, IF(N16=1, 1000, ""))</f>
-        <v/>
-      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="M16">
         <f>L16*4</f>
         <v/>
@@ -765,29 +773,33 @@
         <f>IF(N16=1,1,"")</f>
         <v/>
       </c>
+      <c r="P16">
+        <f>IF(N16=2,1,"")</f>
+        <v/>
+      </c>
       <c r="Q16">
         <f>IF(N16=3,1,"")</f>
         <v/>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>https://www.laverdadpanama.com.pa/panama-necesita-una-educacion-reflexiva-y-critica/</t>
+          <t>No NEXTV 322</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="D17" t="inlineStr">
         <is>
-          <t>Nota de Prensa 1</t>
+          <t>Entrevista 2</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Enviar invitación y material sobre el foro “¿Cómo lograr la excelencia educativa? La experiencia alemana”</t>
+          <t>La Evolución de los negocios tradicionales a una plataforma digital con Alberto Grajales</t>
         </is>
       </c>
       <c r="F17" s="1" t="n">
-        <v>44127</v>
+        <v>44172</v>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
@@ -802,7 +814,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Panamá necesita una educación reflexiva y crítica</t>
+          <t>La Evolución de los negocios tradicionales a una plataforma digital con Alberto Grajales</t>
         </is>
       </c>
       <c r="K17" t="n">
@@ -820,51 +832,56 @@
         <f>IF(N17=1,1,"")</f>
         <v/>
       </c>
+      <c r="P17">
+        <f>IF(N17=2,1,"")</f>
+        <v/>
+      </c>
       <c r="Q17">
         <f>IF(N17=3,1,"")</f>
         <v/>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>https://ensegundos.com.pa/2020/10/23/panama-necesita-una-educacion-reflexiva-y-critica/</t>
+          <t>https://www.youtube.com/watch?v=izT_IuzA8FQ</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="D18" t="inlineStr">
         <is>
-          <t>Nota de Prensa 1</t>
+          <t>Entrevista 2</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Enviar invitación y material sobre el foro “¿Cómo lograr la excelencia educativa? La experiencia alemana”</t>
+          <t>La Evolución de los negocios tradicionales a una plataforma digital con Alberto Grajales</t>
         </is>
       </c>
       <c r="F18" s="1" t="n">
-        <v>44127</v>
+        <v>44172</v>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>Twitter</t>
+          <t>Web</t>
         </is>
       </c>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
-          <t>1 post</t>
+          <t>1 página</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Panamá necesita una educación reflexiva y crítica</t>
+          <t>La Evolución de los negocios tradicionales a una plataforma digital con Alberto Grajales</t>
         </is>
       </c>
       <c r="K18" t="n">
         <v>10</v>
       </c>
-      <c r="L18" t="n">
-        <v>500</v>
+      <c r="L18">
+        <f>IF(N18=3, 750, IF(N18=1, 1000, ""))</f>
+        <v/>
       </c>
       <c r="M18">
         <f>L18*4</f>
@@ -874,29 +891,33 @@
         <f>IF(N18=1,1,"")</f>
         <v/>
       </c>
+      <c r="P18">
+        <f>IF(N18=2,1,"")</f>
+        <v/>
+      </c>
       <c r="Q18">
         <f>IF(N18=3,1,"")</f>
         <v/>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>https://twitter.com/ensegundos_pa/status/1319747834812502018?s=20</t>
+          <t>https://www.dailymotion.com/video/x7xz8af</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="D19" t="inlineStr">
         <is>
-          <t>Mención de Marca 2</t>
+          <t>Entrevista 2</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Mención de Fundación Serenamente</t>
+          <t>La Evolución de los negocios tradicionales a una plataforma digital con Alberto Grajales</t>
         </is>
       </c>
       <c r="F19" s="1" t="n">
-        <v>44111</v>
+        <v>44172</v>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
@@ -911,7 +932,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Conoce la labor de la Fundación Serenamente</t>
+          <t>La Evolución de los negocios tradicionales a una plataforma digital con Alberto Grajales</t>
         </is>
       </c>
       <c r="K19" t="n">
@@ -929,42 +950,57 @@
         <f>IF(N19=1,1,"")</f>
         <v/>
       </c>
+      <c r="P19">
+        <f>IF(N19=2,1,"")</f>
+        <v/>
+      </c>
       <c r="Q19">
         <f>IF(N19=3,1,"")</f>
         <v/>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>https://somosimpactopositivo.com/gente-que-inspira/fundacion-serenamente/</t>
+          <t>https://pa.domiplay.net/video/entrevista-a-alberto-grajales-sobre-07-12-20-nex-izt8fq</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="D20" t="inlineStr">
         <is>
-          <t>Mención de Marca 2</t>
+          <t>Nota de Prensa 2</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Mención de Fundación Serenamente</t>
+          <t>La transformación digital del sector inmobiliario se acelera por la pandemia</t>
         </is>
       </c>
       <c r="F20" s="1" t="n">
-        <v>44126</v>
-      </c>
-      <c r="G20" s="2" t="inlineStr"/>
+        <v>44176</v>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>Web</t>
+        </is>
+      </c>
       <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>1 página</t>
+        </is>
+      </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Conoce la labor de la Fundación Serenamente</t>
+          <t>La transformación digital del sector inmobiliario se acelera por la pandemia</t>
         </is>
       </c>
       <c r="K20" t="n">
         <v>12</v>
       </c>
-      <c r="L20" t="inlineStr"/>
+      <c r="L20">
+        <f>IF(N20=3, 750, IF(N20=1, 1000, ""))</f>
+        <v/>
+      </c>
       <c r="M20">
         <f>L20*4</f>
         <v/>
@@ -973,29 +1009,33 @@
         <f>IF(N20=1,1,"")</f>
         <v/>
       </c>
+      <c r="P20">
+        <f>IF(N20=2,1,"")</f>
+        <v/>
+      </c>
       <c r="Q20">
         <f>IF(N20=3,1,"")</f>
         <v/>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>No La estrella</t>
+          <t>https://riducaonline.com/2020/12/11/la-transformacion-digital-del-sector-inmobiliario-se-acelera-por-la-pandemia/</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="D21" t="inlineStr">
         <is>
-          <t>Mención de Marca 2</t>
+          <t>Nota de Prensa 2</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Mención de Fundación Serenamente</t>
+          <t>La transformación digital del sector inmobiliario se acelera por la pandemia</t>
         </is>
       </c>
       <c r="F21" s="1" t="n">
-        <v>44126</v>
+        <v>44176</v>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
@@ -1010,7 +1050,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Conoce la labor de la Fundación Serenamente</t>
+          <t>La transformación digital del sector inmobiliario se acelera por la pandemia</t>
         </is>
       </c>
       <c r="K21" t="n">
@@ -1028,52 +1068,55 @@
         <f>IF(N21=1,1,"")</f>
         <v/>
       </c>
+      <c r="P21">
+        <f>IF(N21=2,1,"")</f>
+        <v/>
+      </c>
       <c r="Q21">
         <f>IF(N21=3,1,"")</f>
         <v/>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>https://www.laestrella.com.pa/opinion/la-llorona/201022/llorona-22-octubre-2020</t>
+          <t>https://www.diaadia.com.pa/relax/la-transformacion-digital-del-sector-inmobiliario-se-acelera-por-la-pandemia-373346</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="D22" t="inlineStr">
         <is>
-          <t>Mención de Marca 2</t>
+          <t>Nota de Prensa 2</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Mención de Fundación Serenamente</t>
+          <t>La transformación digital del sector inmobiliario se acelera por la pandemia</t>
         </is>
       </c>
       <c r="F22" s="1" t="n">
-        <v>44126</v>
+        <v>44176</v>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>Web</t>
+          <t>Twitter</t>
         </is>
       </c>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
-          <t>1 página</t>
+          <t>1 post</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Conoce la labor de la Fundación Serenamente</t>
+          <t>La transformación digital del sector inmobiliario se acelera por la pandemia</t>
         </is>
       </c>
       <c r="K22" t="n">
         <v>14</v>
       </c>
-      <c r="L22">
-        <f>IF(N22=3, 750, IF(N22=1, 1000, ""))</f>
-        <v/>
+      <c r="L22" t="n">
+        <v>500</v>
       </c>
       <c r="M22">
         <f>L22*4</f>
@@ -1083,52 +1126,55 @@
         <f>IF(N22=1,1,"")</f>
         <v/>
       </c>
+      <c r="P22">
+        <f>IF(N22=2,1,"")</f>
+        <v/>
+      </c>
       <c r="Q22">
         <f>IF(N22=3,1,"")</f>
         <v/>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>https://calidoscopio.life/2020/10/22/excelencia-educativa-utopia-del-primer-mundo/</t>
+          <t>https://twitter.com/DiaaDiaPa/status/1337498586599350273?s=20</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="D23" t="inlineStr">
         <is>
-          <t>Mención de Marca 2</t>
+          <t>Nota de Prensa 2</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Mención de Fundación Serenamente</t>
+          <t>La transformación digital del sector inmobiliario se acelera por la pandemia</t>
         </is>
       </c>
       <c r="F23" s="1" t="n">
-        <v>44129</v>
+        <v>44176</v>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>Web</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
-          <t>1 página</t>
+          <t>1 post</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Conoce la labor de la Fundación Serenamente</t>
+          <t>La transformación digital del sector inmobiliario se acelera por la pandemia</t>
         </is>
       </c>
       <c r="K23" t="n">
         <v>15</v>
       </c>
-      <c r="L23">
-        <f>IF(N23=3, 750, IF(N23=1, 1000, ""))</f>
-        <v/>
+      <c r="L23" t="n">
+        <v>500</v>
       </c>
       <c r="M23">
         <f>L23*4</f>
@@ -1138,51 +1184,56 @@
         <f>IF(N23=1,1,"")</f>
         <v/>
       </c>
+      <c r="P23">
+        <f>IF(N23=2,1,"")</f>
+        <v/>
+      </c>
       <c r="Q23">
         <f>IF(N23=3,1,"")</f>
         <v/>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>https://www.laestrella.com.pa/deportes/cocteldeportivo/201024/buen-gobierno-finalizara-ano-2020-ley-mejorar-deporte</t>
+          <t>https://www.instagram.com/p/CIqJsupncX2/?igshid=1ob0lks4a6kzp</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="D24" t="inlineStr">
         <is>
-          <t>Mención de Marca 2</t>
+          <t>Nota de Prensa 2</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Mención de Fundación Serenamente</t>
+          <t>La transformación digital del sector inmobiliario se acelera por la pandemia</t>
         </is>
       </c>
       <c r="F24" s="1" t="n">
-        <v>44129</v>
+        <v>44189</v>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>Twitter</t>
+          <t>Web</t>
         </is>
       </c>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
-          <t>1 post</t>
+          <t>1 página</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Conoce la labor de la Fundación Serenamente</t>
+          <t>La transformación digital del sector inmobiliario se acelera por la pandemia</t>
         </is>
       </c>
       <c r="K24" t="n">
         <v>16</v>
       </c>
-      <c r="L24" t="n">
-        <v>500</v>
+      <c r="L24">
+        <f>IF(N24=3, 750, IF(N24=1, 1000, ""))</f>
+        <v/>
       </c>
       <c r="M24">
         <f>L24*4</f>
@@ -1192,53 +1243,46 @@
         <f>IF(N24=1,1,"")</f>
         <v/>
       </c>
+      <c r="P24">
+        <f>IF(N24=2,1,"")</f>
+        <v/>
+      </c>
       <c r="Q24">
         <f>IF(N24=3,1,"")</f>
         <v/>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>https://twitter.com/ReportoCA/status/1320232489093386240?s=20</t>
+          <t>https://somosimpactopositivo.com/impacto-economico/sector-inmobiliario-digital/</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="D25" t="inlineStr">
         <is>
-          <t>Mención de Marca 2</t>
+          <t>Entrevista 3</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Mención de Fundación Serenamente</t>
+          <t>Entrevista a Wendy Jordan sobre los Consejos de seguridad para realizar transacciones en las plataformas digitales</t>
         </is>
       </c>
       <c r="F25" s="1" t="n">
-        <v>44127</v>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>Web</t>
-        </is>
-      </c>
+        <v>44179</v>
+      </c>
+      <c r="G25" s="2" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>1 página</t>
-        </is>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Conoce la labor de la Fundación Serenamente</t>
+          <t>Entrevista a Wendy Jordan sobre los Consejos de seguridad para realizar transacciones en las plataformas digitales</t>
         </is>
       </c>
       <c r="K25" t="n">
         <v>17</v>
       </c>
-      <c r="L25">
-        <f>IF(N25=3, 750, IF(N25=1, 1000, ""))</f>
-        <v/>
-      </c>
+      <c r="L25" t="inlineStr"/>
       <c r="M25">
         <f>L25*4</f>
         <v/>
@@ -1247,33 +1291,37 @@
         <f>IF(N25=1,1,"")</f>
         <v/>
       </c>
+      <c r="P25">
+        <f>IF(N25=2,1,"")</f>
+        <v/>
+      </c>
       <c r="Q25">
         <f>IF(N25=3,1,"")</f>
         <v/>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>https://www.laestrella.com.pa/nacional/201023/panama-cambiar-ensenanza-memoristica-barril-dar-salto-cualitativo</t>
+          <t>No RPC RADIO 465 segundos</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="D26" t="inlineStr">
         <is>
-          <t>Mención de Marca 2</t>
+          <t>Entrevista 3</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Mención de Fundación Serenamente</t>
+          <t>Entrevista a Wendy Jordan sobre los Consejos de seguridad para realizar transacciones en las plataformas digitales</t>
         </is>
       </c>
       <c r="F26" s="1" t="n">
-        <v>44128</v>
+        <v>44179</v>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>Twitter</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="H26" t="inlineStr"/>
@@ -1284,7 +1332,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Conoce la labor de la Fundación Serenamente</t>
+          <t>Entrevista a Wendy Jordan sobre los Consejos de seguridad para realizar transacciones en las plataformas digitales</t>
         </is>
       </c>
       <c r="K26" t="n">
@@ -1301,36 +1349,40 @@
         <f>IF(N26=1,1,"")</f>
         <v/>
       </c>
+      <c r="P26">
+        <f>IF(N26=2,1,"")</f>
+        <v/>
+      </c>
       <c r="Q26">
         <f>IF(N26=3,1,"")</f>
         <v/>
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>https://twitter.com/EstrellaOnline/status/1319903968013750272?s=20</t>
+          <t>https://www.facebook.com/rpcradio/videos/238027684410877/</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="D27" t="inlineStr">
         <is>
-          <t>Entrevista 1</t>
+          <t>Entrevista 4</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Entrevista a Jorge Gamboa sobre Fundación Primer Mundo</t>
+          <t>La Evolución de los negocios tradicionales a una plataforma digital con Alberto Grajales</t>
         </is>
       </c>
       <c r="F27" s="1" t="n">
-        <v>44105</v>
+        <v>44179</v>
       </c>
       <c r="G27" s="2" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Entrevista a Jorge Gamboa sobre Fundación Primer Mundo</t>
+          <t>La Evolución de los negocios tradicionales a una plataforma digital con Alberto Grajales</t>
         </is>
       </c>
       <c r="K27" t="n">
@@ -1345,53 +1397,46 @@
         <f>IF(N27=1,1,"")</f>
         <v/>
       </c>
+      <c r="P27">
+        <f>IF(N27=2,1,"")</f>
+        <v/>
+      </c>
       <c r="Q27">
         <f>IF(N27=3,1,"")</f>
         <v/>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>No NEXTV 510</t>
+          <t>No FETV 600</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="D28" t="inlineStr">
         <is>
-          <t>Entrevista 1</t>
+          <t>Entrevista 5</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Entrevista a Jorge Gamboa sobre Fundación Primer Mundo</t>
+          <t>Entrevista a Wendy Jordan sobre Shoperia y el Mall Virtual</t>
         </is>
       </c>
       <c r="F28" s="1" t="n">
-        <v>44105</v>
-      </c>
-      <c r="G28" s="2" t="inlineStr">
-        <is>
-          <t>Web</t>
-        </is>
-      </c>
+        <v>44180</v>
+      </c>
+      <c r="G28" s="2" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>1 página</t>
-        </is>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Entrevista a Jorge Gamboa sobre Fundación Primer Mundo</t>
+          <t>Entrevista a Wendy Jordan sobre Shoperia y el Mall Virtual</t>
         </is>
       </c>
       <c r="K28" t="n">
         <v>20</v>
       </c>
-      <c r="L28">
-        <f>IF(N28=3, 750, IF(N28=1, 1000, ""))</f>
-        <v/>
-      </c>
+      <c r="L28" t="inlineStr"/>
       <c r="M28">
         <f>L28*4</f>
         <v/>
@@ -1400,53 +1445,46 @@
         <f>IF(N28=1,1,"")</f>
         <v/>
       </c>
+      <c r="P28">
+        <f>IF(N28=2,1,"")</f>
+        <v/>
+      </c>
       <c r="Q28">
         <f>IF(N28=3,1,"")</f>
         <v/>
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=GYrHiTtk3cU</t>
+          <t>No JELOU - TVN 480 segundos</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="D29" t="inlineStr">
         <is>
-          <t>Entrevista 1</t>
+          <t>Entrevista 6</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Entrevista a Jorge Gamboa sobre Fundación Primer Mundo</t>
+          <t>La Evolución de los negocios tradicionales a una plataforma digital con Alberto Grajales</t>
         </is>
       </c>
       <c r="F29" s="1" t="n">
-        <v>44105</v>
-      </c>
-      <c r="G29" s="2" t="inlineStr">
-        <is>
-          <t>Web</t>
-        </is>
-      </c>
+        <v>44183</v>
+      </c>
+      <c r="G29" s="2" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>1 página</t>
-        </is>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Entrevista a Jorge Gamboa sobre Fundación Primer Mundo</t>
+          <t>La Evolución de los negocios tradicionales a una plataforma digital con Alberto Grajales</t>
         </is>
       </c>
       <c r="K29" t="n">
         <v>21</v>
       </c>
-      <c r="L29">
-        <f>IF(N29=3, 750, IF(N29=1, 1000, ""))</f>
-        <v/>
-      </c>
+      <c r="L29" t="inlineStr"/>
       <c r="M29">
         <f>L29*4</f>
         <v/>
@@ -1455,29 +1493,33 @@
         <f>IF(N29=1,1,"")</f>
         <v/>
       </c>
+      <c r="P29">
+        <f>IF(N29=2,1,"")</f>
+        <v/>
+      </c>
       <c r="Q29">
         <f>IF(N29=3,1,"")</f>
         <v/>
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>https://www.dailymotion.com/video/x7wzmap</t>
+          <t>No RADIO PANAMÁ 172</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="D30" t="inlineStr">
         <is>
-          <t>Entrevista 1</t>
+          <t>Entrevista 6</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Entrevista a Jorge Gamboa sobre Fundación Primer Mundo</t>
+          <t>La Evolución de los negocios tradicionales a una plataforma digital con Alberto Grajales</t>
         </is>
       </c>
       <c r="F30" s="1" t="n">
-        <v>44105</v>
+        <v>44183</v>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
@@ -1492,7 +1534,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Entrevista a Jorge Gamboa sobre Fundación Primer Mundo</t>
+          <t>Plataformas digitales han sido punto clave para comercializar productos en medio de la pandemia</t>
         </is>
       </c>
       <c r="K30" t="n">
@@ -1510,36 +1552,40 @@
         <f>IF(N30=1,1,"")</f>
         <v/>
       </c>
+      <c r="P30">
+        <f>IF(N30=2,1,"")</f>
+        <v/>
+      </c>
       <c r="Q30">
         <f>IF(N30=3,1,"")</f>
         <v/>
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>https://pa.domiplay.net/video/entrevista-al-dr-jorge-gamboa-21-10-20-nex-gyr3cu</t>
+          <t>https://www.radiopanama.com.pa/noticias/actualidad/plataformas-digitales-han-sido-punto-clave-para-comercializar-productos-en-medio-de-la-pandemia/20201218/nota/4096370.aspx</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="D31" t="inlineStr">
         <is>
-          <t>Entrevista 2</t>
+          <t>Entrevista 6</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Entrevista a Jorge Gamboa sobre Fundación Primer Mundo</t>
+          <t>La Evolución de los negocios tradicionales a una plataforma digital con Alberto Grajales</t>
         </is>
       </c>
       <c r="F31" s="1" t="n">
-        <v>44105</v>
+        <v>44184</v>
       </c>
       <c r="G31" s="2" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Entrevista a Jorge Gamboa sobre Fundación Primer Mundo</t>
+          <t>La Evolución de los negocios tradicionales a una plataforma digital con Alberto Grajales</t>
         </is>
       </c>
       <c r="K31" t="n">
@@ -1554,42 +1600,56 @@
         <f>IF(N31=1,1,"")</f>
         <v/>
       </c>
+      <c r="P31">
+        <f>IF(N31=2,1,"")</f>
+        <v/>
+      </c>
       <c r="Q31">
         <f>IF(N31=3,1,"")</f>
         <v/>
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>No fetv 140</t>
+          <t>No RADIO PANAMÁ  172</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="D32" t="inlineStr">
         <is>
-          <t>Entrevista 3</t>
+          <t>Entrevista 6</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Entrevista a Jorge Gamboa sobre Fundación Primer Mundo</t>
+          <t>La Evolución de los negocios tradicionales a una plataforma digital con Alberto Grajales</t>
         </is>
       </c>
       <c r="F32" s="1" t="n">
-        <v>44105</v>
-      </c>
-      <c r="G32" s="2" t="inlineStr"/>
+        <v>44184</v>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>Twitter</t>
+        </is>
+      </c>
       <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>1 post</t>
+        </is>
+      </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Entrevista a Jorge Gamboa sobre Fundación Primer Mundo</t>
+          <t>Plataformas digitales han sido punto clave para comercializar productos en medio de la pandemia</t>
         </is>
       </c>
       <c r="K32" t="n">
         <v>24</v>
       </c>
-      <c r="L32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>500</v>
+      </c>
       <c r="M32">
         <f>L32*4</f>
         <v/>
@@ -1598,42 +1658,56 @@
         <f>IF(N32=1,1,"")</f>
         <v/>
       </c>
+      <c r="P32">
+        <f>IF(N32=2,1,"")</f>
+        <v/>
+      </c>
       <c r="Q32">
         <f>IF(N32=3,1,"")</f>
         <v/>
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>No kw continente 140</t>
+          <t>https://twitter.com/radiopanama/status/1340477016685068294?s=20</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="D33" t="inlineStr">
         <is>
-          <t>Entrevista 4</t>
+          <t>Entrevista 6</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Entrevista a Jorge Gamboa sobre Fundación Primer Mundo</t>
+          <t>La Evolución de los negocios tradicionales a una plataforma digital con Alberto Grajales</t>
         </is>
       </c>
       <c r="F33" s="1" t="n">
-        <v>44134</v>
-      </c>
-      <c r="G33" s="2" t="inlineStr"/>
+        <v>44185</v>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>Twitter</t>
+        </is>
+      </c>
       <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr"/>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>1 post</t>
+        </is>
+      </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Entrevista a Jorge Gamboa sobre Fundación Primer Mundo</t>
+          <t>Plataformas digitales han sido punto clave para comercializar productos en medio de la pandemia</t>
         </is>
       </c>
       <c r="K33" t="n">
         <v>25</v>
       </c>
-      <c r="L33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>500</v>
+      </c>
       <c r="M33">
         <f>L33*4</f>
         <v/>
@@ -1642,13 +1716,65 @@
         <f>IF(N33=1,1,"")</f>
         <v/>
       </c>
+      <c r="P33">
+        <f>IF(N33=2,1,"")</f>
+        <v/>
+      </c>
       <c r="Q33">
         <f>IF(N33=3,1,"")</f>
         <v/>
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>No Radio Panamá - programa la ventana 1200</t>
+          <t>https://twitter.com/radiopanama/status/1340633044651286529?s=20</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Entrevista 7</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>La Evolución de los negocios tradicionales a una plataforma digital con Alberto Grajales</t>
+        </is>
+      </c>
+      <c r="F34" s="1" t="n">
+        <v>44184</v>
+      </c>
+      <c r="G34" s="2" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Plataformas digitales han sido punto clave para comercializar productos en medio de la pandemia</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>26</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34">
+        <f>L34*4</f>
+        <v/>
+      </c>
+      <c r="O34">
+        <f>IF(N34=1,1,"")</f>
+        <v/>
+      </c>
+      <c r="P34">
+        <f>IF(N34=2,1,"")</f>
+        <v/>
+      </c>
+      <c r="Q34">
+        <f>IF(N34=3,1,"")</f>
+        <v/>
+      </c>
+      <c r="AA34" t="inlineStr">
+        <is>
+          <t>No Kw Continente 172</t>
         </is>
       </c>
     </row>
@@ -1679,6 +1805,7 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G31" r:id="rId23"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G32" r:id="rId24"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G33" r:id="rId25"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G34" r:id="rId26"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Excel Terminado.xlsx
+++ b/Excel Terminado.xlsx
@@ -330,7 +330,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="D9:AA34"/>
+  <dimension ref="D9:AA26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -341,16 +341,16 @@
     <row r="9">
       <c r="D9" t="inlineStr">
         <is>
-          <t>Nota de prensa 1 (mes anterior)</t>
+          <t>Nota de prensa 1</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Calles más seguras en Panamá gracias a una alianza entre Tambor, S.A. y Encuentra24</t>
+          <t>Hub Humanitario en Panamá Pacífico transformado en Centro de Atención de Crisis</t>
         </is>
       </c>
       <c r="F9" s="1" t="n">
-        <v>44168</v>
+        <v>44172</v>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
@@ -365,7 +365,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Gracias a una alianza entre Tambor, S.A. y Encuentra24 Panamá tendrá calles más seguras</t>
+          <t>Hub Humanitario en Panamá Pacífico transformado en Centro de Atención de Crisis</t>
         </is>
       </c>
       <c r="K9" t="n">
@@ -393,36 +393,46 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>https://somosimpactopositivo.com/impactando-en-positivo/alianza-tambor/</t>
+          <t>https://www.diaadia.com.pa/el-pais/hub-humanitario-en-panama-pacifico-transformado-en-centro-de-atencion-de-crisis-373202</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="D10" t="inlineStr">
         <is>
-          <t>Entrevista 1</t>
+          <t>Nota de prensa 1</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Entrevista a Wendy Jordan sobre los Consejos de seguridad para realizar transacciones en las plataformas digitales</t>
+          <t>Hub Humanitario en Panamá Pacífico transformado en Centro de Atención de Crisis</t>
         </is>
       </c>
       <c r="F10" s="1" t="n">
-        <v>44169</v>
-      </c>
-      <c r="G10" s="2" t="inlineStr"/>
+        <v>44172</v>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>Twitter</t>
+        </is>
+      </c>
       <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>1 post</t>
+        </is>
+      </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Entrevista a Wendy Jordan sobre los Consejos de seguridad para realizar transacciones en las plataformas digitales</t>
+          <t>Hub Humanitario en Panamá Pacífico transformado en Centro de Atención de Crisis</t>
         </is>
       </c>
       <c r="K10" t="n">
         <v>2</v>
       </c>
-      <c r="L10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>500</v>
+      </c>
       <c r="M10">
         <f>L10*4</f>
         <v/>
@@ -441,46 +451,45 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>No NEXTV 261 segundos</t>
+          <t>https://twitter.com/DiaaDiaPa/status/1336016025175863297?s=20</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="D11" t="inlineStr">
         <is>
-          <t>Entrevista 1</t>
+          <t>Nota de prensa 1</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Entrevista a Wendy Jordan sobre los Consejos de seguridad para realizar transacciones en las plataformas digitales</t>
+          <t>Hub Humanitario en Panamá Pacífico transformado en Centro de Atención de Crisis</t>
         </is>
       </c>
       <c r="F11" s="1" t="n">
-        <v>44169</v>
+        <v>44172</v>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>Web</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
         <is>
-          <t>1 página</t>
+          <t>1 post</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Entrevista a Wendy Jordan sobre los Consejos de seguridad para realizar transacciones en las plataformas digitales</t>
+          <t>Hub Humanitario en Panamá Pacífico transformado en Centro de Atención de Crisis</t>
         </is>
       </c>
       <c r="K11" t="n">
         <v>3</v>
       </c>
-      <c r="L11">
-        <f>IF(N11=3, 750, IF(N11=1, 1000, ""))</f>
-        <v/>
+      <c r="L11" t="n">
+        <v>500</v>
       </c>
       <c r="M11">
         <f>L11*4</f>
@@ -500,23 +509,23 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=ueoQMX8Up6A</t>
+          <t>https://m.facebook.com/diaadia.com.pa/posts/3752726028118645</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="D12" t="inlineStr">
         <is>
-          <t>Entrevista 1</t>
+          <t>Nota de prensa 1</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Entrevista a Wendy Jordan sobre los Consejos de seguridad para realizar transacciones en las plataformas digitales</t>
+          <t>Hub Humanitario en Panamá Pacífico transformado en Centro de Atención de Crisis</t>
         </is>
       </c>
       <c r="F12" s="1" t="n">
-        <v>44169</v>
+        <v>44172</v>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
@@ -531,7 +540,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Entrevista a Wendy Jordan sobre los Consejos de seguridad para realizar transacciones en las plataformas digitales</t>
+          <t>Hub Humanitario en Panamá Pacífico transformado en Centro de Atención de Crisis</t>
         </is>
       </c>
       <c r="K12" t="n">
@@ -559,46 +568,45 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>https://www.dailymotion.com/video/x7xxnvn</t>
+          <t>https://elcapitalfinanciero.com/hub-humanitario-en-panama-pacifico-ha-movilizado-326-toneladas-de-equipos-para-combate-del-covid-19-hacia-32-paises/</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="D13" t="inlineStr">
         <is>
-          <t>Entrevista 1</t>
+          <t>Nota de prensa 1</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Entrevista a Wendy Jordan sobre los Consejos de seguridad para realizar transacciones en las plataformas digitales</t>
+          <t>Hub Humanitario en Panamá Pacífico transformado en Centro de Atención de Crisis</t>
         </is>
       </c>
       <c r="F13" s="1" t="n">
-        <v>44169</v>
+        <v>44172</v>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>Web</t>
+          <t>Twitter</t>
         </is>
       </c>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr">
         <is>
-          <t>1 página</t>
+          <t>1 post</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Entrevista a Wendy Jordan sobre los Consejos de seguridad para realizar transacciones en las plataformas digitales</t>
+          <t>Hub Humanitario en Panamá Pacífico transformado en Centro de Atención de Crisis</t>
         </is>
       </c>
       <c r="K13" t="n">
         <v>5</v>
       </c>
-      <c r="L13">
-        <f>IF(N13=3, 750, IF(N13=1, 1000, ""))</f>
-        <v/>
+      <c r="L13" t="n">
+        <v>500</v>
       </c>
       <c r="M13">
         <f>L13*4</f>
@@ -618,23 +626,23 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>https://pa.domiplay.net/video/entrevista-a-wendy-jordan-experta-04-12-20-nex-ueop6a</t>
+          <t>https://twitter.com/ElCFPanama/status/1336084501273964545?s=20</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="D14" t="inlineStr">
         <is>
-          <t>Entrevista 1</t>
+          <t>Nota de prensa 1</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Entrevista a Wendy Jordan sobre los Consejos de seguridad para realizar transacciones en las plataformas digitales</t>
+          <t>Hub Humanitario en Panamá Pacífico transformado en Centro de Atención de Crisis</t>
         </is>
       </c>
       <c r="F14" s="1" t="n">
-        <v>44169</v>
+        <v>44172</v>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
@@ -649,7 +657,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Entrevista a Wendy Jordan sobre los Consejos de seguridad para realizar transacciones en las plataformas digitales</t>
+          <t>Hub Humanitario en Panamá Pacífico transformado en Centro de Atención de Crisis</t>
         </is>
       </c>
       <c r="K14" t="n">
@@ -677,45 +685,46 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>https://www.destunes.fr/entrevista-a-wendy-jordan-experta-en-e-commerce_dc1f3b76f.html</t>
+          <t>https://riducaonline.com/2020/12/07/hub-humanitario-en-panama-pacifico-transformado-en-centro-de-atencion-de-crisis/</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="D15" t="inlineStr">
         <is>
-          <t>Entrevista 1</t>
+          <t>Nota de prensa 1</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Entrevista a Wendy Jordan sobre los Consejos de seguridad para realizar transacciones en las plataformas digitales</t>
+          <t>Hub Humanitario en Panamá Pacífico transformado en Centro de Atención de Crisis</t>
         </is>
       </c>
       <c r="F15" s="1" t="n">
-        <v>44170</v>
+        <v>44173</v>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>Twitter</t>
+          <t>Web</t>
         </is>
       </c>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
         <is>
-          <t>1 post</t>
+          <t>1 página</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Entrevista a Wendy Jordan sobre los Consejos de seguridad para realizar transacciones en las plataformas digitales</t>
+          <t>Hub Humanitario en Panamá Pacífico transformado en Centro de Atención de Crisis</t>
         </is>
       </c>
       <c r="K15" t="n">
         <v>7</v>
       </c>
-      <c r="L15" t="n">
-        <v>500</v>
+      <c r="L15">
+        <f>IF(N15=3, 750, IF(N15=1, 1000, ""))</f>
+        <v/>
       </c>
       <c r="M15">
         <f>L15*4</f>
@@ -735,36 +744,47 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>https://twitter.com/nexnoticias/status/1335222792657244161?s=20</t>
+          <t>https://www.panama24horas.com.pa/panama/hub-humanitario-en-panama-pacifico-transformado-en-centro-de-atencion-de-crisis/</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="D16" t="inlineStr">
         <is>
-          <t>Entrevista 2</t>
+          <t>Nota de prensa 2</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>La Evolución de los negocios tradicionales a una plataforma digital con Alberto Grajales</t>
+          <t>Seguridad jurídica y mano de obra calificada entre los retos que tiene Panamá para no perder competitividad</t>
         </is>
       </c>
       <c r="F16" s="1" t="n">
-        <v>44172</v>
-      </c>
-      <c r="G16" s="2" t="inlineStr"/>
+        <v>44193</v>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>Web</t>
+        </is>
+      </c>
       <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>1 página</t>
+        </is>
+      </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>La Evolución de los negocios tradicionales a una plataforma digital con Alberto Grajales</t>
+          <t>Seguridad jurídica y mano de obra calificada entre los retos que tiene Panamá para no perder competitividad</t>
         </is>
       </c>
       <c r="K16" t="n">
         <v>8</v>
       </c>
-      <c r="L16" t="inlineStr"/>
+      <c r="L16">
+        <f>IF(N16=3, 750, IF(N16=1, 1000, ""))</f>
+        <v/>
+      </c>
       <c r="M16">
         <f>L16*4</f>
         <v/>
@@ -783,46 +803,45 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>No NEXTV 322</t>
+          <t>https://www.diaadia.com.pa/el-pais/seguridad-juridica-y-mano-de-obra-calificada-entre-los-retos-que-tiene-panama-373883</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="D17" t="inlineStr">
         <is>
-          <t>Entrevista 2</t>
+          <t>Nota de prensa 2</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>La Evolución de los negocios tradicionales a una plataforma digital con Alberto Grajales</t>
+          <t>Seguridad jurídica y mano de obra calificada entre los retos que tiene Panamá para no perder competitividad</t>
         </is>
       </c>
       <c r="F17" s="1" t="n">
-        <v>44172</v>
+        <v>44193</v>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>Web</t>
+          <t>Twitter</t>
         </is>
       </c>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
-          <t>1 página</t>
+          <t>1 post</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>La Evolución de los negocios tradicionales a una plataforma digital con Alberto Grajales</t>
+          <t>Seguridad jurídica y mano de obra calificada entre los retos que tiene Panamá para no perder competitividad</t>
         </is>
       </c>
       <c r="K17" t="n">
         <v>9</v>
       </c>
-      <c r="L17">
-        <f>IF(N17=3, 750, IF(N17=1, 1000, ""))</f>
-        <v/>
+      <c r="L17" t="n">
+        <v>500</v>
       </c>
       <c r="M17">
         <f>L17*4</f>
@@ -842,23 +861,23 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/watch?v=izT_IuzA8FQ</t>
+          <t>https://twitter.com/DiaaDiaPa/status/1343589184745967619?s=20</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="D18" t="inlineStr">
         <is>
-          <t>Entrevista 2</t>
+          <t>Nota de prensa 2</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>La Evolución de los negocios tradicionales a una plataforma digital con Alberto Grajales</t>
+          <t>Seguridad jurídica y mano de obra calificada entre los retos que tiene Panamá para no perder competitividad</t>
         </is>
       </c>
       <c r="F18" s="1" t="n">
-        <v>44172</v>
+        <v>44193</v>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
@@ -873,7 +892,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>La Evolución de los negocios tradicionales a una plataforma digital con Alberto Grajales</t>
+          <t>Seguridad jurídica y mano de obra calificada entre los retos que tiene Panamá para no perder competitividad</t>
         </is>
       </c>
       <c r="K18" t="n">
@@ -901,23 +920,23 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>https://www.dailymotion.com/video/x7xz8af</t>
+          <t>https://vozdeladiasporanews.com/seguridad-juridica-y-mano-de-obra-calificada-entre-los-retos-que-tiene-panama-para-no-perder-competitividad/</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="D19" t="inlineStr">
         <is>
-          <t>Entrevista 2</t>
+          <t>Nota de prensa 2</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>La Evolución de los negocios tradicionales a una plataforma digital con Alberto Grajales</t>
+          <t>Seguridad jurídica y mano de obra calificada entre los retos que tiene Panamá para no perder competitividad</t>
         </is>
       </c>
       <c r="F19" s="1" t="n">
-        <v>44172</v>
+        <v>44193</v>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
@@ -932,7 +951,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>La Evolución de los negocios tradicionales a una plataforma digital con Alberto Grajales</t>
+          <t>Seguridad jurídica y mano de obra calificada entre los retos que tiene Panamá para no perder competitividad</t>
         </is>
       </c>
       <c r="K19" t="n">
@@ -960,23 +979,23 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>https://pa.domiplay.net/video/entrevista-a-alberto-grajales-sobre-07-12-20-nex-izt8fq</t>
+          <t>https://www.panamaenminutos.com/nacionales/seguridad-juridica-y-mano-de-obra-calificada-entre-los-retos-que-tiene-panama/</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="D20" t="inlineStr">
         <is>
-          <t>Nota de Prensa 2</t>
+          <t>Nota de prensa 2</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>La transformación digital del sector inmobiliario se acelera por la pandemia</t>
+          <t>Seguridad jurídica y mano de obra calificada entre los retos que tiene Panamá para no perder competitividad</t>
         </is>
       </c>
       <c r="F20" s="1" t="n">
-        <v>44176</v>
+        <v>44193</v>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
@@ -991,7 +1010,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>La transformación digital del sector inmobiliario se acelera por la pandemia</t>
+          <t>Seguridad jurídica y mano de obra calificada entre los retos que tiene Panamá para no perder competitividad</t>
         </is>
       </c>
       <c r="K20" t="n">
@@ -1019,46 +1038,45 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>https://riducaonline.com/2020/12/11/la-transformacion-digital-del-sector-inmobiliario-se-acelera-por-la-pandemia/</t>
+          <t>https://www.panama24horas.com.pa/panama/seguridad-juridica-y-mano-de-obra-calificada-entre-los-retos-que-tiene-panama-para-no-perder-competitividad/</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="D21" t="inlineStr">
         <is>
-          <t>Nota de Prensa 2</t>
+          <t>Nota de prensa 2</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>La transformación digital del sector inmobiliario se acelera por la pandemia</t>
+          <t>Seguridad jurídica y mano de obra calificada entre los retos que tiene Panamá para no perder competitividad</t>
         </is>
       </c>
       <c r="F21" s="1" t="n">
-        <v>44176</v>
+        <v>44193</v>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>Web</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
-          <t>1 página</t>
+          <t>1 post</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>La transformación digital del sector inmobiliario se acelera por la pandemia</t>
+          <t>Seguridad jurídica y mano de obra calificada entre los retos que tiene Panamá para no perder competitividad</t>
         </is>
       </c>
       <c r="K21" t="n">
         <v>13</v>
       </c>
-      <c r="L21">
-        <f>IF(N21=3, 750, IF(N21=1, 1000, ""))</f>
-        <v/>
+      <c r="L21" t="n">
+        <v>500</v>
       </c>
       <c r="M21">
         <f>L21*4</f>
@@ -1078,45 +1096,46 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>https://www.diaadia.com.pa/relax/la-transformacion-digital-del-sector-inmobiliario-se-acelera-por-la-pandemia-373346</t>
+          <t>https://www.instagram.com/p/CJWvkiDHtOh/?igshid=1pokyivcl1um</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="D22" t="inlineStr">
         <is>
-          <t>Nota de Prensa 2</t>
+          <t>Nota de prensa 2</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>La transformación digital del sector inmobiliario se acelera por la pandemia</t>
+          <t>Seguridad jurídica y mano de obra calificada entre los retos que tiene Panamá para no perder competitividad</t>
         </is>
       </c>
       <c r="F22" s="1" t="n">
-        <v>44176</v>
+        <v>44194</v>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>Twitter</t>
+          <t>Web</t>
         </is>
       </c>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
-          <t>1 post</t>
+          <t>1 página</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>La transformación digital del sector inmobiliario se acelera por la pandemia</t>
+          <t>Seguridad jurídica y mano de obra calificada entre los retos que tiene Panamá para no perder competitividad</t>
         </is>
       </c>
       <c r="K22" t="n">
         <v>14</v>
       </c>
-      <c r="L22" t="n">
-        <v>500</v>
+      <c r="L22">
+        <f>IF(N22=3, 750, IF(N22=1, 1000, ""))</f>
+        <v/>
       </c>
       <c r="M22">
         <f>L22*4</f>
@@ -1136,45 +1155,46 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>https://twitter.com/DiaaDiaPa/status/1337498586599350273?s=20</t>
+          <t>https://riducaonline.com/2020/12/29/seguridad-juridica-y-mano-de-obra-calificada-entre-los-retos-que-tiene-panama-para-no-perder-competitividad/</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="D23" t="inlineStr">
         <is>
-          <t>Nota de Prensa 2</t>
+          <t>Nota de prensa 2</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>La transformación digital del sector inmobiliario se acelera por la pandemia</t>
+          <t>Seguridad jurídica y mano de obra calificada entre los retos que tiene Panamá para no perder competitividad</t>
         </is>
       </c>
       <c r="F23" s="1" t="n">
-        <v>44176</v>
+        <v>44194</v>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Web</t>
         </is>
       </c>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
-          <t>1 post</t>
+          <t>1 página</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>La transformación digital del sector inmobiliario se acelera por la pandemia</t>
+          <t>Panamá Pacífico tras la búsqueda de nuevos negocios e inversiones</t>
         </is>
       </c>
       <c r="K23" t="n">
         <v>15</v>
       </c>
-      <c r="L23" t="n">
-        <v>500</v>
+      <c r="L23">
+        <f>IF(N23=3, 750, IF(N23=1, 1000, ""))</f>
+        <v/>
       </c>
       <c r="M23">
         <f>L23*4</f>
@@ -1194,23 +1214,23 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/CIqJsupncX2/?igshid=1ob0lks4a6kzp</t>
+          <t>https://www.martesfinanciero.com/portada/panama-pacifico-tras-la-busqueda-de-nuevos-negocios-e-inversiones/</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="D24" t="inlineStr">
         <is>
-          <t>Nota de Prensa 2</t>
+          <t>Nota de prensa 2</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>La transformación digital del sector inmobiliario se acelera por la pandemia</t>
+          <t>Seguridad jurídica y mano de obra calificada entre los retos que tiene Panamá para no perder competitividad</t>
         </is>
       </c>
       <c r="F24" s="1" t="n">
-        <v>44189</v>
+        <v>44194</v>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
@@ -1225,7 +1245,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>La transformación digital del sector inmobiliario se acelera por la pandemia</t>
+          <t>Panamá Pacífico tras la búsqueda de nuevos negocios</t>
         </is>
       </c>
       <c r="K24" t="n">
@@ -1253,30 +1273,30 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>https://somosimpactopositivo.com/impacto-economico/sector-inmobiliario-digital/</t>
+          <t>https://www.prensa.com/impresa/martes-financiero/panama-pacifico-tras-la-busqueda-de-nuevos-negocios/</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="D25" t="inlineStr">
         <is>
-          <t>Entrevista 3</t>
+          <t>Nota de prensa 2</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Entrevista a Wendy Jordan sobre los Consejos de seguridad para realizar transacciones en las plataformas digitales</t>
+          <t>Seguridad jurídica y mano de obra calificada entre los retos que tiene Panamá para no perder competitividad</t>
         </is>
       </c>
       <c r="F25" s="1" t="n">
-        <v>44179</v>
-      </c>
-      <c r="G25" s="2" t="inlineStr"/>
+        <v>44194</v>
+      </c>
+      <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Entrevista a Wendy Jordan sobre los Consejos de seguridad para realizar transacciones en las plataformas digitales</t>
+          <t>Panamá Pacífico tras la búsqueda de nuevos negocios</t>
         </is>
       </c>
       <c r="K25" t="n">
@@ -1301,45 +1321,46 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>No RPC RADIO 465 segundos</t>
+          <t>No La Prensa</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="D26" t="inlineStr">
         <is>
-          <t>Entrevista 3</t>
+          <t>Nota de prensa 3 (Noviembre)</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Entrevista a Wendy Jordan sobre los Consejos de seguridad para realizar transacciones en las plataformas digitales</t>
+          <t>Seguridad jurídica y mano de obra calificada entre los retos que tiene Panamá para no perder competitividad</t>
         </is>
       </c>
       <c r="F26" s="1" t="n">
-        <v>44179</v>
+        <v>44166</v>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Web</t>
         </is>
       </c>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
-          <t>1 post</t>
+          <t>1 página</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Entrevista a Wendy Jordan sobre los Consejos de seguridad para realizar transacciones en las plataformas digitales</t>
+          <t>Panamá Pacífico atesora lugares emblemáticos que marcaron la historia del país y hoy son un lugar turístico</t>
         </is>
       </c>
       <c r="K26" t="n">
         <v>18</v>
       </c>
-      <c r="L26" t="n">
-        <v>500</v>
+      <c r="L26">
+        <f>IF(N26=3, 750, IF(N26=1, 1000, ""))</f>
+        <v/>
       </c>
       <c r="M26">
         <f>L26*4</f>
@@ -1359,422 +1380,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/rpcradio/videos/238027684410877/</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Entrevista 4</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>La Evolución de los negocios tradicionales a una plataforma digital con Alberto Grajales</t>
-        </is>
-      </c>
-      <c r="F27" s="1" t="n">
-        <v>44179</v>
-      </c>
-      <c r="G27" s="2" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>La Evolución de los negocios tradicionales a una plataforma digital con Alberto Grajales</t>
-        </is>
-      </c>
-      <c r="K27" t="n">
-        <v>19</v>
-      </c>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27">
-        <f>L27*4</f>
-        <v/>
-      </c>
-      <c r="O27">
-        <f>IF(N27=1,1,"")</f>
-        <v/>
-      </c>
-      <c r="P27">
-        <f>IF(N27=2,1,"")</f>
-        <v/>
-      </c>
-      <c r="Q27">
-        <f>IF(N27=3,1,"")</f>
-        <v/>
-      </c>
-      <c r="AA27" t="inlineStr">
-        <is>
-          <t>No FETV 600</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Entrevista 5</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>Entrevista a Wendy Jordan sobre Shoperia y el Mall Virtual</t>
-        </is>
-      </c>
-      <c r="F28" s="1" t="n">
-        <v>44180</v>
-      </c>
-      <c r="G28" s="2" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>Entrevista a Wendy Jordan sobre Shoperia y el Mall Virtual</t>
-        </is>
-      </c>
-      <c r="K28" t="n">
-        <v>20</v>
-      </c>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28">
-        <f>L28*4</f>
-        <v/>
-      </c>
-      <c r="O28">
-        <f>IF(N28=1,1,"")</f>
-        <v/>
-      </c>
-      <c r="P28">
-        <f>IF(N28=2,1,"")</f>
-        <v/>
-      </c>
-      <c r="Q28">
-        <f>IF(N28=3,1,"")</f>
-        <v/>
-      </c>
-      <c r="AA28" t="inlineStr">
-        <is>
-          <t>No JELOU - TVN 480 segundos</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Entrevista 6</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>La Evolución de los negocios tradicionales a una plataforma digital con Alberto Grajales</t>
-        </is>
-      </c>
-      <c r="F29" s="1" t="n">
-        <v>44183</v>
-      </c>
-      <c r="G29" s="2" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>La Evolución de los negocios tradicionales a una plataforma digital con Alberto Grajales</t>
-        </is>
-      </c>
-      <c r="K29" t="n">
-        <v>21</v>
-      </c>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29">
-        <f>L29*4</f>
-        <v/>
-      </c>
-      <c r="O29">
-        <f>IF(N29=1,1,"")</f>
-        <v/>
-      </c>
-      <c r="P29">
-        <f>IF(N29=2,1,"")</f>
-        <v/>
-      </c>
-      <c r="Q29">
-        <f>IF(N29=3,1,"")</f>
-        <v/>
-      </c>
-      <c r="AA29" t="inlineStr">
-        <is>
-          <t>No RADIO PANAMÁ 172</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>Entrevista 6</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>La Evolución de los negocios tradicionales a una plataforma digital con Alberto Grajales</t>
-        </is>
-      </c>
-      <c r="F30" s="1" t="n">
-        <v>44183</v>
-      </c>
-      <c r="G30" s="2" t="inlineStr">
-        <is>
-          <t>Web</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>1 página</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>Plataformas digitales han sido punto clave para comercializar productos en medio de la pandemia</t>
-        </is>
-      </c>
-      <c r="K30" t="n">
-        <v>22</v>
-      </c>
-      <c r="L30">
-        <f>IF(N30=3, 750, IF(N30=1, 1000, ""))</f>
-        <v/>
-      </c>
-      <c r="M30">
-        <f>L30*4</f>
-        <v/>
-      </c>
-      <c r="O30">
-        <f>IF(N30=1,1,"")</f>
-        <v/>
-      </c>
-      <c r="P30">
-        <f>IF(N30=2,1,"")</f>
-        <v/>
-      </c>
-      <c r="Q30">
-        <f>IF(N30=3,1,"")</f>
-        <v/>
-      </c>
-      <c r="AA30" t="inlineStr">
-        <is>
-          <t>https://www.radiopanama.com.pa/noticias/actualidad/plataformas-digitales-han-sido-punto-clave-para-comercializar-productos-en-medio-de-la-pandemia/20201218/nota/4096370.aspx</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Entrevista 6</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>La Evolución de los negocios tradicionales a una plataforma digital con Alberto Grajales</t>
-        </is>
-      </c>
-      <c r="F31" s="1" t="n">
-        <v>44184</v>
-      </c>
-      <c r="G31" s="2" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>La Evolución de los negocios tradicionales a una plataforma digital con Alberto Grajales</t>
-        </is>
-      </c>
-      <c r="K31" t="n">
-        <v>23</v>
-      </c>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31">
-        <f>L31*4</f>
-        <v/>
-      </c>
-      <c r="O31">
-        <f>IF(N31=1,1,"")</f>
-        <v/>
-      </c>
-      <c r="P31">
-        <f>IF(N31=2,1,"")</f>
-        <v/>
-      </c>
-      <c r="Q31">
-        <f>IF(N31=3,1,"")</f>
-        <v/>
-      </c>
-      <c r="AA31" t="inlineStr">
-        <is>
-          <t>No RADIO PANAMÁ  172</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Entrevista 6</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>La Evolución de los negocios tradicionales a una plataforma digital con Alberto Grajales</t>
-        </is>
-      </c>
-      <c r="F32" s="1" t="n">
-        <v>44184</v>
-      </c>
-      <c r="G32" s="2" t="inlineStr">
-        <is>
-          <t>Twitter</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>1 post</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>Plataformas digitales han sido punto clave para comercializar productos en medio de la pandemia</t>
-        </is>
-      </c>
-      <c r="K32" t="n">
-        <v>24</v>
-      </c>
-      <c r="L32" t="n">
-        <v>500</v>
-      </c>
-      <c r="M32">
-        <f>L32*4</f>
-        <v/>
-      </c>
-      <c r="O32">
-        <f>IF(N32=1,1,"")</f>
-        <v/>
-      </c>
-      <c r="P32">
-        <f>IF(N32=2,1,"")</f>
-        <v/>
-      </c>
-      <c r="Q32">
-        <f>IF(N32=3,1,"")</f>
-        <v/>
-      </c>
-      <c r="AA32" t="inlineStr">
-        <is>
-          <t>https://twitter.com/radiopanama/status/1340477016685068294?s=20</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>Entrevista 6</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>La Evolución de los negocios tradicionales a una plataforma digital con Alberto Grajales</t>
-        </is>
-      </c>
-      <c r="F33" s="1" t="n">
-        <v>44185</v>
-      </c>
-      <c r="G33" s="2" t="inlineStr">
-        <is>
-          <t>Twitter</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>1 post</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>Plataformas digitales han sido punto clave para comercializar productos en medio de la pandemia</t>
-        </is>
-      </c>
-      <c r="K33" t="n">
-        <v>25</v>
-      </c>
-      <c r="L33" t="n">
-        <v>500</v>
-      </c>
-      <c r="M33">
-        <f>L33*4</f>
-        <v/>
-      </c>
-      <c r="O33">
-        <f>IF(N33=1,1,"")</f>
-        <v/>
-      </c>
-      <c r="P33">
-        <f>IF(N33=2,1,"")</f>
-        <v/>
-      </c>
-      <c r="Q33">
-        <f>IF(N33=3,1,"")</f>
-        <v/>
-      </c>
-      <c r="AA33" t="inlineStr">
-        <is>
-          <t>https://twitter.com/radiopanama/status/1340633044651286529?s=20</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>Entrevista 7</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>La Evolución de los negocios tradicionales a una plataforma digital con Alberto Grajales</t>
-        </is>
-      </c>
-      <c r="F34" s="1" t="n">
-        <v>44184</v>
-      </c>
-      <c r="G34" s="2" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>Plataformas digitales han sido punto clave para comercializar productos en medio de la pandemia</t>
-        </is>
-      </c>
-      <c r="K34" t="n">
-        <v>26</v>
-      </c>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34">
-        <f>L34*4</f>
-        <v/>
-      </c>
-      <c r="O34">
-        <f>IF(N34=1,1,"")</f>
-        <v/>
-      </c>
-      <c r="P34">
-        <f>IF(N34=2,1,"")</f>
-        <v/>
-      </c>
-      <c r="Q34">
-        <f>IF(N34=3,1,"")</f>
-        <v/>
-      </c>
-      <c r="AA34" t="inlineStr">
-        <is>
-          <t>No Kw Continente 172</t>
+          <t>https://somosimpactopositivo.com/impacto-social/panama-pacifico-turismo/</t>
         </is>
       </c>
     </row>
@@ -1796,16 +1402,7 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G22" r:id="rId14"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G23" r:id="rId15"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G24" r:id="rId16"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G25" r:id="rId17"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G26" r:id="rId18"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G27" r:id="rId19"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G28" r:id="rId20"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G29" r:id="rId21"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G30" r:id="rId22"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G31" r:id="rId23"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G32" r:id="rId24"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G33" r:id="rId25"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G34" r:id="rId26"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G26" r:id="rId17"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
